--- a/User Roles Cross Reference.xlsx
+++ b/User Roles Cross Reference.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bsbishop/repos/mongodb-user-roles/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bsbishop/repos/ce-mongodb-user-roles-reference/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDA924F5-15A2-1948-BA35-879834873F37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08EE3071-EBB6-6946-B96D-27A65546CBC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-51200" yWindow="480" windowWidth="25560" windowHeight="28320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MongoDB Roles" sheetId="1" r:id="rId1"/>
@@ -33,6 +33,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Every database includes the following client roles.</t>
         </r>
@@ -45,6 +46,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Every database includes the following database administration roles.</t>
         </r>
@@ -70,6 +72,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>The admin database includes the following roles for backing up and restoring data.</t>
         </r>
@@ -82,6 +85,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>The following roles are available on the admin database and provide privileges which apply to all databases except local and config.</t>
         </r>
@@ -94,6 +98,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Several roles provide either indirect or direct system-wide superuser access.</t>
         </r>
@@ -106,6 +111,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Provides the ability to read data on all non-system collections and the system.js collection.</t>
         </r>
@@ -118,6 +124,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Provides all the privileges of the read role plus ability to modify data on all non-system collections and the system.js collection.</t>
         </r>
@@ -130,6 +137,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Provides the ability to perform administrative tasks such as schema-related tasks, indexing, and gathering statistics. This role does not grant privileges for user and role management.</t>
         </r>
@@ -142,6 +150,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>The database owner can perform any administrative action on the database. This role combines the privileges granted by the readWrite, dbAdmin and userAdmin roles.</t>
         </r>
@@ -154,6 +163,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Provides the ability to create and modify roles and users on the current database. Since the userAdmin role allows users to grant any privilege to any user, including themselves, the role also indirectly provides superuser access to either the database or, if scoped to the admin database, the cluster.</t>
         </r>
@@ -179,6 +189,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Provides management and monitoring actions on the cluster. A user with this role can access the config and local databases, which are used in sharding and replication, respectively.</t>
         </r>
@@ -191,6 +202,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Provides read-only access to monitoring tools, such as the MongoDB Cloud Manager and Ops Manager monitoring agent.</t>
         </r>
@@ -203,6 +215,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Provides the ability to monitor and manage servers.</t>
         </r>
@@ -215,6 +228,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Provides minimal privileges needed for backing up data. This role provides sufficient privileges to use the MongoDB Cloud Manager backup agent, Ops Manager backup agent, or to use mongodump to back up an entire mongod instance.
 Provides the insert and update actions on the mms.backup collection in the admin database and on the settings collection in the config database.</t>
@@ -228,6 +242,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Provides the necessary privileges to restore data from backups if the data does not include system.profile collection data and you run mongorestore without the --oplogReplay option.</t>
         </r>
@@ -240,6 +255,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Provides the same read-only privileges as read on all databases except local and config. The role also provides the listDatabases action on the cluster as a whole.</t>
         </r>
@@ -252,6 +268,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Provides the same privileges as readWrite on all databases except local and config. The role also provides the listDatabases action on the cluster as a whole.</t>
         </r>
@@ -264,6 +281,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Provides the same access to user administration operations as userAdmin on all databases except local and config.</t>
         </r>
@@ -276,6 +294,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Provides the same privileges as dbAdmin on all databases except local and config. The role also provides the listDatabases action on the cluster as a whole.</t>
         </r>
@@ -288,6 +307,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Provides access to the operations and all the resources of the following roles combined:
 readWriteAnyDatabase
@@ -306,6 +326,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>MongoDB assigns this role to user objects that represent cluster members, such as replica set members and mongos instances. The role entitles its holder to take any action against any object in the database.
 Do not assign this role to user objects representing applications or human administrators, other than in exceptional circumstances.</t>
@@ -561,6 +582,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Users can bypass document validation on commands and methods that support the bypassDocumentValidation option. The following commands and their equivalent methods support bypassing document validation:
 aggregate
@@ -579,6 +601,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>User can execute the following commands using a UUID as if it were a namespace:
 find
@@ -606,6 +629,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Users can change their own custom information. Apply this action to database resources. See also Change Your Password and Custom Data.</t>
         </r>
@@ -631,6 +655,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>User can change the password of any user in the given database. Apply this action to database resources.</t>
         </r>
@@ -643,6 +668,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>User can perform the db.createCollection() method. Apply this action to database or collection resources.</t>
         </r>
@@ -655,6 +681,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Provides access to the db.collection.createIndex() method and the createIndexes command. Apply this action to database or collection resources.</t>
         </r>
@@ -667,6 +694,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>User can create new roles in the given database. Apply this action to database resources.</t>
         </r>
@@ -679,6 +707,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>User can create new users in the given database. Apply this action to database resources.</t>
         </r>
@@ -691,6 +720,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>User can perform the db.collection.drop() method. Apply this action to database or collection resources.</t>
         </r>
@@ -703,6 +733,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>User can delete any role from the given database. Apply this action to database resources.</t>
         </r>
@@ -715,6 +746,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>User can remove any user from the given database. Apply this action to database resources.</t>
         </r>
@@ -753,6 +785,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Starting in MongoDB 4.2, users can always kill their own cursors, regardless of whether the users have the privilege to killCursors. As such, the killCursors privilege has no effect in MongoDB 4.2+.
 In MongoDB 3.6.3 through MongoDB 4.0.x, users require killCursors privilege to kill their own curors when access control is enabled. Cursors are associated with the users at the time of cursor creation. Apply this action to collection resources.</t>
@@ -766,6 +799,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>User can kill any cursor, even cursors created by other users. Apply this action to collection resources.</t>
         </r>
@@ -778,6 +812,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>User can remove any role from any user from any database in the system. Apply this action to database resources.</t>
         </r>
@@ -790,6 +825,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>User can specify the authenticationRestrictions field in the user document when running the following commands:
 createUser
@@ -807,6 +843,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>User can perform the db.fsyncUnlock() method. Apply this action to the cluster resource.</t>
         </r>
@@ -819,6 +856,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>User can view information about any role in the given database. Apply this action to database resources.</t>
         </r>
@@ -844,6 +882,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>User can perform the authSchemaUpgrade command. Apply this action to the cluster resource.</t>
         </r>
@@ -856,6 +895,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>User can perform the cleanupOrphaned command. Apply this action to the cluster resource.</t>
         </r>
@@ -868,6 +908,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>User can enable and use the CPU profiler. Apply this action to the cluster resource.</t>
         </r>
@@ -880,6 +921,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>User can use the db.currentOp() method to return information on pending and active operations. Apply this action to the cluster resource.</t>
         </r>
@@ -892,6 +934,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Provides access to the invalidateUserCache command. Apply this action to the cluster resource.</t>
         </r>
@@ -904,6 +947,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>User can perform the db.killOp() method. Apply this action to the cluster resource.</t>
         </r>
@@ -916,6 +960,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>User can run the following operations:
 $planCacheStats aggregation stage.
@@ -930,6 +975,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>User can perform the planCacheClear command and the PlanCache.clear() and PlanCache.clearPlansByQuery() methods. Apply this action to database or collection resources.</t>
         </r>
@@ -942,6 +988,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>User can perform the storageDetails command. Apply this action to database or collection resources.</t>
         </r>
@@ -967,6 +1014,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>User can append notes to the oplog. Apply this action to the cluster resource.</t>
         </r>
@@ -979,6 +1027,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>User can configure a replica set. Apply this action to the cluster resource.</t>
         </r>
@@ -991,6 +1040,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>User can view a replica set’s configuration. Provides access to the replSetGetConfig command and rs.conf() helper method.
 Apply this action to the cluster resource.</t>
@@ -1004,6 +1054,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>User can perform the replSetGetStatus command. Apply this action to the cluster resource.</t>
         </r>
@@ -1016,6 +1067,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>User can perform the replSetHeartbeat command. Apply this action to the cluster resource.</t>
         </r>
@@ -1028,6 +1080,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>User can change the state of a replica set through the replSetFreeze, replSetMaintenance, replSetStepDown, and replSetSyncFrom commands. Apply this action to the cluster resource.</t>
         </r>
@@ -1040,6 +1093,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>User can perform the resync command. Apply this action to the cluster resource.</t>
         </r>
@@ -1052,6 +1106,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>User can perform the addShard command. Apply this action to the cluster resource.</t>
         </r>
@@ -1064,6 +1119,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Required to clear a chunk’s jumbo flag using the clearJumboFlag command. Apply this action to database or collection resources.</t>
         </r>
@@ -1076,6 +1132,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>The action can apply to either:
 Database or collection resource to enable sharding for a database or shard a collection.
@@ -1090,6 +1147,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Provides privileges to refine the shard key for a sharded collection; i.e. run the refineCollectionShardKey command. Apply this action to database or collection resource.</t>
         </r>
@@ -1102,6 +1160,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>User can perform the flushRouterConfig command. Apply this action to the cluster resource.</t>
         </r>
@@ -1114,6 +1173,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>User can perform the getShardMap command. Apply this action to the cluster resource.</t>
         </r>
@@ -1126,6 +1186,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>User can perform the getShardVersion command. Apply this action to database resources.</t>
         </r>
@@ -1138,6 +1199,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>User can perform the listShards command. Apply this action to the cluster resource.</t>
         </r>
@@ -1150,6 +1212,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>User can perform the moveChunk command. In addition, user can perform the movePrimary command provided that the privilege is applied to an appropriate database resource. Apply this action to database or collection resources.</t>
         </r>
@@ -1162,6 +1225,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>User can perform the removeShard command. Apply this action to the cluster resource.</t>
         </r>
@@ -1174,6 +1238,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>User can perform the shardingState command. Apply this action to the cluster resource.</t>
         </r>
@@ -1186,6 +1251,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>User can perform the splitChunk command and the mergeChunks command. Apply this action to database or collection resources.</t>
         </r>
@@ -1211,6 +1277,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>User can perform the logApplicationMessage command. Apply this action to the cluster resource.</t>
         </r>
@@ -1223,6 +1290,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>User can perform the closeAllDatabases command. Apply this action to the cluster resource.</t>
         </r>
@@ -1235,6 +1303,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>User can perform the collMod command. Apply this action to database or collection resources.</t>
         </r>
@@ -1247,6 +1316,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>User can perform the compact command. Apply this action to database or collection resources.</t>
         </r>
@@ -1272,6 +1342,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>User can perform the convertToCapped command. Apply this action to database or collection resources.</t>
         </r>
@@ -1284,6 +1355,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>User can perform the dropConnections command. Apply this action to the cluster resource.</t>
         </r>
@@ -1296,6 +1368,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>User can perform the dropDatabase command. Apply this action to database resources.</t>
         </r>
@@ -1308,6 +1381,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>User can perform the dropIndexes command. Apply this action to database or collection resources.</t>
         </r>
@@ -1353,6 +1427,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>User can perform the fsync command. Apply this action to the cluster resource.</t>
         </r>
@@ -1365,6 +1440,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>User can issue the administrative getDefaultRWConcern command. Apply this action to the cluster resource.</t>
         </r>
@@ -1377,6 +1453,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>User can perform the getParameter command. Apply this action to the cluster resource.</t>
         </r>
@@ -1389,6 +1466,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Provides information about the server the MongoDB instance runs on. Apply this action to the cluster resource.</t>
         </r>
@@ -1401,6 +1479,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>User can perform the logRotate command. Apply this action to the cluster resource.</t>
         </r>
@@ -1413,6 +1492,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>User can perform the reIndex command. Apply this action to database or collection resources.</t>
         </r>
@@ -1425,6 +1505,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Allows the user to rename collections on the current database using the renameCollection command. Apply this action to database resources.</t>
         </r>
@@ -1437,6 +1518,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>User can issue the administrative setDefaultRWConcern command. Apply this action to the cluster resource.</t>
         </r>
@@ -1449,6 +1531,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>User can perform the setParameter command. Apply this action to the cluster resource.</t>
         </r>
@@ -1461,6 +1544,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>User can perform the shutdown command. Apply this action to the cluster resource.</t>
         </r>
@@ -1473,6 +1557,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>User can perform the touch command. Apply this action to the cluster resource.</t>
         </r>
@@ -1524,6 +1609,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>User with this action on the cluster resource can check the status of Free Monitoring.</t>
         </r>
@@ -1536,6 +1622,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>User with this action on the cluster resource can enable or disable Free Monitoring.</t>
         </r>
@@ -1548,6 +1635,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>User can perform the collStats command. Apply this action to database or collection resources.</t>
         </r>
@@ -1560,6 +1648,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>User can perform the connPoolStats and the deprecated shardConnPoolStats commands. Apply this action to the cluster resource.</t>
         </r>
@@ -1572,6 +1661,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>User can perform the cursorInfo command. Apply this action to the cluster resource.</t>
         </r>
@@ -1584,6 +1674,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>User can perform the dbHash command. Apply this action to database or collection resources.</t>
         </r>
@@ -1596,6 +1687,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>User can perform the dbStats command. Apply this action to database resources.</t>
         </r>
@@ -1608,6 +1700,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>User can perform the getCmdLineOpts command. Apply this action to the cluster resource.</t>
         </r>
@@ -1620,6 +1713,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>User can perform the getLog command. Apply this action to the cluster resource.</t>
         </r>
@@ -1632,6 +1726,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>User can perform the indexStats command. Apply this action to database or collection resources.</t>
         </r>
@@ -1644,6 +1739,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>User can perform the listDatabases command. Apply this action to the cluster resource.</t>
         </r>
@@ -1656,6 +1752,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>User can perform the listCollections command. Apply this action to database resources.</t>
         </r>
@@ -1668,6 +1765,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>User can perform the listIndexes command. Apply this action to database or collection resources.</t>
         </r>
@@ -1680,6 +1778,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>User can perform the netstat command. Apply this action to the cluster resource.</t>
         </r>
@@ -1692,6 +1791,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>User can perform the serverStatus command. Apply this action to the cluster resource.</t>
         </r>
@@ -1704,6 +1804,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>User can perform the validate command. Apply this action to database or collection resources.</t>
         </r>
@@ -1716,6 +1817,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>User can perform the top command. Apply this action to the cluster resource.</t>
         </r>
@@ -1728,6 +1830,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Allows any action on a resource. Do not assign this action unless it is absolutely necessary.</t>
         </r>
@@ -1740,6 +1843,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Allows internal actions. Do not assign this action unless it is absolutely necessary.</t>
         </r>
@@ -1928,7 +2032,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="320">
   <si>
     <t>Priviledge Groups</t>
   </si>
@@ -2446,6 +2550,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Courier New"/>
+        <family val="1"/>
       </rPr>
       <t>system.profile</t>
     </r>
@@ -2469,6 +2574,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>cluster</t>
     </r>
@@ -2490,6 +2596,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Courier New"/>
+        <family val="1"/>
       </rPr>
       <t>config</t>
     </r>
@@ -2498,6 +2605,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> database</t>
     </r>
@@ -2511,6 +2619,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Resource: </t>
     </r>
@@ -2520,6 +2629,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Courier New"/>
+        <family val="1"/>
       </rPr>
       <t>system.js</t>
     </r>
@@ -2535,6 +2645,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Courier New"/>
+        <family val="1"/>
       </rPr>
       <t>local</t>
     </r>
@@ -2543,6 +2654,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> database</t>
     </r>
@@ -2560,6 +2672,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Courier New"/>
+        <family val="1"/>
       </rPr>
       <t>system.replset</t>
     </r>
@@ -2568,6 +2681,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> collection</t>
     </r>
@@ -2583,6 +2697,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Courier New"/>
+        <family val="1"/>
       </rPr>
       <t>config</t>
     </r>
@@ -2591,6 +2706,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> database.</t>
     </r>
@@ -2606,6 +2722,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Courier New"/>
+        <family val="1"/>
       </rPr>
       <t>admin.system.users</t>
     </r>
@@ -2621,6 +2738,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Courier New"/>
+        <family val="1"/>
       </rPr>
       <t>admin.system.roles</t>
     </r>
@@ -2636,6 +2754,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Courier New"/>
+        <family val="1"/>
       </rPr>
       <t>config.settings</t>
     </r>
@@ -2651,6 +2770,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Courier New"/>
+        <family val="1"/>
       </rPr>
       <t>system.users</t>
     </r>
@@ -2659,6 +2779,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> collections from versions of MongoDB prior to 2.6.</t>
     </r>
@@ -2674,6 +2795,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Courier New"/>
+        <family val="1"/>
       </rPr>
       <t>admin.system.version</t>
     </r>
@@ -2689,6 +2811,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Courier New"/>
+        <family val="1"/>
       </rPr>
       <t>system.users</t>
     </r>
@@ -2704,6 +2827,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Courier New"/>
+        <family val="1"/>
       </rPr>
       <t>local</t>
     </r>
@@ -2712,6 +2836,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> database</t>
     </r>
@@ -2727,6 +2852,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Courier New"/>
+        <family val="1"/>
       </rPr>
       <t>config</t>
     </r>
@@ -2735,6 +2861,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> database</t>
     </r>
@@ -3110,6 +3237,7 @@
       <sz val="10"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -3117,6 +3245,7 @@
       <sz val="10"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -3124,10 +3253,12 @@
       <sz val="10"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -3135,6 +3266,7 @@
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -3142,11 +3274,13 @@
       <sz val="10"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -3154,6 +3288,7 @@
       <sz val="10"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -3161,6 +3296,7 @@
       <sz val="10"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -3168,11 +3304,13 @@
       <sz val="10"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -3180,12 +3318,14 @@
       <sz val="10"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -3193,51 +3333,60 @@
       <sz val="10"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF1155CC"/>
       <name val="Courier New"/>
+      <family val="1"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Courier New"/>
+      <family val="1"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -3400,7 +3549,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -3509,14 +3658,35 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -3530,43 +3700,16 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3898,7 +4041,7 @@
   </sheetPr>
   <dimension ref="A1:Z1012"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -3917,37 +4060,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="28" x14ac:dyDescent="0.15">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="39"/>
-      <c r="E1" s="38" t="s">
+      <c r="D1" s="47"/>
+      <c r="E1" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="41"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="38" t="s">
+      <c r="F1" s="46"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="38" t="s">
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="39"/>
-      <c r="N1" s="40" t="s">
+      <c r="M1" s="47"/>
+      <c r="N1" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="39"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="47"/>
       <c r="R1" s="1" t="s">
         <v>7</v>
       </c>
@@ -3963,8 +4106,8 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A2" s="43"/>
-      <c r="B2" s="43"/>
+      <c r="A2" s="50"/>
+      <c r="B2" s="50"/>
       <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
@@ -4025,7 +4168,7 @@
       <c r="Z2" s="4"/>
     </row>
     <row r="3" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="49" t="s">
         <v>26</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -4085,7 +4228,7 @@
       <c r="Z3" s="9"/>
     </row>
     <row r="4" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A4" s="44"/>
+      <c r="A4" s="51"/>
       <c r="B4" s="10" t="s">
         <v>38</v>
       </c>
@@ -4133,7 +4276,7 @@
       <c r="Z4" s="14"/>
     </row>
     <row r="5" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A5" s="45"/>
+      <c r="A5" s="52"/>
       <c r="B5" s="5" t="s">
         <v>42</v>
       </c>
@@ -4179,7 +4322,7 @@
       <c r="Z5" s="9"/>
     </row>
     <row r="6" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A6" s="44"/>
+      <c r="A6" s="51"/>
       <c r="B6" s="10" t="s">
         <v>44</v>
       </c>
@@ -4227,7 +4370,7 @@
       <c r="Z6" s="14"/>
     </row>
     <row r="7" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A7" s="45"/>
+      <c r="A7" s="52"/>
       <c r="B7" s="5" t="s">
         <v>45</v>
       </c>
@@ -4267,7 +4410,7 @@
       <c r="Z7" s="9"/>
     </row>
     <row r="8" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A8" s="43"/>
+      <c r="A8" s="50"/>
       <c r="B8" s="10" t="s">
         <v>47</v>
       </c>
@@ -4305,7 +4448,7 @@
       <c r="Z8" s="14"/>
     </row>
     <row r="9" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="49" t="s">
         <v>48</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -4349,7 +4492,7 @@
       <c r="Z9" s="9"/>
     </row>
     <row r="10" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A10" s="44"/>
+      <c r="A10" s="51"/>
       <c r="B10" s="10" t="s">
         <v>50</v>
       </c>
@@ -4383,7 +4526,7 @@
       <c r="Z10" s="14"/>
     </row>
     <row r="11" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A11" s="45"/>
+      <c r="A11" s="52"/>
       <c r="B11" s="5" t="s">
         <v>51</v>
       </c>
@@ -4417,7 +4560,7 @@
       <c r="Z11" s="9"/>
     </row>
     <row r="12" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A12" s="44"/>
+      <c r="A12" s="51"/>
       <c r="B12" s="10" t="s">
         <v>52</v>
       </c>
@@ -4459,7 +4602,7 @@
       <c r="Z12" s="14"/>
     </row>
     <row r="13" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A13" s="45"/>
+      <c r="A13" s="52"/>
       <c r="B13" s="5" t="s">
         <v>53</v>
       </c>
@@ -4503,7 +4646,7 @@
       <c r="Z13" s="9"/>
     </row>
     <row r="14" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A14" s="44"/>
+      <c r="A14" s="51"/>
       <c r="B14" s="10" t="s">
         <v>55</v>
       </c>
@@ -4549,7 +4692,7 @@
       <c r="Z14" s="14"/>
     </row>
     <row r="15" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A15" s="45"/>
+      <c r="A15" s="52"/>
       <c r="B15" s="5" t="s">
         <v>58</v>
       </c>
@@ -4591,7 +4734,7 @@
       <c r="Z15" s="9"/>
     </row>
     <row r="16" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A16" s="44"/>
+      <c r="A16" s="51"/>
       <c r="B16" s="10" t="s">
         <v>59</v>
       </c>
@@ -4633,7 +4776,7 @@
       <c r="Z16" s="14"/>
     </row>
     <row r="17" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A17" s="45"/>
+      <c r="A17" s="52"/>
       <c r="B17" s="5" t="s">
         <v>60</v>
       </c>
@@ -4677,7 +4820,7 @@
       <c r="Z17" s="9"/>
     </row>
     <row r="18" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A18" s="44"/>
+      <c r="A18" s="51"/>
       <c r="B18" s="10" t="s">
         <v>61</v>
       </c>
@@ -4719,7 +4862,7 @@
       <c r="Z18" s="14"/>
     </row>
     <row r="19" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A19" s="45"/>
+      <c r="A19" s="52"/>
       <c r="B19" s="5" t="s">
         <v>62</v>
       </c>
@@ -4761,7 +4904,7 @@
       <c r="Z19" s="9"/>
     </row>
     <row r="20" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A20" s="44"/>
+      <c r="A20" s="51"/>
       <c r="B20" s="10" t="s">
         <v>63</v>
       </c>
@@ -4799,7 +4942,7 @@
       <c r="Z20" s="14"/>
     </row>
     <row r="21" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A21" s="45"/>
+      <c r="A21" s="52"/>
       <c r="B21" s="5" t="s">
         <v>64</v>
       </c>
@@ -4841,7 +4984,7 @@
       <c r="Z21" s="9"/>
     </row>
     <row r="22" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A22" s="44"/>
+      <c r="A22" s="51"/>
       <c r="B22" s="10" t="s">
         <v>65</v>
       </c>
@@ -4897,7 +5040,7 @@
       <c r="Z22" s="14"/>
     </row>
     <row r="23" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A23" s="45"/>
+      <c r="A23" s="52"/>
       <c r="B23" s="5" t="s">
         <v>70</v>
       </c>
@@ -4937,7 +5080,7 @@
       <c r="Z23" s="9"/>
     </row>
     <row r="24" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A24" s="44"/>
+      <c r="A24" s="51"/>
       <c r="B24" s="10" t="s">
         <v>71</v>
       </c>
@@ -4979,7 +5122,7 @@
       <c r="Z24" s="14"/>
     </row>
     <row r="25" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A25" s="45"/>
+      <c r="A25" s="52"/>
       <c r="B25" s="5" t="s">
         <v>72</v>
       </c>
@@ -5019,7 +5162,7 @@
       <c r="Z25" s="9"/>
     </row>
     <row r="26" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A26" s="44"/>
+      <c r="A26" s="51"/>
       <c r="B26" s="10" t="s">
         <v>73</v>
       </c>
@@ -5057,7 +5200,7 @@
       <c r="Z26" s="14"/>
     </row>
     <row r="27" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A27" s="45"/>
+      <c r="A27" s="52"/>
       <c r="B27" s="5" t="s">
         <v>74</v>
       </c>
@@ -5099,7 +5242,7 @@
       <c r="Z27" s="9"/>
     </row>
     <row r="28" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A28" s="43"/>
+      <c r="A28" s="50"/>
       <c r="B28" s="10" t="s">
         <v>75</v>
       </c>
@@ -5141,7 +5284,7 @@
       <c r="Z28" s="14"/>
     </row>
     <row r="29" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A29" s="42" t="s">
+      <c r="A29" s="49" t="s">
         <v>76</v>
       </c>
       <c r="B29" s="5" t="s">
@@ -5179,7 +5322,7 @@
       <c r="Z29" s="9"/>
     </row>
     <row r="30" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A30" s="44"/>
+      <c r="A30" s="51"/>
       <c r="B30" s="10" t="s">
         <v>79</v>
       </c>
@@ -5217,7 +5360,7 @@
       <c r="Z30" s="14"/>
     </row>
     <row r="31" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A31" s="45"/>
+      <c r="A31" s="52"/>
       <c r="B31" s="5" t="s">
         <v>80</v>
       </c>
@@ -5251,7 +5394,7 @@
       <c r="Z31" s="9"/>
     </row>
     <row r="32" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A32" s="44"/>
+      <c r="A32" s="51"/>
       <c r="B32" s="10" t="s">
         <v>81</v>
       </c>
@@ -5289,7 +5432,7 @@
       <c r="Z32" s="14"/>
     </row>
     <row r="33" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A33" s="45"/>
+      <c r="A33" s="52"/>
       <c r="B33" s="5" t="s">
         <v>82</v>
       </c>
@@ -5329,7 +5472,7 @@
       <c r="Z33" s="9"/>
     </row>
     <row r="34" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A34" s="44"/>
+      <c r="A34" s="51"/>
       <c r="B34" s="10" t="s">
         <v>83</v>
       </c>
@@ -5367,7 +5510,7 @@
       <c r="Z34" s="14"/>
     </row>
     <row r="35" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A35" s="45"/>
+      <c r="A35" s="52"/>
       <c r="B35" s="5" t="s">
         <v>84</v>
       </c>
@@ -5415,7 +5558,7 @@
       <c r="Z35" s="9"/>
     </row>
     <row r="36" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A36" s="44"/>
+      <c r="A36" s="51"/>
       <c r="B36" s="10" t="s">
         <v>87</v>
       </c>
@@ -5455,7 +5598,7 @@
       <c r="Z36" s="14"/>
     </row>
     <row r="37" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A37" s="45"/>
+      <c r="A37" s="52"/>
       <c r="B37" s="15" t="s">
         <v>89</v>
       </c>
@@ -5495,7 +5638,7 @@
       <c r="Z37" s="9"/>
     </row>
     <row r="38" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A38" s="43"/>
+      <c r="A38" s="50"/>
       <c r="B38" s="10" t="s">
         <v>90</v>
       </c>
@@ -5585,7 +5728,7 @@
       <c r="Z39" s="9"/>
     </row>
     <row r="40" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A40" s="42" t="s">
+      <c r="A40" s="49" t="s">
         <v>94</v>
       </c>
       <c r="B40" s="10" t="s">
@@ -5627,7 +5770,7 @@
       <c r="Z40" s="14"/>
     </row>
     <row r="41" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A41" s="45"/>
+      <c r="A41" s="52"/>
       <c r="B41" s="5" t="s">
         <v>96</v>
       </c>
@@ -5665,7 +5808,7 @@
       <c r="Z41" s="9"/>
     </row>
     <row r="42" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A42" s="44"/>
+      <c r="A42" s="51"/>
       <c r="B42" s="10" t="s">
         <v>97</v>
       </c>
@@ -5705,7 +5848,7 @@
       <c r="Z42" s="14"/>
     </row>
     <row r="43" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A43" s="45"/>
+      <c r="A43" s="52"/>
       <c r="B43" s="5" t="s">
         <v>98</v>
       </c>
@@ -5745,7 +5888,7 @@
       <c r="Z43" s="9"/>
     </row>
     <row r="44" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A44" s="44"/>
+      <c r="A44" s="51"/>
       <c r="B44" s="10" t="s">
         <v>99</v>
       </c>
@@ -5779,7 +5922,7 @@
       <c r="Z44" s="14"/>
     </row>
     <row r="45" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A45" s="45"/>
+      <c r="A45" s="52"/>
       <c r="B45" s="5" t="s">
         <v>100</v>
       </c>
@@ -5817,7 +5960,7 @@
       <c r="Z45" s="9"/>
     </row>
     <row r="46" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A46" s="43"/>
+      <c r="A46" s="50"/>
       <c r="B46" s="10" t="s">
         <v>101</v>
       </c>
@@ -5857,7 +6000,7 @@
       <c r="Z46" s="14"/>
     </row>
     <row r="47" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A47" s="42" t="s">
+      <c r="A47" s="49" t="s">
         <v>102</v>
       </c>
       <c r="B47" s="5" t="s">
@@ -5897,7 +6040,7 @@
       <c r="Z47" s="9"/>
     </row>
     <row r="48" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A48" s="44"/>
+      <c r="A48" s="51"/>
       <c r="B48" s="10" t="s">
         <v>104</v>
       </c>
@@ -5935,7 +6078,7 @@
       <c r="Z48" s="14"/>
     </row>
     <row r="49" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A49" s="45"/>
+      <c r="A49" s="52"/>
       <c r="B49" s="5" t="s">
         <v>105</v>
       </c>
@@ -5973,7 +6116,7 @@
       <c r="Z49" s="9"/>
     </row>
     <row r="50" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A50" s="44"/>
+      <c r="A50" s="51"/>
       <c r="B50" s="10" t="s">
         <v>107</v>
       </c>
@@ -6011,7 +6154,7 @@
       <c r="Z50" s="14"/>
     </row>
     <row r="51" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A51" s="45"/>
+      <c r="A51" s="52"/>
       <c r="B51" s="5" t="s">
         <v>108</v>
       </c>
@@ -6051,7 +6194,7 @@
       <c r="Z51" s="9"/>
     </row>
     <row r="52" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A52" s="44"/>
+      <c r="A52" s="51"/>
       <c r="B52" s="10" t="s">
         <v>109</v>
       </c>
@@ -6089,7 +6232,7 @@
       <c r="Z52" s="14"/>
     </row>
     <row r="53" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A53" s="45"/>
+      <c r="A53" s="52"/>
       <c r="B53" s="5" t="s">
         <v>110</v>
       </c>
@@ -6127,7 +6270,7 @@
       <c r="Z53" s="9"/>
     </row>
     <row r="54" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A54" s="44"/>
+      <c r="A54" s="51"/>
       <c r="B54" s="10" t="s">
         <v>112</v>
       </c>
@@ -6167,7 +6310,7 @@
       <c r="Z54" s="14"/>
     </row>
     <row r="55" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A55" s="45"/>
+      <c r="A55" s="52"/>
       <c r="B55" s="5" t="s">
         <v>113</v>
       </c>
@@ -6205,7 +6348,7 @@
       <c r="Z55" s="9"/>
     </row>
     <row r="56" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A56" s="44"/>
+      <c r="A56" s="51"/>
       <c r="B56" s="10" t="s">
         <v>114</v>
       </c>
@@ -6243,7 +6386,7 @@
       <c r="Z56" s="14"/>
     </row>
     <row r="57" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A57" s="45"/>
+      <c r="A57" s="52"/>
       <c r="B57" s="5" t="s">
         <v>115</v>
       </c>
@@ -6281,7 +6424,7 @@
       <c r="Z57" s="9"/>
     </row>
     <row r="58" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A58" s="44"/>
+      <c r="A58" s="51"/>
       <c r="B58" s="10" t="s">
         <v>116</v>
       </c>
@@ -6319,7 +6462,7 @@
       <c r="Z58" s="14"/>
     </row>
     <row r="59" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A59" s="46"/>
+      <c r="A59" s="53"/>
       <c r="B59" s="5" t="s">
         <v>117</v>
       </c>
@@ -6357,7 +6500,7 @@
       <c r="Z59" s="9"/>
     </row>
     <row r="60" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A60" s="42" t="s">
+      <c r="A60" s="49" t="s">
         <v>118</v>
       </c>
       <c r="B60" s="10" t="s">
@@ -6399,7 +6542,7 @@
       <c r="Z60" s="14"/>
     </row>
     <row r="61" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A61" s="45"/>
+      <c r="A61" s="52"/>
       <c r="B61" s="5" t="s">
         <v>120</v>
       </c>
@@ -6437,7 +6580,7 @@
       <c r="Z61" s="9"/>
     </row>
     <row r="62" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A62" s="44"/>
+      <c r="A62" s="51"/>
       <c r="B62" s="10" t="s">
         <v>121</v>
       </c>
@@ -6479,7 +6622,7 @@
       <c r="Z62" s="14"/>
     </row>
     <row r="63" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A63" s="45"/>
+      <c r="A63" s="52"/>
       <c r="B63" s="5" t="s">
         <v>122</v>
       </c>
@@ -6523,7 +6666,7 @@
       <c r="Z63" s="9"/>
     </row>
     <row r="64" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A64" s="44"/>
+      <c r="A64" s="51"/>
       <c r="B64" s="10" t="s">
         <v>123</v>
       </c>
@@ -6557,7 +6700,7 @@
       <c r="Z64" s="14"/>
     </row>
     <row r="65" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A65" s="45"/>
+      <c r="A65" s="52"/>
       <c r="B65" s="5" t="s">
         <v>124</v>
       </c>
@@ -6603,7 +6746,7 @@
       <c r="Z65" s="9"/>
     </row>
     <row r="66" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A66" s="44"/>
+      <c r="A66" s="51"/>
       <c r="B66" s="10" t="s">
         <v>125</v>
       </c>
@@ -6637,7 +6780,7 @@
       <c r="Z66" s="14"/>
     </row>
     <row r="67" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A67" s="45"/>
+      <c r="A67" s="52"/>
       <c r="B67" s="5" t="s">
         <v>126</v>
       </c>
@@ -6679,7 +6822,7 @@
       <c r="Z67" s="9"/>
     </row>
     <row r="68" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A68" s="44"/>
+      <c r="A68" s="51"/>
       <c r="B68" s="10" t="s">
         <v>127</v>
       </c>
@@ -6725,7 +6868,7 @@
       <c r="Z68" s="14"/>
     </row>
     <row r="69" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A69" s="45"/>
+      <c r="A69" s="52"/>
       <c r="B69" s="5" t="s">
         <v>128</v>
       </c>
@@ -6759,7 +6902,7 @@
       <c r="Z69" s="9"/>
     </row>
     <row r="70" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A70" s="44"/>
+      <c r="A70" s="51"/>
       <c r="B70" s="10" t="s">
         <v>129</v>
       </c>
@@ -6797,7 +6940,7 @@
       <c r="Z70" s="14"/>
     </row>
     <row r="71" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A71" s="45"/>
+      <c r="A71" s="52"/>
       <c r="B71" s="5" t="s">
         <v>130</v>
       </c>
@@ -6835,7 +6978,7 @@
       <c r="Z71" s="9"/>
     </row>
     <row r="72" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A72" s="44"/>
+      <c r="A72" s="51"/>
       <c r="B72" s="10" t="s">
         <v>131</v>
       </c>
@@ -6873,7 +7016,7 @@
       <c r="Z72" s="14"/>
     </row>
     <row r="73" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A73" s="45"/>
+      <c r="A73" s="52"/>
       <c r="B73" s="5" t="s">
         <v>132</v>
       </c>
@@ -6911,7 +7054,7 @@
       <c r="Z73" s="9"/>
     </row>
     <row r="74" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A74" s="44"/>
+      <c r="A74" s="51"/>
       <c r="B74" s="10" t="s">
         <v>133</v>
       </c>
@@ -6949,7 +7092,7 @@
       <c r="Z74" s="14"/>
     </row>
     <row r="75" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A75" s="45"/>
+      <c r="A75" s="52"/>
       <c r="B75" s="5" t="s">
         <v>134</v>
       </c>
@@ -6989,7 +7132,7 @@
       <c r="Z75" s="9"/>
     </row>
     <row r="76" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A76" s="44"/>
+      <c r="A76" s="51"/>
       <c r="B76" s="10" t="s">
         <v>135</v>
       </c>
@@ -7033,7 +7176,7 @@
       <c r="Z76" s="14"/>
     </row>
     <row r="77" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A77" s="45"/>
+      <c r="A77" s="52"/>
       <c r="B77" s="5" t="s">
         <v>136</v>
       </c>
@@ -7073,7 +7216,7 @@
       <c r="Z77" s="9"/>
     </row>
     <row r="78" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A78" s="44"/>
+      <c r="A78" s="51"/>
       <c r="B78" s="10" t="s">
         <v>137</v>
       </c>
@@ -7113,7 +7256,7 @@
       <c r="Z78" s="14"/>
     </row>
     <row r="79" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A79" s="45"/>
+      <c r="A79" s="52"/>
       <c r="B79" s="5" t="s">
         <v>138</v>
       </c>
@@ -7151,7 +7294,7 @@
       <c r="Z79" s="9"/>
     </row>
     <row r="80" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A80" s="44"/>
+      <c r="A80" s="51"/>
       <c r="B80" s="10" t="s">
         <v>139</v>
       </c>
@@ -7189,7 +7332,7 @@
       <c r="Z80" s="14"/>
     </row>
     <row r="81" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A81" s="46"/>
+      <c r="A81" s="53"/>
       <c r="B81" s="17" t="s">
         <v>140</v>
       </c>
@@ -7227,7 +7370,7 @@
       <c r="Z81" s="9"/>
     </row>
     <row r="82" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A82" s="42" t="s">
+      <c r="A82" s="49" t="s">
         <v>141</v>
       </c>
       <c r="B82" s="10" t="s">
@@ -7263,7 +7406,7 @@
       <c r="Z82" s="14"/>
     </row>
     <row r="83" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A83" s="45"/>
+      <c r="A83" s="52"/>
       <c r="B83" s="5" t="s">
         <v>143</v>
       </c>
@@ -7303,7 +7446,7 @@
       <c r="Z83" s="9"/>
     </row>
     <row r="84" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A84" s="43"/>
+      <c r="A84" s="50"/>
       <c r="B84" s="10" t="s">
         <v>144</v>
       </c>
@@ -7341,7 +7484,7 @@
       <c r="Z84" s="14"/>
     </row>
     <row r="85" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A85" s="42" t="s">
+      <c r="A85" s="49" t="s">
         <v>145</v>
       </c>
       <c r="B85" s="5" t="s">
@@ -7381,7 +7524,7 @@
       <c r="Z85" s="9"/>
     </row>
     <row r="86" spans="1:26" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="43"/>
+      <c r="A86" s="50"/>
       <c r="B86" s="10" t="s">
         <v>147</v>
       </c>
@@ -7421,7 +7564,7 @@
       <c r="Z86" s="14"/>
     </row>
     <row r="87" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A87" s="42" t="s">
+      <c r="A87" s="49" t="s">
         <v>148</v>
       </c>
       <c r="B87" s="5" t="s">
@@ -7479,7 +7622,7 @@
       <c r="Z87" s="9"/>
     </row>
     <row r="88" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A88" s="44"/>
+      <c r="A88" s="51"/>
       <c r="B88" s="10" t="s">
         <v>150</v>
       </c>
@@ -7517,7 +7660,7 @@
       <c r="Z88" s="14"/>
     </row>
     <row r="89" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A89" s="45"/>
+      <c r="A89" s="52"/>
       <c r="B89" s="5" t="s">
         <v>151</v>
       </c>
@@ -7551,7 +7694,7 @@
       <c r="Z89" s="9"/>
     </row>
     <row r="90" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A90" s="44"/>
+      <c r="A90" s="51"/>
       <c r="B90" s="10" t="s">
         <v>152</v>
       </c>
@@ -7607,7 +7750,7 @@
       <c r="Z90" s="14"/>
     </row>
     <row r="91" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A91" s="45"/>
+      <c r="A91" s="52"/>
       <c r="B91" s="5" t="s">
         <v>153</v>
       </c>
@@ -7663,7 +7806,7 @@
       <c r="Z91" s="9"/>
     </row>
     <row r="92" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A92" s="44"/>
+      <c r="A92" s="51"/>
       <c r="B92" s="10" t="s">
         <v>154</v>
       </c>
@@ -7701,7 +7844,7 @@
       <c r="Z92" s="14"/>
     </row>
     <row r="93" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A93" s="45"/>
+      <c r="A93" s="52"/>
       <c r="B93" s="5" t="s">
         <v>155</v>
       </c>
@@ -7739,7 +7882,7 @@
       <c r="Z93" s="9"/>
     </row>
     <row r="94" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A94" s="44"/>
+      <c r="A94" s="51"/>
       <c r="B94" s="10" t="s">
         <v>156</v>
       </c>
@@ -7777,7 +7920,7 @@
       <c r="Z94" s="14"/>
     </row>
     <row r="95" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A95" s="45"/>
+      <c r="A95" s="52"/>
       <c r="B95" s="5" t="s">
         <v>157</v>
       </c>
@@ -7823,7 +7966,7 @@
       <c r="Z95" s="9"/>
     </row>
     <row r="96" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A96" s="44"/>
+      <c r="A96" s="51"/>
       <c r="B96" s="10" t="s">
         <v>158</v>
       </c>
@@ -7881,7 +8024,7 @@
       <c r="Z96" s="14"/>
     </row>
     <row r="97" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A97" s="45"/>
+      <c r="A97" s="52"/>
       <c r="B97" s="5" t="s">
         <v>159</v>
       </c>
@@ -7937,7 +8080,7 @@
       <c r="Z97" s="9"/>
     </row>
     <row r="98" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A98" s="44"/>
+      <c r="A98" s="51"/>
       <c r="B98" s="10" t="s">
         <v>160</v>
       </c>
@@ -7975,7 +8118,7 @@
       <c r="Z98" s="14"/>
     </row>
     <row r="99" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A99" s="45"/>
+      <c r="A99" s="52"/>
       <c r="B99" s="5" t="s">
         <v>161</v>
       </c>
@@ -8015,7 +8158,7 @@
       <c r="Z99" s="9"/>
     </row>
     <row r="100" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A100" s="44"/>
+      <c r="A100" s="51"/>
       <c r="B100" s="10" t="s">
         <v>162</v>
       </c>
@@ -8055,7 +8198,7 @@
       <c r="Z100" s="14"/>
     </row>
     <row r="101" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A101" s="46"/>
+      <c r="A101" s="53"/>
       <c r="B101" s="5" t="s">
         <v>163</v>
       </c>
@@ -8093,7 +8236,7 @@
       <c r="Z101" s="9"/>
     </row>
     <row r="102" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A102" s="42" t="s">
+      <c r="A102" s="49" t="s">
         <v>164</v>
       </c>
       <c r="B102" s="10" t="s">
@@ -8127,7 +8270,7 @@
       <c r="Z102" s="14"/>
     </row>
     <row r="103" spans="1:26" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="46"/>
+      <c r="A103" s="53"/>
       <c r="B103" s="5" t="s">
         <v>166</v>
       </c>
@@ -27459,11 +27602,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="A87:A101"/>
     <mergeCell ref="A102:A103"/>
     <mergeCell ref="A3:A8"/>
     <mergeCell ref="A9:A28"/>
@@ -27472,6 +27610,11 @@
     <mergeCell ref="A47:A59"/>
     <mergeCell ref="A60:A81"/>
     <mergeCell ref="A82:A84"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="A87:A101"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
@@ -27633,2853 +27776,1870 @@
   </sheetPr>
   <dimension ref="A1:P102"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="F42" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="K37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="X101" sqref="X101"/>
+      <selection pane="bottomRight" activeCell="M2" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" style="56" customWidth="1"/>
-    <col min="2" max="2" width="24.83203125" style="49" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" style="41" customWidth="1"/>
+    <col min="2" max="2" width="24.83203125" style="38" customWidth="1"/>
     <col min="3" max="16" width="30.83203125" style="35" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="57" t="s">
         <v>216</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="57" t="s">
+      <c r="B1" s="57"/>
+      <c r="C1" s="58" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57" t="s">
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58" t="s">
         <v>215</v>
       </c>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="57"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
     </row>
     <row r="2" spans="1:16" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="50"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="58" t="s">
+      <c r="A2" s="57"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="42" t="s">
         <v>202</v>
       </c>
-      <c r="D2" s="58" t="s">
+      <c r="D2" s="42" t="s">
         <v>203</v>
       </c>
-      <c r="E2" s="58" t="s">
+      <c r="E2" s="42" t="s">
         <v>204</v>
       </c>
-      <c r="F2" s="58" t="s">
+      <c r="F2" s="42" t="s">
         <v>205</v>
       </c>
-      <c r="G2" s="58" t="s">
+      <c r="G2" s="42" t="s">
         <v>206</v>
       </c>
-      <c r="H2" s="58" t="s">
+      <c r="H2" s="42" t="s">
         <v>207</v>
       </c>
-      <c r="I2" s="58" t="s">
+      <c r="I2" s="42" t="s">
         <v>202</v>
       </c>
-      <c r="J2" s="58" t="s">
+      <c r="J2" s="42" t="s">
         <v>209</v>
       </c>
-      <c r="K2" s="58" t="s">
+      <c r="K2" s="42" t="s">
         <v>210</v>
       </c>
-      <c r="L2" s="58" t="s">
+      <c r="L2" s="42" t="s">
         <v>211</v>
       </c>
-      <c r="M2" s="58" t="s">
+      <c r="M2" s="42" t="s">
         <v>212</v>
       </c>
-      <c r="N2" s="58" t="s">
+      <c r="N2" s="42" t="s">
         <v>213</v>
       </c>
-      <c r="O2" s="58" t="s">
+      <c r="O2" s="42" t="s">
         <v>206</v>
       </c>
-      <c r="P2" s="58" t="s">
+      <c r="P2" s="42" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="41" t="s">
         <v>250</v>
       </c>
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="43" t="s">
         <v>251</v>
       </c>
-      <c r="C3" s="61" t="s">
+      <c r="C3" s="44" t="s">
         <v>217</v>
       </c>
-      <c r="D3" s="61" t="s">
+      <c r="D3" s="44" t="s">
         <v>218</v>
       </c>
-      <c r="E3" s="61" t="s">
+      <c r="E3" s="44" t="s">
         <v>219</v>
       </c>
-      <c r="F3" s="61" t="s">
+      <c r="F3" s="44" t="s">
         <v>220</v>
       </c>
-      <c r="G3" s="61" t="s">
+      <c r="G3" s="44" t="s">
         <v>221</v>
       </c>
-      <c r="H3" s="61" t="s">
+      <c r="H3" s="44" t="s">
         <v>222</v>
       </c>
-      <c r="I3" s="61" t="s">
+      <c r="I3" s="44" t="s">
         <v>223</v>
       </c>
-      <c r="J3" s="61" t="s">
+      <c r="J3" s="44" t="s">
         <v>224</v>
       </c>
-      <c r="K3" s="61" t="s">
+      <c r="K3" s="44" t="s">
         <v>225</v>
       </c>
-      <c r="L3" s="61" t="s">
+      <c r="L3" s="44" t="s">
         <v>226</v>
       </c>
-      <c r="M3" s="61" t="s">
+      <c r="M3" s="44" t="s">
         <v>227</v>
       </c>
-      <c r="N3" s="61" t="s">
+      <c r="N3" s="44" t="s">
         <v>228</v>
       </c>
-      <c r="O3" s="61" t="s">
+      <c r="O3" s="44" t="s">
         <v>229</v>
       </c>
-      <c r="P3" s="61" t="s">
+      <c r="P3" s="44" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="41" t="s">
         <v>208</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="39" t="s">
         <v>241</v>
       </c>
-      <c r="C4" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
-      <c r="P4" s="53"/>
+      <c r="C4" s="36" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="55" t="s">
+      <c r="A5" s="56" t="s">
         <v>233</v>
       </c>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="39" t="s">
         <v>237</v>
       </c>
-      <c r="C5" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="53"/>
-      <c r="N5" s="53"/>
-      <c r="O5" s="53"/>
-      <c r="P5" s="53"/>
+      <c r="C5" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="36" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="55"/>
-      <c r="B6" s="51" t="s">
+      <c r="A6" s="56"/>
+      <c r="B6" s="39" t="s">
         <v>244</v>
       </c>
-      <c r="C6" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="53"/>
-      <c r="N6" s="53"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
+      <c r="C6" s="36" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="55" t="s">
+      <c r="A7" s="56" t="s">
         <v>239</v>
       </c>
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="39" t="s">
         <v>237</v>
       </c>
-      <c r="C7" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="53"/>
-      <c r="O7" s="53"/>
-      <c r="P7" s="53"/>
+      <c r="C7" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="36" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="55"/>
-      <c r="B8" s="51" t="s">
+      <c r="A8" s="56"/>
+      <c r="B8" s="39" t="s">
         <v>240</v>
       </c>
-      <c r="C8" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="53"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="53"/>
-      <c r="N8" s="53"/>
-      <c r="O8" s="53"/>
-      <c r="P8" s="53"/>
+      <c r="C8" s="36" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="55"/>
-      <c r="B9" s="51" t="s">
+      <c r="A9" s="56"/>
+      <c r="B9" s="39" t="s">
         <v>238</v>
       </c>
-      <c r="C9" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="53"/>
-      <c r="N9" s="53"/>
-      <c r="O9" s="53"/>
-      <c r="P9" s="53"/>
+      <c r="C9" s="36" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="10" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="55"/>
-      <c r="B10" s="51" t="s">
+      <c r="A10" s="56"/>
+      <c r="B10" s="39" t="s">
         <v>241</v>
       </c>
-      <c r="C10" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
-      <c r="N10" s="53"/>
-      <c r="O10" s="53"/>
-      <c r="P10" s="53"/>
+      <c r="C10" s="36" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="55" t="s">
+      <c r="A11" s="56" t="s">
         <v>262</v>
       </c>
-      <c r="B11" s="51" t="s">
+      <c r="B11" s="39" t="s">
         <v>237</v>
       </c>
-      <c r="C11" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="53"/>
-      <c r="O11" s="53"/>
-      <c r="P11" s="53"/>
+      <c r="C11" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="36" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="55"/>
-      <c r="B12" s="51" t="s">
+      <c r="A12" s="56"/>
+      <c r="B12" s="39" t="s">
         <v>240</v>
       </c>
-      <c r="C12" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="53"/>
-      <c r="N12" s="53"/>
-      <c r="O12" s="53"/>
-      <c r="P12" s="53"/>
+      <c r="C12" s="36" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="55"/>
-      <c r="B13" s="51" t="s">
+      <c r="A13" s="56"/>
+      <c r="B13" s="39" t="s">
         <v>238</v>
       </c>
-      <c r="C13" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="53"/>
-      <c r="N13" s="53"/>
-      <c r="O13" s="53"/>
-      <c r="P13" s="53"/>
+      <c r="C13" s="36" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="55"/>
-      <c r="B14" s="51" t="s">
+      <c r="A14" s="56"/>
+      <c r="B14" s="39" t="s">
         <v>241</v>
       </c>
-      <c r="C14" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="53"/>
-      <c r="M14" s="53"/>
-      <c r="N14" s="53"/>
-      <c r="O14" s="53"/>
-      <c r="P14" s="53"/>
+      <c r="C14" s="36" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="55" t="s">
+      <c r="A15" s="56" t="s">
         <v>263</v>
       </c>
-      <c r="B15" s="51" t="s">
+      <c r="B15" s="39" t="s">
         <v>237</v>
       </c>
-      <c r="C15" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="H15" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="I15" s="53"/>
-      <c r="J15" s="53"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="53"/>
-      <c r="N15" s="53"/>
-      <c r="O15" s="53"/>
-      <c r="P15" s="53"/>
+      <c r="C15" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="36" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="55"/>
-      <c r="B16" s="51" t="s">
+      <c r="A16" s="56"/>
+      <c r="B16" s="39" t="s">
         <v>240</v>
       </c>
-      <c r="C16" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="53"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="53"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="53"/>
-      <c r="L16" s="53"/>
-      <c r="M16" s="53"/>
-      <c r="N16" s="53"/>
-      <c r="O16" s="53"/>
-      <c r="P16" s="53"/>
-    </row>
-    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="55"/>
-      <c r="B17" s="51" t="s">
+      <c r="C16" s="36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="56"/>
+      <c r="B17" s="39" t="s">
         <v>265</v>
       </c>
-      <c r="C17" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="53"/>
-      <c r="K17" s="53"/>
-      <c r="L17" s="53"/>
-      <c r="M17" s="53"/>
-      <c r="N17" s="53"/>
-      <c r="O17" s="53"/>
-      <c r="P17" s="53"/>
-    </row>
-    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="55"/>
-      <c r="B18" s="51" t="s">
+      <c r="C17" s="36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="56"/>
+      <c r="B18" s="39" t="s">
         <v>241</v>
       </c>
-      <c r="C18" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="53"/>
-      <c r="H18" s="53"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="53"/>
-      <c r="K18" s="53"/>
-      <c r="L18" s="53"/>
-      <c r="M18" s="53"/>
-      <c r="N18" s="53"/>
-      <c r="O18" s="53"/>
-      <c r="P18" s="53"/>
-    </row>
-    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="55" t="s">
+      <c r="C18" s="36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="56" t="s">
         <v>267</v>
       </c>
-      <c r="B19" s="51" t="s">
+      <c r="B19" s="39" t="s">
         <v>268</v>
       </c>
-      <c r="C19" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="H19" s="53"/>
-      <c r="I19" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="J19" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="K19" s="53"/>
-      <c r="L19" s="53"/>
-      <c r="M19" s="53"/>
-      <c r="N19" s="53"/>
-      <c r="O19" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="P19" s="53"/>
-    </row>
-    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="55"/>
-      <c r="B20" s="51" t="s">
+      <c r="C19" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="J19" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="L19" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="O19" s="36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="56"/>
+      <c r="B20" s="39" t="s">
         <v>234</v>
       </c>
-      <c r="C20" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="J20" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="K20" s="53"/>
-      <c r="L20" s="53"/>
-      <c r="M20" s="53"/>
-      <c r="N20" s="53"/>
-      <c r="O20" s="53"/>
-      <c r="P20" s="53"/>
-    </row>
-    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="55"/>
-      <c r="B21" s="51" t="s">
+      <c r="C20" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="J20" s="36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="56"/>
+      <c r="B21" s="39" t="s">
         <v>235</v>
       </c>
-      <c r="C21" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="J21" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="K21" s="53"/>
-      <c r="L21" s="53"/>
-      <c r="M21" s="53"/>
-      <c r="N21" s="53"/>
-      <c r="O21" s="53"/>
-      <c r="P21" s="53"/>
-    </row>
-    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="55"/>
-      <c r="B22" s="51" t="s">
+      <c r="C21" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="J21" s="36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="56"/>
+      <c r="B22" s="39" t="s">
         <v>236</v>
       </c>
-      <c r="C22" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="53"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="J22" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="K22" s="53"/>
-      <c r="L22" s="53"/>
-      <c r="M22" s="53"/>
-      <c r="N22" s="53"/>
-      <c r="O22" s="53"/>
-      <c r="P22" s="53"/>
-    </row>
-    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="55"/>
-      <c r="B23" s="51" t="s">
+      <c r="C22" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="J22" s="36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="56"/>
+      <c r="B23" s="39" t="s">
         <v>269</v>
       </c>
-      <c r="C23" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" s="53"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="J23" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="K23" s="53"/>
-      <c r="L23" s="53"/>
-      <c r="M23" s="53"/>
-      <c r="N23" s="53"/>
-      <c r="O23" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="P23" s="53"/>
-    </row>
-    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="55"/>
-      <c r="B24" s="51" t="s">
+      <c r="C23" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="I23" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="J23" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="L23" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="O23" s="36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="56"/>
+      <c r="B24" s="39" t="s">
         <v>270</v>
       </c>
-      <c r="C24" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="D24" s="53"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="J24" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="K24" s="53"/>
-      <c r="L24" s="53"/>
-      <c r="M24" s="53"/>
-      <c r="N24" s="53"/>
-      <c r="O24" s="53"/>
-      <c r="P24" s="53"/>
-    </row>
-    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="55"/>
-      <c r="B25" s="51" t="s">
+      <c r="C24" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="I24" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="J24" s="36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="56"/>
+      <c r="B25" s="39" t="s">
         <v>271</v>
       </c>
-      <c r="C25" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" s="53"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="53"/>
-      <c r="H25" s="53"/>
-      <c r="I25" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="J25" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="K25" s="53"/>
-      <c r="L25" s="53"/>
-      <c r="M25" s="53"/>
-      <c r="N25" s="53"/>
-      <c r="O25" s="53"/>
-      <c r="P25" s="53"/>
-    </row>
-    <row r="26" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="55"/>
-      <c r="B26" s="51" t="s">
+      <c r="C25" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="I25" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="J25" s="36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="56"/>
+      <c r="B26" s="39" t="s">
         <v>272</v>
       </c>
-      <c r="C26" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="D26" s="53"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="53"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="J26" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="K26" s="53"/>
-      <c r="L26" s="53"/>
-      <c r="M26" s="53"/>
-      <c r="N26" s="53"/>
-      <c r="O26" s="53"/>
-      <c r="P26" s="53"/>
-    </row>
-    <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="55"/>
-      <c r="B27" s="51" t="s">
+      <c r="C26" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="I26" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="J26" s="36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="56"/>
+      <c r="B27" s="39" t="s">
         <v>273</v>
       </c>
-      <c r="C27" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="D27" s="53"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="53"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="J27" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="K27" s="53"/>
-      <c r="L27" s="53"/>
-      <c r="M27" s="53"/>
-      <c r="N27" s="53"/>
-      <c r="O27" s="53"/>
-      <c r="P27" s="53"/>
-    </row>
-    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="55" t="s">
+      <c r="C27" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="I27" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="J27" s="36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="56" t="s">
         <v>231</v>
       </c>
-      <c r="B28" s="51" t="s">
+      <c r="B28" s="39" t="s">
         <v>237</v>
       </c>
-      <c r="C28" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" s="53"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="H28" s="53"/>
-      <c r="I28" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="J28" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="K28" s="53"/>
-      <c r="L28" s="53"/>
-      <c r="M28" s="53"/>
-      <c r="N28" s="53"/>
-      <c r="O28" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="P28" s="53"/>
-    </row>
-    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="55"/>
-      <c r="B29" s="51" t="s">
+      <c r="C28" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="G28" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="I28" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="J28" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="L28" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="O28" s="36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="56"/>
+      <c r="B29" s="39" t="s">
         <v>240</v>
       </c>
-      <c r="C29" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="D29" s="53"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="53"/>
-      <c r="H29" s="53"/>
-      <c r="I29" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="J29" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="K29" s="53"/>
-      <c r="L29" s="53"/>
-      <c r="M29" s="53"/>
-      <c r="N29" s="53"/>
-      <c r="O29" s="53"/>
-      <c r="P29" s="53"/>
-    </row>
-    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="55"/>
-      <c r="B30" s="51" t="s">
+      <c r="C29" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="I29" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="J29" s="36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="56"/>
+      <c r="B30" s="39" t="s">
         <v>248</v>
       </c>
-      <c r="C30" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="D30" s="53"/>
-      <c r="E30" s="53"/>
-      <c r="F30" s="53"/>
-      <c r="G30" s="53"/>
-      <c r="H30" s="53"/>
-      <c r="I30" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="J30" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="K30" s="53"/>
-      <c r="L30" s="53"/>
-      <c r="M30" s="53"/>
-      <c r="N30" s="53"/>
-      <c r="O30" s="53"/>
-      <c r="P30" s="53"/>
-    </row>
-    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="55"/>
-      <c r="B31" s="51" t="s">
+      <c r="C30" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="I30" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="J30" s="36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="56"/>
+      <c r="B31" s="39" t="s">
         <v>241</v>
       </c>
-      <c r="C31" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="D31" s="52"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="53"/>
-      <c r="G31" s="53"/>
-      <c r="H31" s="53"/>
-      <c r="I31" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="J31" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="K31" s="53"/>
-      <c r="L31" s="53"/>
-      <c r="M31" s="53"/>
-      <c r="N31" s="53"/>
-      <c r="O31" s="53"/>
-      <c r="P31" s="53"/>
-    </row>
-    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="55" t="s">
+      <c r="C31" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="D31" s="36"/>
+      <c r="I31" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="J31" s="36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="56" t="s">
         <v>243</v>
       </c>
-      <c r="B32" s="51" t="s">
+      <c r="B32" s="39" t="s">
         <v>237</v>
       </c>
-      <c r="C32" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="D32" s="53"/>
-      <c r="E32" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="F32" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="G32" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="H32" s="53"/>
-      <c r="I32" s="53"/>
-      <c r="J32" s="53"/>
-      <c r="K32" s="53"/>
-      <c r="L32" s="53"/>
-      <c r="M32" s="53"/>
-      <c r="N32" s="53"/>
-      <c r="O32" s="52"/>
-      <c r="P32" s="53"/>
-    </row>
-    <row r="33" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="55"/>
-      <c r="B33" s="51" t="s">
+      <c r="C32" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="E32" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="F32" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="G32" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="O32" s="36"/>
+    </row>
+    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="56"/>
+      <c r="B33" s="39" t="s">
         <v>244</v>
       </c>
-      <c r="C33" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="D33" s="53"/>
-      <c r="E33" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="F33" s="53"/>
-      <c r="G33" s="53"/>
-      <c r="H33" s="53"/>
-      <c r="I33" s="53"/>
-      <c r="J33" s="53"/>
-      <c r="K33" s="53"/>
-      <c r="L33" s="53"/>
-      <c r="M33" s="53"/>
-      <c r="N33" s="53"/>
-      <c r="O33" s="53"/>
-      <c r="P33" s="53"/>
-    </row>
-    <row r="34" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="55" t="s">
+      <c r="C33" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="E33" s="36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="56" t="s">
         <v>232</v>
       </c>
-      <c r="B34" s="51" t="s">
+      <c r="B34" s="39" t="s">
         <v>237</v>
       </c>
-      <c r="C34" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="D34" s="53"/>
-      <c r="E34" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="F34" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="G34" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="H34" s="53"/>
-      <c r="I34" s="53"/>
-      <c r="J34" s="53"/>
-      <c r="K34" s="53"/>
-      <c r="L34" s="53"/>
-      <c r="M34" s="53"/>
-      <c r="N34" s="53"/>
-      <c r="O34" s="53"/>
-      <c r="P34" s="53"/>
-    </row>
-    <row r="35" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="55"/>
-      <c r="B35" s="51" t="s">
+      <c r="C34" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="E34" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="F34" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="G34" s="36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="56"/>
+      <c r="B35" s="39" t="s">
         <v>242</v>
       </c>
-      <c r="C35" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="D35" s="53"/>
-      <c r="E35" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="F35" s="53"/>
-      <c r="G35" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="H35" s="53"/>
-      <c r="I35" s="53"/>
-      <c r="J35" s="53"/>
-      <c r="K35" s="53"/>
-      <c r="L35" s="53"/>
-      <c r="M35" s="53"/>
-      <c r="N35" s="53"/>
-      <c r="O35" s="53"/>
-      <c r="P35" s="53"/>
-    </row>
-    <row r="36" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="55"/>
-      <c r="B36" s="51" t="s">
+      <c r="C35" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="E35" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="G35" s="36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="56"/>
+      <c r="B36" s="39" t="s">
         <v>245</v>
       </c>
-      <c r="C36" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="D36" s="53"/>
-      <c r="E36" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="F36" s="53"/>
-      <c r="G36" s="53"/>
-      <c r="H36" s="53"/>
-      <c r="I36" s="53"/>
-      <c r="J36" s="53"/>
-      <c r="K36" s="53"/>
-      <c r="L36" s="53"/>
-      <c r="M36" s="53"/>
-      <c r="N36" s="53"/>
-      <c r="O36" s="53"/>
-      <c r="P36" s="53"/>
-    </row>
-    <row r="37" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="55"/>
-      <c r="B37" s="51" t="s">
+      <c r="C36" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="E36" s="36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="56"/>
+      <c r="B37" s="39" t="s">
         <v>241</v>
       </c>
-      <c r="C37" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="D37" s="53"/>
-      <c r="E37" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="F37" s="53"/>
-      <c r="G37" s="53"/>
-      <c r="H37" s="53"/>
-      <c r="I37" s="53"/>
-      <c r="J37" s="53"/>
-      <c r="K37" s="53"/>
-      <c r="L37" s="53"/>
-      <c r="M37" s="53"/>
-      <c r="N37" s="53"/>
-      <c r="O37" s="53"/>
-      <c r="P37" s="53"/>
-    </row>
-    <row r="38" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="55"/>
-      <c r="B38" s="51" t="s">
+      <c r="C37" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="E37" s="36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="56"/>
+      <c r="B38" s="39" t="s">
         <v>246</v>
       </c>
-      <c r="C38" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="D38" s="53"/>
-      <c r="E38" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="F38" s="53"/>
-      <c r="G38" s="53"/>
-      <c r="H38" s="53"/>
-      <c r="I38" s="53"/>
-      <c r="J38" s="53"/>
-      <c r="K38" s="53"/>
-      <c r="L38" s="53"/>
-      <c r="M38" s="53"/>
-      <c r="N38" s="53"/>
-      <c r="O38" s="53"/>
-      <c r="P38" s="53"/>
-    </row>
-    <row r="39" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="55"/>
-      <c r="B39" s="51" t="s">
+      <c r="C38" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="E38" s="36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="56"/>
+      <c r="B39" s="39" t="s">
         <v>247</v>
       </c>
-      <c r="C39" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="D39" s="53"/>
-      <c r="E39" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="F39" s="53"/>
-      <c r="G39" s="53"/>
-      <c r="H39" s="53"/>
-      <c r="I39" s="53"/>
-      <c r="J39" s="53"/>
-      <c r="K39" s="53"/>
-      <c r="L39" s="53"/>
-      <c r="M39" s="53"/>
-      <c r="N39" s="53"/>
-      <c r="O39" s="53"/>
-      <c r="P39" s="53"/>
-    </row>
-    <row r="40" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="55" t="s">
+      <c r="C39" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="E39" s="36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="56" t="s">
         <v>215</v>
       </c>
-      <c r="B40" s="51" t="s">
+      <c r="B40" s="39" t="s">
         <v>249</v>
       </c>
-      <c r="C40" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="D40" s="53"/>
-      <c r="E40" s="53"/>
-      <c r="F40" s="53"/>
-      <c r="G40" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="H40" s="53"/>
-      <c r="I40" s="53"/>
-      <c r="J40" s="53"/>
-      <c r="K40" s="53"/>
-      <c r="L40" s="53"/>
-      <c r="M40" s="53"/>
-      <c r="N40" s="53"/>
-      <c r="O40" s="53"/>
-      <c r="P40" s="53"/>
-    </row>
-    <row r="41" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="55"/>
-      <c r="B41" s="51" t="s">
+      <c r="C40" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="G40" s="36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="56"/>
+      <c r="B41" s="39" t="s">
         <v>237</v>
       </c>
-      <c r="C41" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="D41" s="53"/>
-      <c r="E41" s="53"/>
-      <c r="F41" s="53"/>
-      <c r="G41" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="H41" s="53"/>
-      <c r="I41" s="53"/>
-      <c r="J41" s="53"/>
-      <c r="K41" s="53"/>
-      <c r="L41" s="53"/>
-      <c r="M41" s="53"/>
-      <c r="N41" s="53"/>
-      <c r="O41" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="P41" s="53"/>
-    </row>
-    <row r="42" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="55"/>
-      <c r="B42" s="51" t="s">
+      <c r="C41" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="G41" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="L41" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="O41" s="36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="56"/>
+      <c r="B42" s="39" t="s">
         <v>242</v>
       </c>
-      <c r="C42" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="D42" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="E42" s="53"/>
-      <c r="F42" s="53"/>
-      <c r="G42" s="53"/>
-      <c r="H42" s="53"/>
-      <c r="I42" s="53"/>
-      <c r="J42" s="53"/>
-      <c r="K42" s="53"/>
-      <c r="L42" s="53"/>
-      <c r="M42" s="53"/>
-      <c r="N42" s="53"/>
-      <c r="O42" s="53"/>
-      <c r="P42" s="53"/>
-    </row>
-    <row r="43" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="55"/>
-      <c r="B43" s="51" t="s">
+      <c r="C42" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="D42" s="36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="56"/>
+      <c r="B43" s="39" t="s">
         <v>241</v>
       </c>
-      <c r="C43" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="D43" s="53"/>
-      <c r="E43" s="53"/>
-      <c r="F43" s="53"/>
-      <c r="G43" s="53"/>
-      <c r="H43" s="53"/>
-      <c r="I43" s="53"/>
-      <c r="J43" s="53"/>
-      <c r="K43" s="53"/>
-      <c r="L43" s="53"/>
-      <c r="M43" s="53"/>
-      <c r="N43" s="53"/>
-      <c r="O43" s="53"/>
-      <c r="P43" s="53"/>
-    </row>
-    <row r="44" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="55" t="s">
+      <c r="C43" s="36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="56" t="s">
         <v>254</v>
       </c>
-      <c r="B44" s="51" t="s">
+      <c r="B44" s="39" t="s">
         <v>237</v>
       </c>
-      <c r="C44" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="D44" s="53"/>
-      <c r="E44" s="53"/>
-      <c r="F44" s="53"/>
-      <c r="G44" s="53"/>
-      <c r="H44" s="53"/>
-      <c r="I44" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="J44" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="K44" s="53"/>
-      <c r="L44" s="53"/>
-      <c r="M44" s="53"/>
-      <c r="N44" s="53"/>
-      <c r="O44" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="P44" s="53"/>
-    </row>
-    <row r="45" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="55"/>
-      <c r="B45" s="51" t="s">
+      <c r="C44" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="I44" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="J44" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="L44" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="O44" s="36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="56"/>
+      <c r="B45" s="39" t="s">
         <v>234</v>
       </c>
-      <c r="C45" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="D45" s="53"/>
-      <c r="E45" s="53"/>
-      <c r="F45" s="53"/>
-      <c r="G45" s="53"/>
-      <c r="H45" s="53"/>
-      <c r="I45" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="J45" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="K45" s="53"/>
-      <c r="L45" s="53"/>
-      <c r="M45" s="53"/>
-      <c r="N45" s="53"/>
-      <c r="O45" s="53"/>
-      <c r="P45" s="53"/>
-    </row>
-    <row r="46" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="55"/>
-      <c r="B46" s="51" t="s">
+      <c r="C45" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="I45" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="J45" s="36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="56"/>
+      <c r="B46" s="39" t="s">
         <v>235</v>
       </c>
-      <c r="C46" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="D46" s="53"/>
-      <c r="E46" s="53"/>
-      <c r="F46" s="53"/>
-      <c r="G46" s="53"/>
-      <c r="H46" s="53"/>
-      <c r="I46" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="J46" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="K46" s="53"/>
-      <c r="L46" s="53"/>
-      <c r="M46" s="53"/>
-      <c r="N46" s="53"/>
-      <c r="O46" s="53"/>
-      <c r="P46" s="53"/>
-    </row>
-    <row r="47" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="55"/>
-      <c r="B47" s="51" t="s">
+      <c r="C46" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="I46" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="J46" s="36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="56"/>
+      <c r="B47" s="39" t="s">
         <v>236</v>
       </c>
-      <c r="C47" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="D47" s="53"/>
-      <c r="E47" s="53"/>
-      <c r="F47" s="53"/>
-      <c r="G47" s="53"/>
-      <c r="H47" s="53"/>
-      <c r="I47" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="J47" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="K47" s="53"/>
-      <c r="L47" s="53"/>
-      <c r="M47" s="53"/>
-      <c r="N47" s="53"/>
-      <c r="O47" s="53"/>
-      <c r="P47" s="53"/>
-    </row>
-    <row r="48" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="55"/>
-      <c r="B48" s="51" t="s">
+      <c r="C47" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="I47" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="J47" s="36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="56"/>
+      <c r="B48" s="39" t="s">
         <v>255</v>
       </c>
-      <c r="C48" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="D48" s="53"/>
-      <c r="E48" s="53"/>
-      <c r="F48" s="53"/>
-      <c r="G48" s="53"/>
-      <c r="H48" s="53"/>
-      <c r="I48" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="J48" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="K48" s="53"/>
-      <c r="L48" s="53"/>
-      <c r="M48" s="53"/>
-      <c r="N48" s="53"/>
-      <c r="O48" s="53"/>
-      <c r="P48" s="53"/>
-    </row>
-    <row r="49" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="55"/>
-      <c r="B49" s="51" t="s">
+      <c r="C48" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="I48" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="J48" s="36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="56"/>
+      <c r="B49" s="39" t="s">
         <v>264</v>
       </c>
-      <c r="C49" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="D49" s="53"/>
-      <c r="E49" s="53"/>
-      <c r="F49" s="53"/>
-      <c r="G49" s="53"/>
-      <c r="H49" s="53"/>
-      <c r="I49" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="J49" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="K49" s="53"/>
-      <c r="L49" s="53"/>
-      <c r="M49" s="53"/>
-      <c r="N49" s="53"/>
-      <c r="O49" s="53"/>
-      <c r="P49" s="53"/>
-    </row>
-    <row r="50" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="55"/>
-      <c r="B50" s="51" t="s">
+      <c r="C49" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="I49" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="J49" s="36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="56"/>
+      <c r="B50" s="39" t="s">
         <v>266</v>
       </c>
-      <c r="C50" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="D50" s="53"/>
-      <c r="E50" s="53"/>
-      <c r="F50" s="53"/>
-      <c r="G50" s="53"/>
-      <c r="H50" s="53"/>
-      <c r="I50" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="J50" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="K50" s="53"/>
-      <c r="L50" s="53"/>
-      <c r="M50" s="53"/>
-      <c r="N50" s="53"/>
-      <c r="O50" s="53"/>
-      <c r="P50" s="53"/>
-    </row>
-    <row r="51" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="55"/>
-      <c r="B51" s="51" t="s">
+      <c r="C50" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="I50" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="J50" s="36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="56"/>
+      <c r="B51" s="39" t="s">
         <v>256</v>
       </c>
-      <c r="C51" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="D51" s="53"/>
-      <c r="E51" s="53"/>
-      <c r="F51" s="53"/>
-      <c r="G51" s="53"/>
-      <c r="H51" s="53"/>
-      <c r="I51" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="J51" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="K51" s="53"/>
-      <c r="L51" s="53"/>
-      <c r="M51" s="53"/>
-      <c r="N51" s="53"/>
-      <c r="O51" s="53"/>
-      <c r="P51" s="53"/>
-    </row>
-    <row r="52" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="55"/>
-      <c r="B52" s="51" t="s">
+      <c r="C51" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="I51" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="J51" s="36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="56"/>
+      <c r="B52" s="39" t="s">
         <v>257</v>
       </c>
-      <c r="C52" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="D52" s="53"/>
-      <c r="E52" s="53"/>
-      <c r="F52" s="53"/>
-      <c r="G52" s="53"/>
-      <c r="H52" s="53"/>
-      <c r="I52" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="J52" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="K52" s="53"/>
-      <c r="L52" s="53"/>
-      <c r="M52" s="53"/>
-      <c r="N52" s="53"/>
-      <c r="O52" s="53"/>
-      <c r="P52" s="53"/>
-    </row>
-    <row r="53" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="55"/>
-      <c r="B53" s="51" t="s">
+      <c r="C52" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="I52" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="J52" s="36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="56"/>
+      <c r="B53" s="39" t="s">
         <v>258</v>
       </c>
-      <c r="C53" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="D53" s="53"/>
-      <c r="E53" s="53"/>
-      <c r="F53" s="53"/>
-      <c r="G53" s="53"/>
-      <c r="H53" s="53"/>
-      <c r="I53" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="J53" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="K53" s="53"/>
-      <c r="L53" s="53"/>
-      <c r="M53" s="53"/>
-      <c r="N53" s="53"/>
-      <c r="O53" s="53"/>
-      <c r="P53" s="53"/>
-    </row>
-    <row r="54" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="55" t="s">
+      <c r="C53" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="I53" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="J53" s="36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="56" t="s">
         <v>259</v>
       </c>
-      <c r="B54" s="51" t="s">
+      <c r="B54" s="39" t="s">
         <v>237</v>
       </c>
-      <c r="C54" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="D54" s="53"/>
-      <c r="E54" s="53"/>
-      <c r="F54" s="53"/>
-      <c r="G54" s="53"/>
-      <c r="H54" s="53"/>
-      <c r="I54" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="J54" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="K54" s="53"/>
-      <c r="L54" s="53"/>
-      <c r="M54" s="53"/>
-      <c r="N54" s="53"/>
-      <c r="O54" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="P54" s="53"/>
-    </row>
-    <row r="55" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="55"/>
-      <c r="B55" s="51" t="s">
+      <c r="C54" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="I54" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="J54" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="L54" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="O54" s="36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="56"/>
+      <c r="B55" s="39" t="s">
         <v>260</v>
       </c>
-      <c r="C55" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="D55" s="53"/>
-      <c r="E55" s="53"/>
-      <c r="F55" s="53"/>
-      <c r="G55" s="53"/>
-      <c r="H55" s="53"/>
-      <c r="I55" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="J55" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="K55" s="53"/>
-      <c r="L55" s="53"/>
-      <c r="M55" s="53"/>
-      <c r="N55" s="53"/>
-      <c r="O55" s="53"/>
-      <c r="P55" s="53"/>
-    </row>
-    <row r="56" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="55" t="s">
+      <c r="C55" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="I55" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="J55" s="36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="56" t="s">
         <v>253</v>
       </c>
-      <c r="B56" s="51" t="s">
+      <c r="B56" s="39" t="s">
         <v>237</v>
       </c>
-      <c r="C56" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="D56" s="53"/>
-      <c r="E56" s="53"/>
-      <c r="F56" s="53"/>
-      <c r="G56" s="53"/>
-      <c r="H56" s="53"/>
-      <c r="I56" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="J56" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="K56" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="L56" s="53"/>
-      <c r="M56" s="53"/>
-      <c r="N56" s="53"/>
-      <c r="O56" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="P56" s="53"/>
-    </row>
-    <row r="57" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="55"/>
-      <c r="B57" s="51" t="s">
+      <c r="C56" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="I56" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="J56" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="K56" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="L56" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="O56" s="36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="56"/>
+      <c r="B57" s="39" t="s">
         <v>242</v>
       </c>
-      <c r="C57" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="D57" s="53"/>
-      <c r="E57" s="53"/>
-      <c r="F57" s="53"/>
-      <c r="G57" s="53"/>
-      <c r="H57" s="53"/>
-      <c r="I57" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="J57" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="K57" s="52"/>
-      <c r="L57" s="53"/>
-      <c r="M57" s="53"/>
-      <c r="N57" s="53"/>
-      <c r="O57" s="53"/>
-      <c r="P57" s="53"/>
-    </row>
-    <row r="58" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="55"/>
-      <c r="B58" s="51" t="s">
+      <c r="C57" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="I57" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="J57" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="K57" s="36"/>
+    </row>
+    <row r="58" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="56"/>
+      <c r="B58" s="39" t="s">
         <v>245</v>
       </c>
-      <c r="C58" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="D58" s="53"/>
-      <c r="E58" s="53"/>
-      <c r="F58" s="53"/>
-      <c r="G58" s="53"/>
-      <c r="H58" s="53"/>
-      <c r="I58" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="J58" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="K58" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="L58" s="53"/>
-      <c r="M58" s="53"/>
-      <c r="N58" s="53"/>
-      <c r="O58" s="53"/>
-      <c r="P58" s="53"/>
-    </row>
-    <row r="59" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="55"/>
-      <c r="B59" s="51" t="s">
+      <c r="C58" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="I58" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="J58" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="K58" s="36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="56"/>
+      <c r="B59" s="39" t="s">
         <v>294</v>
       </c>
-      <c r="C59" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="D59" s="53"/>
-      <c r="E59" s="53"/>
-      <c r="F59" s="53"/>
-      <c r="G59" s="53"/>
-      <c r="H59" s="53"/>
-      <c r="I59" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="J59" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="K59" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="L59" s="53"/>
-      <c r="M59" s="53"/>
-      <c r="N59" s="53"/>
-      <c r="O59" s="53"/>
-      <c r="P59" s="53"/>
-    </row>
-    <row r="60" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="55"/>
-      <c r="B60" s="51" t="s">
+      <c r="C59" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="I59" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="J59" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="K59" s="36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="56"/>
+      <c r="B60" s="39" t="s">
         <v>252</v>
       </c>
-      <c r="C60" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="D60" s="53"/>
-      <c r="E60" s="53"/>
-      <c r="F60" s="53"/>
-      <c r="G60" s="53"/>
-      <c r="H60" s="53"/>
-      <c r="I60" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="J60" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="K60" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="L60" s="53"/>
-      <c r="M60" s="53"/>
-      <c r="N60" s="53"/>
-      <c r="O60" s="53"/>
-      <c r="P60" s="53"/>
-    </row>
-    <row r="61" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="55"/>
-      <c r="B61" s="51" t="s">
+      <c r="C60" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="I60" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="J60" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="K60" s="36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="56"/>
+      <c r="B61" s="39" t="s">
         <v>295</v>
       </c>
-      <c r="C61" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="D61" s="53"/>
-      <c r="E61" s="53"/>
-      <c r="F61" s="53"/>
-      <c r="G61" s="53"/>
-      <c r="H61" s="53"/>
-      <c r="I61" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="J61" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="K61" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="L61" s="53"/>
-      <c r="M61" s="53"/>
-      <c r="N61" s="53"/>
-      <c r="O61" s="53"/>
-      <c r="P61" s="53"/>
-    </row>
-    <row r="62" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="55" t="s">
+      <c r="C61" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="I61" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="J61" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="K61" s="36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="56" t="s">
         <v>261</v>
       </c>
-      <c r="B62" s="51" t="s">
+      <c r="B62" s="39" t="s">
         <v>237</v>
       </c>
-      <c r="C62" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="D62" s="53"/>
-      <c r="E62" s="53"/>
-      <c r="F62" s="53"/>
-      <c r="G62" s="53"/>
-      <c r="H62" s="53"/>
-      <c r="I62" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="J62" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="K62" s="52"/>
-      <c r="L62" s="53"/>
-      <c r="M62" s="53"/>
-      <c r="N62" s="53"/>
-      <c r="O62" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="P62" s="53"/>
-    </row>
-    <row r="63" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="55"/>
-      <c r="B63" s="51" t="s">
+      <c r="C62" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="I62" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="J62" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="K62" s="36"/>
+      <c r="L62" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="O62" s="36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="56"/>
+      <c r="B63" s="39" t="s">
         <v>260</v>
       </c>
-      <c r="C63" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="D63" s="53"/>
-      <c r="E63" s="53"/>
-      <c r="F63" s="53"/>
-      <c r="G63" s="53"/>
-      <c r="H63" s="53"/>
-      <c r="I63" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="J63" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="K63" s="53"/>
-      <c r="L63" s="53"/>
-      <c r="M63" s="53"/>
-      <c r="N63" s="53"/>
-      <c r="O63" s="53"/>
-      <c r="P63" s="53"/>
-    </row>
-    <row r="64" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="55" t="s">
+      <c r="C63" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="I63" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="J63" s="36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="56" t="s">
         <v>274</v>
       </c>
-      <c r="B64" s="51" t="s">
+      <c r="B64" s="39" t="s">
         <v>237</v>
       </c>
-      <c r="C64" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="D64" s="53"/>
-      <c r="E64" s="53"/>
-      <c r="F64" s="53"/>
-      <c r="G64" s="53"/>
-      <c r="H64" s="53"/>
-      <c r="I64" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="J64" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="K64" s="53"/>
-      <c r="L64" s="53"/>
-      <c r="M64" s="53"/>
-      <c r="N64" s="53"/>
-      <c r="O64" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="P64" s="53"/>
-    </row>
-    <row r="65" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="55"/>
-      <c r="B65" s="51" t="s">
+      <c r="C64" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="I64" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="J64" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="L64" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="O64" s="36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="56"/>
+      <c r="B65" s="39" t="s">
         <v>278</v>
       </c>
-      <c r="C65" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="D65" s="53"/>
-      <c r="E65" s="53"/>
-      <c r="F65" s="53"/>
-      <c r="G65" s="53"/>
-      <c r="H65" s="53"/>
-      <c r="I65" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="J65" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="K65" s="53"/>
-      <c r="L65" s="53"/>
-      <c r="M65" s="53"/>
-      <c r="N65" s="53"/>
-      <c r="O65" s="53"/>
-      <c r="P65" s="53"/>
-    </row>
-    <row r="66" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="55"/>
-      <c r="B66" s="51" t="s">
+      <c r="C65" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="I65" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="J65" s="36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="56"/>
+      <c r="B66" s="39" t="s">
         <v>279</v>
       </c>
-      <c r="C66" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="D66" s="53"/>
-      <c r="E66" s="53"/>
-      <c r="F66" s="53"/>
-      <c r="G66" s="53"/>
-      <c r="H66" s="53"/>
-      <c r="I66" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="J66" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="K66" s="53"/>
-      <c r="L66" s="53"/>
-      <c r="M66" s="53"/>
-      <c r="N66" s="53"/>
-      <c r="O66" s="53"/>
-      <c r="P66" s="53"/>
-    </row>
-    <row r="67" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="55" t="s">
+      <c r="C66" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="I66" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="J66" s="36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="56" t="s">
         <v>277</v>
       </c>
-      <c r="B67" s="51" t="s">
+      <c r="B67" s="39" t="s">
         <v>275</v>
       </c>
-      <c r="C67" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="D67" s="53"/>
-      <c r="E67" s="53"/>
-      <c r="F67" s="53"/>
-      <c r="G67" s="53"/>
-      <c r="H67" s="53"/>
-      <c r="I67" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="J67" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="K67" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="L67" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="M67" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="N67" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="O67" s="53"/>
-      <c r="P67" s="53"/>
-    </row>
-    <row r="68" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="55"/>
-      <c r="B68" s="51" t="s">
+      <c r="C67" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="I67" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="J67" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="K67" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="L67" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="M67" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="N67" s="36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="56"/>
+      <c r="B68" s="39" t="s">
         <v>276</v>
       </c>
-      <c r="C68" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="D68" s="53"/>
-      <c r="E68" s="53"/>
-      <c r="F68" s="53"/>
-      <c r="G68" s="53"/>
-      <c r="H68" s="53"/>
-      <c r="I68" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="J68" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="K68" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="L68" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="M68" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="N68" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="O68" s="53"/>
-      <c r="P68" s="53"/>
-    </row>
-    <row r="69" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="55" t="s">
+      <c r="C68" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="I68" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="J68" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="K68" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="L68" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="M68" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="N68" s="36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="56" t="s">
         <v>281</v>
       </c>
-      <c r="B69" s="51" t="s">
+      <c r="B69" s="39" t="s">
         <v>280</v>
       </c>
-      <c r="C69" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="D69" s="53"/>
-      <c r="E69" s="53"/>
-      <c r="F69" s="53"/>
-      <c r="G69" s="53"/>
-      <c r="H69" s="53"/>
-      <c r="I69" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="J69" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="K69" s="53"/>
-      <c r="L69" s="53"/>
-      <c r="M69" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="N69" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="O69" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="P69" s="53"/>
-    </row>
-    <row r="70" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="55"/>
-      <c r="B70" s="51" t="s">
+      <c r="C69" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="I69" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="J69" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="M69" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="N69" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="O69" s="36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="56"/>
+      <c r="B70" s="39" t="s">
         <v>282</v>
       </c>
-      <c r="C70" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="D70" s="53"/>
-      <c r="E70" s="53"/>
-      <c r="F70" s="53"/>
-      <c r="G70" s="53"/>
-      <c r="H70" s="53"/>
-      <c r="I70" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="J70" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="K70" s="53"/>
-      <c r="L70" s="53"/>
-      <c r="M70" s="52"/>
-      <c r="N70" s="53"/>
-      <c r="O70" s="53"/>
-      <c r="P70" s="53"/>
-    </row>
-    <row r="71" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="55"/>
-      <c r="B71" s="51" t="s">
+      <c r="C70" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="I70" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="J70" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="M70" s="36"/>
+    </row>
+    <row r="71" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="56"/>
+      <c r="B71" s="39" t="s">
         <v>283</v>
       </c>
-      <c r="C71" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="D71" s="53"/>
-      <c r="E71" s="53"/>
-      <c r="F71" s="53"/>
-      <c r="G71" s="53"/>
-      <c r="H71" s="53"/>
-      <c r="I71" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="J71" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="K71" s="53"/>
-      <c r="L71" s="53"/>
-      <c r="M71" s="52"/>
-      <c r="N71" s="53"/>
-      <c r="O71" s="53"/>
-      <c r="P71" s="53"/>
-    </row>
-    <row r="72" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="59" t="s">
+      <c r="C71" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="I71" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="J71" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="M71" s="36"/>
+    </row>
+    <row r="72" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="41" t="s">
         <v>284</v>
       </c>
-      <c r="B72" s="51" t="s">
+      <c r="B72" s="39" t="s">
         <v>285</v>
       </c>
-      <c r="C72" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="D72" s="53"/>
-      <c r="E72" s="53"/>
-      <c r="F72" s="53"/>
-      <c r="G72" s="53"/>
-      <c r="H72" s="53"/>
-      <c r="I72" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="J72" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="K72" s="53"/>
-      <c r="L72" s="53"/>
-      <c r="M72" s="53"/>
-      <c r="N72" s="53"/>
-      <c r="O72" s="53"/>
-      <c r="P72" s="53"/>
-    </row>
-    <row r="73" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="55" t="s">
+      <c r="C72" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="I72" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="J72" s="36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="56" t="s">
         <v>286</v>
       </c>
-      <c r="B73" s="51" t="s">
+      <c r="B73" s="39" t="s">
         <v>287</v>
       </c>
-      <c r="C73" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="D73" s="53"/>
-      <c r="E73" s="53"/>
-      <c r="F73" s="53"/>
-      <c r="G73" s="53"/>
-      <c r="H73" s="53"/>
-      <c r="I73" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="J73" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="K73" s="53"/>
-      <c r="L73" s="53"/>
-      <c r="M73" s="53"/>
-      <c r="N73" s="53"/>
-      <c r="O73" s="53"/>
-      <c r="P73" s="53"/>
-    </row>
-    <row r="74" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="55"/>
-      <c r="B74" s="51" t="s">
+      <c r="C73" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="I73" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="J73" s="36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="56"/>
+      <c r="B74" s="39" t="s">
         <v>288</v>
       </c>
-      <c r="C74" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="D74" s="53"/>
-      <c r="E74" s="53"/>
-      <c r="F74" s="53"/>
-      <c r="G74" s="53"/>
-      <c r="H74" s="53"/>
-      <c r="I74" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="J74" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="K74" s="53"/>
-      <c r="L74" s="53"/>
-      <c r="M74" s="53"/>
-      <c r="N74" s="53"/>
-      <c r="O74" s="53"/>
-      <c r="P74" s="53"/>
-    </row>
-    <row r="75" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="55"/>
-      <c r="B75" s="51" t="s">
+      <c r="C74" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="I74" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="J74" s="36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="56"/>
+      <c r="B75" s="39" t="s">
         <v>289</v>
       </c>
-      <c r="C75" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="D75" s="53"/>
-      <c r="E75" s="53"/>
-      <c r="F75" s="53"/>
-      <c r="G75" s="53"/>
-      <c r="H75" s="53"/>
-      <c r="I75" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="J75" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="K75" s="53"/>
-      <c r="L75" s="53"/>
-      <c r="M75" s="53"/>
-      <c r="N75" s="53"/>
-      <c r="O75" s="53"/>
-      <c r="P75" s="53"/>
-    </row>
-    <row r="76" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="55"/>
-      <c r="B76" s="51" t="s">
+      <c r="C75" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="I75" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="J75" s="36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="56"/>
+      <c r="B76" s="39" t="s">
         <v>290</v>
       </c>
-      <c r="C76" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="D76" s="53"/>
-      <c r="E76" s="53"/>
-      <c r="F76" s="53"/>
-      <c r="G76" s="53"/>
-      <c r="H76" s="53"/>
-      <c r="I76" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="J76" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="K76" s="53"/>
-      <c r="L76" s="53"/>
-      <c r="M76" s="53"/>
-      <c r="N76" s="53"/>
-      <c r="O76" s="53"/>
-      <c r="P76" s="53"/>
-    </row>
-    <row r="77" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="55"/>
-      <c r="B77" s="51" t="s">
+      <c r="C76" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="I76" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="J76" s="36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="56"/>
+      <c r="B77" s="39" t="s">
         <v>291</v>
       </c>
-      <c r="C77" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="D77" s="53"/>
-      <c r="E77" s="53"/>
-      <c r="F77" s="53"/>
-      <c r="G77" s="53"/>
-      <c r="H77" s="53"/>
-      <c r="I77" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="J77" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="K77" s="53"/>
-      <c r="L77" s="53"/>
-      <c r="M77" s="53"/>
-      <c r="N77" s="53"/>
-      <c r="O77" s="53"/>
-      <c r="P77" s="53"/>
-    </row>
-    <row r="78" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="55"/>
-      <c r="B78" s="51" t="s">
+      <c r="C77" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="I77" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="J77" s="36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="56"/>
+      <c r="B78" s="39" t="s">
         <v>292</v>
       </c>
-      <c r="C78" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="D78" s="53"/>
-      <c r="E78" s="53"/>
-      <c r="F78" s="53"/>
-      <c r="G78" s="53"/>
-      <c r="H78" s="53"/>
-      <c r="I78" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="J78" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="K78" s="53"/>
-      <c r="L78" s="53"/>
-      <c r="M78" s="53"/>
-      <c r="N78" s="53"/>
-      <c r="O78" s="53"/>
-      <c r="P78" s="53"/>
-    </row>
-    <row r="79" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="55"/>
-      <c r="B79" s="51" t="s">
+      <c r="C78" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="I78" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="J78" s="36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="56"/>
+      <c r="B79" s="39" t="s">
         <v>293</v>
       </c>
-      <c r="C79" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="D79" s="53"/>
-      <c r="E79" s="53"/>
-      <c r="F79" s="53"/>
-      <c r="G79" s="53"/>
-      <c r="H79" s="53"/>
-      <c r="I79" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="J79" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="K79" s="53"/>
-      <c r="L79" s="53"/>
-      <c r="M79" s="53"/>
-      <c r="N79" s="53"/>
-      <c r="O79" s="53"/>
-      <c r="P79" s="53"/>
-    </row>
-    <row r="80" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="55" t="s">
+      <c r="C79" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="I79" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="J79" s="36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="56" t="s">
         <v>296</v>
       </c>
-      <c r="B80" s="51" t="s">
+      <c r="B80" s="39" t="s">
         <v>297</v>
       </c>
-      <c r="C80" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="D80" s="53"/>
-      <c r="E80" s="53"/>
-      <c r="F80" s="53"/>
-      <c r="G80" s="53"/>
-      <c r="H80" s="53"/>
-      <c r="I80" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="J80" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="K80" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="L80" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="M80" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="N80" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="O80" s="53"/>
-      <c r="P80" s="53"/>
-    </row>
-    <row r="81" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="55"/>
-      <c r="B81" s="51" t="s">
+      <c r="C80" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="I80" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="J80" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="K80" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="L80" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="M80" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="N80" s="36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="56"/>
+      <c r="B81" s="39" t="s">
         <v>298</v>
       </c>
-      <c r="C81" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="D81" s="53"/>
-      <c r="E81" s="53"/>
-      <c r="F81" s="53"/>
-      <c r="G81" s="53"/>
-      <c r="H81" s="53"/>
-      <c r="I81" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="J81" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="K81" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="L81" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="M81" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="N81" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="O81" s="53"/>
-      <c r="P81" s="53"/>
-    </row>
-    <row r="82" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="55"/>
-      <c r="B82" s="51" t="s">
+      <c r="C81" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="I81" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="J81" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="K81" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="L81" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="M81" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="N81" s="36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="56"/>
+      <c r="B82" s="39" t="s">
         <v>299</v>
       </c>
-      <c r="C82" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="D82" s="53"/>
-      <c r="E82" s="53"/>
-      <c r="F82" s="53"/>
-      <c r="G82" s="53"/>
-      <c r="H82" s="53"/>
-      <c r="I82" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="J82" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="K82" s="53"/>
-      <c r="L82" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="M82" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="N82" s="53"/>
-      <c r="O82" s="53"/>
-      <c r="P82" s="53"/>
-    </row>
-    <row r="83" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="55"/>
-      <c r="B83" s="51" t="s">
+      <c r="C82" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="I82" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="J82" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="L82" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="M82" s="36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="56"/>
+      <c r="B83" s="39" t="s">
         <v>300</v>
       </c>
-      <c r="C83" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="D83" s="53"/>
-      <c r="E83" s="53"/>
-      <c r="F83" s="53"/>
-      <c r="G83" s="53"/>
-      <c r="H83" s="53"/>
-      <c r="I83" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="J83" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="K83" s="53"/>
-      <c r="L83" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="M83" s="52"/>
-      <c r="N83" s="53"/>
-      <c r="O83" s="53"/>
-      <c r="P83" s="53"/>
-    </row>
-    <row r="84" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="55"/>
-      <c r="B84" s="51" t="s">
+      <c r="C83" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="I83" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="J83" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="L83" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="M83" s="36"/>
+    </row>
+    <row r="84" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="56"/>
+      <c r="B84" s="39" t="s">
         <v>301</v>
       </c>
-      <c r="C84" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="D84" s="53"/>
-      <c r="E84" s="53"/>
-      <c r="F84" s="53"/>
-      <c r="G84" s="53"/>
-      <c r="H84" s="53"/>
-      <c r="I84" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="J84" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="K84" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="L84" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="M84" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="N84" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="O84" s="53"/>
-      <c r="P84" s="53"/>
-    </row>
-    <row r="85" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="55"/>
-      <c r="B85" s="51" t="s">
+      <c r="C84" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="I84" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="J84" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="K84" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="L84" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="M84" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="N84" s="36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="56"/>
+      <c r="B85" s="39" t="s">
         <v>302</v>
       </c>
-      <c r="C85" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="D85" s="53"/>
-      <c r="E85" s="53"/>
-      <c r="F85" s="53"/>
-      <c r="G85" s="53"/>
-      <c r="H85" s="53"/>
-      <c r="I85" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="J85" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="K85" s="53"/>
-      <c r="L85" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="M85" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="N85" s="53"/>
-      <c r="O85" s="53"/>
-      <c r="P85" s="53"/>
-    </row>
-    <row r="86" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="55"/>
-      <c r="B86" s="51" t="s">
+      <c r="C85" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="I85" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="J85" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="L85" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="M85" s="36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="56"/>
+      <c r="B86" s="39" t="s">
         <v>303</v>
       </c>
-      <c r="C86" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="D86" s="53"/>
-      <c r="E86" s="53"/>
-      <c r="F86" s="53"/>
-      <c r="G86" s="53"/>
-      <c r="H86" s="53"/>
-      <c r="I86" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="J86" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="K86" s="53"/>
-      <c r="L86" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="M86" s="52"/>
-      <c r="N86" s="53"/>
-      <c r="O86" s="53"/>
-      <c r="P86" s="53"/>
-    </row>
-    <row r="87" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="55"/>
-      <c r="B87" s="51" t="s">
+      <c r="C86" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="I86" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="J86" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="L86" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="M86" s="36"/>
+    </row>
+    <row r="87" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="56"/>
+      <c r="B87" s="39" t="s">
         <v>304</v>
       </c>
-      <c r="C87" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="D87" s="53"/>
-      <c r="E87" s="53"/>
-      <c r="F87" s="53"/>
-      <c r="G87" s="53"/>
-      <c r="H87" s="53"/>
-      <c r="I87" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="J87" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="K87" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="L87" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="M87" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="N87" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="O87" s="53"/>
-      <c r="P87" s="53"/>
-    </row>
-    <row r="88" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="55"/>
-      <c r="B88" s="51" t="s">
+      <c r="C87" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="I87" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="J87" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="K87" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="L87" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="M87" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="N87" s="36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="56"/>
+      <c r="B88" s="39" t="s">
         <v>305</v>
       </c>
-      <c r="C88" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="D88" s="53"/>
-      <c r="E88" s="53"/>
-      <c r="F88" s="53"/>
-      <c r="G88" s="53"/>
-      <c r="H88" s="53"/>
-      <c r="I88" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="J88" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="K88" s="53"/>
-      <c r="L88" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="M88" s="52"/>
-      <c r="N88" s="53"/>
-      <c r="O88" s="53"/>
-      <c r="P88" s="53"/>
-    </row>
-    <row r="89" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="55"/>
-      <c r="B89" s="51" t="s">
+      <c r="C88" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="I88" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="J88" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="L88" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="M88" s="36"/>
+    </row>
+    <row r="89" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="56"/>
+      <c r="B89" s="39" t="s">
         <v>306</v>
       </c>
-      <c r="C89" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="D89" s="53"/>
-      <c r="E89" s="53"/>
-      <c r="F89" s="53"/>
-      <c r="G89" s="53"/>
-      <c r="H89" s="53"/>
-      <c r="I89" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="J89" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="K89" s="53"/>
-      <c r="L89" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="M89" s="52"/>
-      <c r="N89" s="53"/>
-      <c r="O89" s="53"/>
-      <c r="P89" s="53"/>
-    </row>
-    <row r="90" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="55"/>
-      <c r="B90" s="51" t="s">
+      <c r="C89" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="I89" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="J89" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="L89" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="M89" s="36"/>
+    </row>
+    <row r="90" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="56"/>
+      <c r="B90" s="39" t="s">
         <v>307</v>
       </c>
-      <c r="C90" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="D90" s="53"/>
-      <c r="E90" s="53"/>
-      <c r="F90" s="53"/>
-      <c r="G90" s="53"/>
-      <c r="H90" s="53"/>
-      <c r="I90" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="J90" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="K90" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="L90" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="M90" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="N90" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="O90" s="53"/>
-      <c r="P90" s="53"/>
-    </row>
-    <row r="91" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="55"/>
-      <c r="B91" s="51" t="s">
+      <c r="C90" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="I90" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="J90" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="K90" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="L90" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="M90" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="N90" s="36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="56"/>
+      <c r="B91" s="39" t="s">
         <v>308</v>
       </c>
-      <c r="C91" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="D91" s="53"/>
-      <c r="E91" s="53"/>
-      <c r="F91" s="53"/>
-      <c r="G91" s="53"/>
-      <c r="H91" s="53"/>
-      <c r="I91" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="J91" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="K91" s="53"/>
-      <c r="L91" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="M91" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="N91" s="53"/>
-      <c r="O91" s="53"/>
-      <c r="P91" s="53"/>
-    </row>
-    <row r="92" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="55"/>
-      <c r="B92" s="51" t="s">
+      <c r="C91" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="I91" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="J91" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="L91" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="M91" s="36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="56"/>
+      <c r="B92" s="39" t="s">
         <v>309</v>
       </c>
-      <c r="C92" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="D92" s="53"/>
-      <c r="E92" s="53"/>
-      <c r="F92" s="53"/>
-      <c r="G92" s="53"/>
-      <c r="H92" s="53"/>
-      <c r="I92" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="J92" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="K92" s="53"/>
-      <c r="L92" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="M92" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="N92" s="53"/>
-      <c r="O92" s="53"/>
-      <c r="P92" s="53"/>
-    </row>
-    <row r="93" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="59" t="s">
+      <c r="C92" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="I92" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="J92" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="L92" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="M92" s="36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="41" t="s">
         <v>311</v>
       </c>
-      <c r="B93" s="51" t="s">
+      <c r="B93" s="39" t="s">
         <v>310</v>
       </c>
-      <c r="C93" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="D93" s="53"/>
-      <c r="E93" s="53"/>
-      <c r="F93" s="53"/>
-      <c r="G93" s="53"/>
-      <c r="H93" s="53"/>
-      <c r="I93" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="J93" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="K93" s="53"/>
-      <c r="L93" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="M93" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="N93" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="O93" s="53"/>
-      <c r="P93" s="53"/>
-    </row>
-    <row r="94" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="54" t="s">
+      <c r="C93" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="I93" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="J93" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="L93" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="M93" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="N93" s="36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="40" t="s">
         <v>312</v>
       </c>
-      <c r="B94" s="51" t="s">
+      <c r="B94" s="39" t="s">
         <v>313</v>
       </c>
-      <c r="C94" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="D94" s="53"/>
-      <c r="E94" s="53"/>
-      <c r="F94" s="53"/>
-      <c r="G94" s="53"/>
-      <c r="H94" s="53"/>
-      <c r="I94" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="J94" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="K94" s="53"/>
-      <c r="L94" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="M94" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="N94" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="O94" s="53"/>
-      <c r="P94" s="53"/>
-    </row>
-    <row r="95" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="59" t="s">
+      <c r="C94" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="I94" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="J94" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="L94" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="M94" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="N94" s="36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="41" t="s">
         <v>314</v>
       </c>
-      <c r="B95" s="51" t="s">
+      <c r="B95" s="39" t="s">
         <v>315</v>
       </c>
-      <c r="C95" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="D95" s="53"/>
-      <c r="E95" s="53"/>
-      <c r="F95" s="53"/>
-      <c r="G95" s="53"/>
-      <c r="H95" s="53"/>
-      <c r="I95" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="J95" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="K95" s="53"/>
-      <c r="L95" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="M95" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="N95" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="O95" s="53"/>
-      <c r="P95" s="53"/>
-    </row>
-    <row r="96" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="59" t="s">
+      <c r="C95" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="I95" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="J95" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="L95" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="M95" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="N95" s="36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="41" t="s">
         <v>316</v>
       </c>
-      <c r="B96" s="51" t="s">
+      <c r="B96" s="39" t="s">
         <v>317</v>
       </c>
-      <c r="C96" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="D96" s="53"/>
-      <c r="E96" s="53"/>
-      <c r="F96" s="53"/>
-      <c r="G96" s="53"/>
-      <c r="H96" s="53"/>
-      <c r="I96" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="J96" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="K96" s="53"/>
-      <c r="L96" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="M96" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="N96" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="O96" s="53"/>
-      <c r="P96" s="53"/>
+      <c r="C96" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="I96" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="J96" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="L96" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="M96" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="N96" s="36" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="97" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="59" t="s">
+      <c r="A97" s="41" t="s">
         <v>318</v>
       </c>
-      <c r="B97" s="51" t="s">
+      <c r="B97" s="39" t="s">
         <v>237</v>
       </c>
-      <c r="C97" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="D97" s="53"/>
-      <c r="E97" s="53"/>
-      <c r="F97" s="53"/>
-      <c r="G97" s="53"/>
-      <c r="H97" s="53"/>
-      <c r="I97" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="J97" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="K97" s="53"/>
-      <c r="L97" s="53"/>
-      <c r="M97" s="53"/>
-      <c r="N97" s="53"/>
-      <c r="O97" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="P97" s="53"/>
+      <c r="C97" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="I97" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="J97" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="O97" s="36" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="98" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="55" t="s">
+      <c r="A98" s="56" t="s">
         <v>319</v>
       </c>
-      <c r="B98" s="51" t="s">
+      <c r="B98" s="39" t="s">
         <v>237</v>
       </c>
-      <c r="C98" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="D98" s="53"/>
-      <c r="E98" s="53"/>
-      <c r="F98" s="53"/>
-      <c r="G98" s="53"/>
-      <c r="H98" s="53"/>
-      <c r="I98" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="J98" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="K98" s="53"/>
-      <c r="L98" s="53"/>
-      <c r="M98" s="53"/>
-      <c r="N98" s="53"/>
-      <c r="O98" s="53"/>
-      <c r="P98" s="52" t="s">
+      <c r="C98" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="I98" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="J98" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="P98" s="36" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="99" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="55"/>
-      <c r="B99" s="51" t="s">
+      <c r="A99" s="56"/>
+      <c r="B99" s="39" t="s">
         <v>242</v>
       </c>
-      <c r="C99" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="D99" s="53"/>
-      <c r="E99" s="53"/>
-      <c r="F99" s="53"/>
-      <c r="G99" s="53"/>
-      <c r="H99" s="53"/>
-      <c r="I99" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="J99" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="K99" s="53"/>
-      <c r="L99" s="53"/>
-      <c r="M99" s="53"/>
-      <c r="N99" s="53"/>
-      <c r="O99" s="53"/>
-      <c r="P99" s="52" t="s">
+      <c r="C99" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="I99" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="J99" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="P99" s="36" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="100" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="55"/>
-      <c r="B100" s="51" t="s">
+      <c r="A100" s="56"/>
+      <c r="B100" s="39" t="s">
         <v>245</v>
       </c>
-      <c r="C100" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="D100" s="53"/>
-      <c r="E100" s="53"/>
-      <c r="F100" s="53"/>
-      <c r="G100" s="53"/>
-      <c r="H100" s="53"/>
-      <c r="I100" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="J100" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="K100" s="53"/>
-      <c r="L100" s="53"/>
-      <c r="M100" s="53"/>
-      <c r="N100" s="53"/>
-      <c r="O100" s="53"/>
-      <c r="P100" s="52" t="s">
+      <c r="C100" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="I100" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="J100" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="P100" s="36" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="101" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="55"/>
-      <c r="B101" s="51" t="s">
+      <c r="A101" s="56"/>
+      <c r="B101" s="39" t="s">
         <v>241</v>
       </c>
-      <c r="C101" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="D101" s="53"/>
-      <c r="E101" s="53"/>
-      <c r="F101" s="53"/>
-      <c r="G101" s="53"/>
-      <c r="H101" s="53"/>
-      <c r="I101" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="J101" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="K101" s="53"/>
-      <c r="L101" s="53"/>
-      <c r="M101" s="53"/>
-      <c r="N101" s="53"/>
-      <c r="O101" s="53"/>
-      <c r="P101" s="52" t="s">
+      <c r="C101" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="I101" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="J101" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="P101" s="36" t="s">
         <v>28</v>
       </c>
     </row>
@@ -30488,17 +29648,9 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A80:A92"/>
-    <mergeCell ref="A98:A101"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="A64:A66"/>
-    <mergeCell ref="A69:A71"/>
-    <mergeCell ref="A73:A79"/>
-    <mergeCell ref="A56:A61"/>
-    <mergeCell ref="A44:A53"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="I1:P1"/>
+    <mergeCell ref="A5:A6"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A7:A10"/>
     <mergeCell ref="A19:A27"/>
@@ -30507,11 +29659,19 @@
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A11:A14"/>
     <mergeCell ref="A15:A18"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="I1:P1"/>
-    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A56:A61"/>
+    <mergeCell ref="A44:A53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="A80:A92"/>
+    <mergeCell ref="A98:A101"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="A64:A66"/>
+    <mergeCell ref="A69:A71"/>
+    <mergeCell ref="A73:A79"/>
   </mergeCells>
-  <conditionalFormatting sqref="A62:I62 B57:I61 A56:I56 B45:XFD48 B63:I63 A19:XFD44 A1:XFD11 B12:XFD18 A64:I64 A67:I67 B65:I66 A73:B73 B68:I71 A69 A72:I72 B49:I55 J49:XFD72 B74:B79 C73:XFD79 A80:XFD80 A93:XFD98 B81:XFD92 A102:XFD1048576 B99:XFD101">
+  <conditionalFormatting sqref="A1:XFD11 B12:XFD18 A19:XFD44 B45:XFD48 B49:I55 J49:XFD72 A56:I56 B57:I61 A62:I62 B63:I63 A64:I64 B65:I66 A67:I67 B68:I71 A69 A72:I72 A73:B73 C73:XFD79 B74:B79 A80:XFD80 B81:XFD92 A93:XFD98 B99:XFD101 A102:XFD1048576">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>

--- a/User Roles Cross Reference.xlsx
+++ b/User Roles Cross Reference.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bsbishop/repos/ce-mongodb-user-roles-reference/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08EE3071-EBB6-6946-B96D-27A65546CBC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E362A63-549B-6349-9461-6017933F22DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51200" yWindow="480" windowWidth="25560" windowHeight="28320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="51200" windowHeight="28320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MongoDB Roles" sheetId="1" r:id="rId1"/>
@@ -1924,32 +1924,23 @@
         </r>
       </text>
     </comment>
-    <comment ref="B45" authorId="0" shapeId="0" xr:uid="{88F62D72-9404-5E40-B768-459C027ED1A5}">
+    <comment ref="A44" authorId="0" shapeId="0" xr:uid="{D3906B86-0CF8-7242-B838-2A83780ECDF2}">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
             <color rgb="FF000000"/>
-            <rFont val="Arial"/>
+            <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>The user</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> must exist at the organization level.
+          <t xml:space="preserve">The user must exist at the organization level.
 </t>
         </r>
         <r>
           <rPr>
             <sz val="10"/>
             <color rgb="FF000000"/>
-            <rFont val="Arial"/>
+            <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
@@ -1959,16 +1950,17 @@
           <rPr>
             <sz val="10"/>
             <color rgb="FF000000"/>
-            <rFont val="Arial"/>
+            <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>You can invite organization API Keys to the project to give them programatic access.</t>
+          <t xml:space="preserve">You can invite organization API Keys to the project to give them programatic access.
+</t>
         </r>
         <r>
           <rPr>
             <sz val="10"/>
             <color rgb="FF000000"/>
-            <rFont val="Arial"/>
+            <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
@@ -1978,39 +1970,21 @@
           <rPr>
             <sz val="10"/>
             <color rgb="FF000000"/>
-            <rFont val="Arial"/>
+            <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">
+          <t xml:space="preserve">You can grant API Keys access to a project with either an organization or a project role. If your key has both the Organization Owner and Project Owner roles, it can access all projects in the organization.
 </t>
         </r>
         <r>
           <rPr>
             <sz val="10"/>
             <color rgb="FF000000"/>
-            <rFont val="Arial"/>
+            <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>You can grant </t>
-        </r>
-        <r>
-          <rPr>
-            <u/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>API</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t> Keys access to a project with either an organization or a project role. If your key has both the Organization Owner and Project Owner roles, it can access all projects in the organization.</t>
+          <t xml:space="preserve">
+</t>
         </r>
       </text>
     </comment>
@@ -3225,7 +3199,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -3414,6 +3388,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -3447,7 +3427,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -3544,12 +3524,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -3661,24 +3656,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3687,30 +3674,47 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4045,7 +4049,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B64" sqref="B64"/>
+      <selection pane="bottomRight" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4060,10 +4064,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="28" x14ac:dyDescent="0.15">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="50" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="45" t="s">
@@ -4106,8 +4110,8 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A2" s="50"/>
-      <c r="B2" s="50"/>
+      <c r="A2" s="44"/>
+      <c r="B2" s="44"/>
       <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
@@ -4168,7 +4172,7 @@
       <c r="Z2" s="4"/>
     </row>
     <row r="3" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="40" t="s">
         <v>26</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -4228,7 +4232,7 @@
       <c r="Z3" s="9"/>
     </row>
     <row r="4" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A4" s="51"/>
+      <c r="A4" s="42"/>
       <c r="B4" s="10" t="s">
         <v>38</v>
       </c>
@@ -4276,7 +4280,7 @@
       <c r="Z4" s="14"/>
     </row>
     <row r="5" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A5" s="52"/>
+      <c r="A5" s="43"/>
       <c r="B5" s="5" t="s">
         <v>42</v>
       </c>
@@ -4322,7 +4326,7 @@
       <c r="Z5" s="9"/>
     </row>
     <row r="6" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A6" s="51"/>
+      <c r="A6" s="42"/>
       <c r="B6" s="10" t="s">
         <v>44</v>
       </c>
@@ -4370,7 +4374,7 @@
       <c r="Z6" s="14"/>
     </row>
     <row r="7" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A7" s="52"/>
+      <c r="A7" s="43"/>
       <c r="B7" s="5" t="s">
         <v>45</v>
       </c>
@@ -4410,7 +4414,7 @@
       <c r="Z7" s="9"/>
     </row>
     <row r="8" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A8" s="50"/>
+      <c r="A8" s="44"/>
       <c r="B8" s="10" t="s">
         <v>47</v>
       </c>
@@ -4448,7 +4452,7 @@
       <c r="Z8" s="14"/>
     </row>
     <row r="9" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A9" s="49" t="s">
+      <c r="A9" s="40" t="s">
         <v>48</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -4492,7 +4496,7 @@
       <c r="Z9" s="9"/>
     </row>
     <row r="10" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A10" s="51"/>
+      <c r="A10" s="42"/>
       <c r="B10" s="10" t="s">
         <v>50</v>
       </c>
@@ -4526,7 +4530,7 @@
       <c r="Z10" s="14"/>
     </row>
     <row r="11" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A11" s="52"/>
+      <c r="A11" s="43"/>
       <c r="B11" s="5" t="s">
         <v>51</v>
       </c>
@@ -4560,7 +4564,7 @@
       <c r="Z11" s="9"/>
     </row>
     <row r="12" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A12" s="51"/>
+      <c r="A12" s="42"/>
       <c r="B12" s="10" t="s">
         <v>52</v>
       </c>
@@ -4602,7 +4606,7 @@
       <c r="Z12" s="14"/>
     </row>
     <row r="13" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A13" s="52"/>
+      <c r="A13" s="43"/>
       <c r="B13" s="5" t="s">
         <v>53</v>
       </c>
@@ -4646,7 +4650,7 @@
       <c r="Z13" s="9"/>
     </row>
     <row r="14" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A14" s="51"/>
+      <c r="A14" s="42"/>
       <c r="B14" s="10" t="s">
         <v>55</v>
       </c>
@@ -4692,7 +4696,7 @@
       <c r="Z14" s="14"/>
     </row>
     <row r="15" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A15" s="52"/>
+      <c r="A15" s="43"/>
       <c r="B15" s="5" t="s">
         <v>58</v>
       </c>
@@ -4734,7 +4738,7 @@
       <c r="Z15" s="9"/>
     </row>
     <row r="16" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A16" s="51"/>
+      <c r="A16" s="42"/>
       <c r="B16" s="10" t="s">
         <v>59</v>
       </c>
@@ -4776,7 +4780,7 @@
       <c r="Z16" s="14"/>
     </row>
     <row r="17" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A17" s="52"/>
+      <c r="A17" s="43"/>
       <c r="B17" s="5" t="s">
         <v>60</v>
       </c>
@@ -4820,7 +4824,7 @@
       <c r="Z17" s="9"/>
     </row>
     <row r="18" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A18" s="51"/>
+      <c r="A18" s="42"/>
       <c r="B18" s="10" t="s">
         <v>61</v>
       </c>
@@ -4862,7 +4866,7 @@
       <c r="Z18" s="14"/>
     </row>
     <row r="19" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A19" s="52"/>
+      <c r="A19" s="43"/>
       <c r="B19" s="5" t="s">
         <v>62</v>
       </c>
@@ -4904,7 +4908,7 @@
       <c r="Z19" s="9"/>
     </row>
     <row r="20" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A20" s="51"/>
+      <c r="A20" s="42"/>
       <c r="B20" s="10" t="s">
         <v>63</v>
       </c>
@@ -4942,7 +4946,7 @@
       <c r="Z20" s="14"/>
     </row>
     <row r="21" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A21" s="52"/>
+      <c r="A21" s="43"/>
       <c r="B21" s="5" t="s">
         <v>64</v>
       </c>
@@ -4984,7 +4988,7 @@
       <c r="Z21" s="9"/>
     </row>
     <row r="22" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A22" s="51"/>
+      <c r="A22" s="42"/>
       <c r="B22" s="10" t="s">
         <v>65</v>
       </c>
@@ -5040,7 +5044,7 @@
       <c r="Z22" s="14"/>
     </row>
     <row r="23" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A23" s="52"/>
+      <c r="A23" s="43"/>
       <c r="B23" s="5" t="s">
         <v>70</v>
       </c>
@@ -5080,7 +5084,7 @@
       <c r="Z23" s="9"/>
     </row>
     <row r="24" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A24" s="51"/>
+      <c r="A24" s="42"/>
       <c r="B24" s="10" t="s">
         <v>71</v>
       </c>
@@ -5122,7 +5126,7 @@
       <c r="Z24" s="14"/>
     </row>
     <row r="25" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A25" s="52"/>
+      <c r="A25" s="43"/>
       <c r="B25" s="5" t="s">
         <v>72</v>
       </c>
@@ -5162,7 +5166,7 @@
       <c r="Z25" s="9"/>
     </row>
     <row r="26" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A26" s="51"/>
+      <c r="A26" s="42"/>
       <c r="B26" s="10" t="s">
         <v>73</v>
       </c>
@@ -5200,7 +5204,7 @@
       <c r="Z26" s="14"/>
     </row>
     <row r="27" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A27" s="52"/>
+      <c r="A27" s="43"/>
       <c r="B27" s="5" t="s">
         <v>74</v>
       </c>
@@ -5242,7 +5246,7 @@
       <c r="Z27" s="9"/>
     </row>
     <row r="28" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A28" s="50"/>
+      <c r="A28" s="44"/>
       <c r="B28" s="10" t="s">
         <v>75</v>
       </c>
@@ -5284,7 +5288,7 @@
       <c r="Z28" s="14"/>
     </row>
     <row r="29" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A29" s="49" t="s">
+      <c r="A29" s="40" t="s">
         <v>76</v>
       </c>
       <c r="B29" s="5" t="s">
@@ -5322,7 +5326,7 @@
       <c r="Z29" s="9"/>
     </row>
     <row r="30" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A30" s="51"/>
+      <c r="A30" s="42"/>
       <c r="B30" s="10" t="s">
         <v>79</v>
       </c>
@@ -5360,7 +5364,7 @@
       <c r="Z30" s="14"/>
     </row>
     <row r="31" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A31" s="52"/>
+      <c r="A31" s="43"/>
       <c r="B31" s="5" t="s">
         <v>80</v>
       </c>
@@ -5394,7 +5398,7 @@
       <c r="Z31" s="9"/>
     </row>
     <row r="32" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A32" s="51"/>
+      <c r="A32" s="42"/>
       <c r="B32" s="10" t="s">
         <v>81</v>
       </c>
@@ -5432,7 +5436,7 @@
       <c r="Z32" s="14"/>
     </row>
     <row r="33" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A33" s="52"/>
+      <c r="A33" s="43"/>
       <c r="B33" s="5" t="s">
         <v>82</v>
       </c>
@@ -5472,7 +5476,7 @@
       <c r="Z33" s="9"/>
     </row>
     <row r="34" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A34" s="51"/>
+      <c r="A34" s="42"/>
       <c r="B34" s="10" t="s">
         <v>83</v>
       </c>
@@ -5510,7 +5514,7 @@
       <c r="Z34" s="14"/>
     </row>
     <row r="35" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A35" s="52"/>
+      <c r="A35" s="43"/>
       <c r="B35" s="5" t="s">
         <v>84</v>
       </c>
@@ -5558,7 +5562,7 @@
       <c r="Z35" s="9"/>
     </row>
     <row r="36" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A36" s="51"/>
+      <c r="A36" s="42"/>
       <c r="B36" s="10" t="s">
         <v>87</v>
       </c>
@@ -5598,7 +5602,7 @@
       <c r="Z36" s="14"/>
     </row>
     <row r="37" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A37" s="52"/>
+      <c r="A37" s="43"/>
       <c r="B37" s="15" t="s">
         <v>89</v>
       </c>
@@ -5638,7 +5642,7 @@
       <c r="Z37" s="9"/>
     </row>
     <row r="38" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A38" s="50"/>
+      <c r="A38" s="44"/>
       <c r="B38" s="10" t="s">
         <v>90</v>
       </c>
@@ -5728,7 +5732,7 @@
       <c r="Z39" s="9"/>
     </row>
     <row r="40" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A40" s="49" t="s">
+      <c r="A40" s="40" t="s">
         <v>94</v>
       </c>
       <c r="B40" s="10" t="s">
@@ -5770,7 +5774,7 @@
       <c r="Z40" s="14"/>
     </row>
     <row r="41" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A41" s="52"/>
+      <c r="A41" s="43"/>
       <c r="B41" s="5" t="s">
         <v>96</v>
       </c>
@@ -5808,7 +5812,7 @@
       <c r="Z41" s="9"/>
     </row>
     <row r="42" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A42" s="51"/>
+      <c r="A42" s="42"/>
       <c r="B42" s="10" t="s">
         <v>97</v>
       </c>
@@ -5848,7 +5852,7 @@
       <c r="Z42" s="14"/>
     </row>
     <row r="43" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A43" s="52"/>
+      <c r="A43" s="43"/>
       <c r="B43" s="5" t="s">
         <v>98</v>
       </c>
@@ -5888,7 +5892,7 @@
       <c r="Z43" s="9"/>
     </row>
     <row r="44" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A44" s="51"/>
+      <c r="A44" s="42"/>
       <c r="B44" s="10" t="s">
         <v>99</v>
       </c>
@@ -5922,7 +5926,7 @@
       <c r="Z44" s="14"/>
     </row>
     <row r="45" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A45" s="52"/>
+      <c r="A45" s="43"/>
       <c r="B45" s="5" t="s">
         <v>100</v>
       </c>
@@ -5960,7 +5964,7 @@
       <c r="Z45" s="9"/>
     </row>
     <row r="46" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A46" s="50"/>
+      <c r="A46" s="44"/>
       <c r="B46" s="10" t="s">
         <v>101</v>
       </c>
@@ -6000,7 +6004,7 @@
       <c r="Z46" s="14"/>
     </row>
     <row r="47" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A47" s="49" t="s">
+      <c r="A47" s="40" t="s">
         <v>102</v>
       </c>
       <c r="B47" s="5" t="s">
@@ -6040,7 +6044,7 @@
       <c r="Z47" s="9"/>
     </row>
     <row r="48" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A48" s="51"/>
+      <c r="A48" s="42"/>
       <c r="B48" s="10" t="s">
         <v>104</v>
       </c>
@@ -6078,7 +6082,7 @@
       <c r="Z48" s="14"/>
     </row>
     <row r="49" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A49" s="52"/>
+      <c r="A49" s="43"/>
       <c r="B49" s="5" t="s">
         <v>105</v>
       </c>
@@ -6116,7 +6120,7 @@
       <c r="Z49" s="9"/>
     </row>
     <row r="50" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A50" s="51"/>
+      <c r="A50" s="42"/>
       <c r="B50" s="10" t="s">
         <v>107</v>
       </c>
@@ -6154,7 +6158,7 @@
       <c r="Z50" s="14"/>
     </row>
     <row r="51" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A51" s="52"/>
+      <c r="A51" s="43"/>
       <c r="B51" s="5" t="s">
         <v>108</v>
       </c>
@@ -6194,7 +6198,7 @@
       <c r="Z51" s="9"/>
     </row>
     <row r="52" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A52" s="51"/>
+      <c r="A52" s="42"/>
       <c r="B52" s="10" t="s">
         <v>109</v>
       </c>
@@ -6232,7 +6236,7 @@
       <c r="Z52" s="14"/>
     </row>
     <row r="53" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A53" s="52"/>
+      <c r="A53" s="43"/>
       <c r="B53" s="5" t="s">
         <v>110</v>
       </c>
@@ -6270,7 +6274,7 @@
       <c r="Z53" s="9"/>
     </row>
     <row r="54" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A54" s="51"/>
+      <c r="A54" s="42"/>
       <c r="B54" s="10" t="s">
         <v>112</v>
       </c>
@@ -6310,7 +6314,7 @@
       <c r="Z54" s="14"/>
     </row>
     <row r="55" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A55" s="52"/>
+      <c r="A55" s="43"/>
       <c r="B55" s="5" t="s">
         <v>113</v>
       </c>
@@ -6348,7 +6352,7 @@
       <c r="Z55" s="9"/>
     </row>
     <row r="56" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A56" s="51"/>
+      <c r="A56" s="42"/>
       <c r="B56" s="10" t="s">
         <v>114</v>
       </c>
@@ -6386,7 +6390,7 @@
       <c r="Z56" s="14"/>
     </row>
     <row r="57" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A57" s="52"/>
+      <c r="A57" s="43"/>
       <c r="B57" s="5" t="s">
         <v>115</v>
       </c>
@@ -6424,7 +6428,7 @@
       <c r="Z57" s="9"/>
     </row>
     <row r="58" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A58" s="51"/>
+      <c r="A58" s="42"/>
       <c r="B58" s="10" t="s">
         <v>116</v>
       </c>
@@ -6462,7 +6466,7 @@
       <c r="Z58" s="14"/>
     </row>
     <row r="59" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A59" s="53"/>
+      <c r="A59" s="41"/>
       <c r="B59" s="5" t="s">
         <v>117</v>
       </c>
@@ -6500,7 +6504,7 @@
       <c r="Z59" s="9"/>
     </row>
     <row r="60" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A60" s="49" t="s">
+      <c r="A60" s="40" t="s">
         <v>118</v>
       </c>
       <c r="B60" s="10" t="s">
@@ -6542,7 +6546,7 @@
       <c r="Z60" s="14"/>
     </row>
     <row r="61" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A61" s="52"/>
+      <c r="A61" s="43"/>
       <c r="B61" s="5" t="s">
         <v>120</v>
       </c>
@@ -6580,7 +6584,7 @@
       <c r="Z61" s="9"/>
     </row>
     <row r="62" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A62" s="51"/>
+      <c r="A62" s="42"/>
       <c r="B62" s="10" t="s">
         <v>121</v>
       </c>
@@ -6622,7 +6626,7 @@
       <c r="Z62" s="14"/>
     </row>
     <row r="63" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A63" s="52"/>
+      <c r="A63" s="43"/>
       <c r="B63" s="5" t="s">
         <v>122</v>
       </c>
@@ -6666,7 +6670,7 @@
       <c r="Z63" s="9"/>
     </row>
     <row r="64" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A64" s="51"/>
+      <c r="A64" s="42"/>
       <c r="B64" s="10" t="s">
         <v>123</v>
       </c>
@@ -6700,7 +6704,7 @@
       <c r="Z64" s="14"/>
     </row>
     <row r="65" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A65" s="52"/>
+      <c r="A65" s="43"/>
       <c r="B65" s="5" t="s">
         <v>124</v>
       </c>
@@ -6746,7 +6750,7 @@
       <c r="Z65" s="9"/>
     </row>
     <row r="66" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A66" s="51"/>
+      <c r="A66" s="42"/>
       <c r="B66" s="10" t="s">
         <v>125</v>
       </c>
@@ -6780,7 +6784,7 @@
       <c r="Z66" s="14"/>
     </row>
     <row r="67" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A67" s="52"/>
+      <c r="A67" s="43"/>
       <c r="B67" s="5" t="s">
         <v>126</v>
       </c>
@@ -6822,7 +6826,7 @@
       <c r="Z67" s="9"/>
     </row>
     <row r="68" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A68" s="51"/>
+      <c r="A68" s="42"/>
       <c r="B68" s="10" t="s">
         <v>127</v>
       </c>
@@ -6868,7 +6872,7 @@
       <c r="Z68" s="14"/>
     </row>
     <row r="69" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A69" s="52"/>
+      <c r="A69" s="43"/>
       <c r="B69" s="5" t="s">
         <v>128</v>
       </c>
@@ -6902,7 +6906,7 @@
       <c r="Z69" s="9"/>
     </row>
     <row r="70" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A70" s="51"/>
+      <c r="A70" s="42"/>
       <c r="B70" s="10" t="s">
         <v>129</v>
       </c>
@@ -6940,7 +6944,7 @@
       <c r="Z70" s="14"/>
     </row>
     <row r="71" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A71" s="52"/>
+      <c r="A71" s="43"/>
       <c r="B71" s="5" t="s">
         <v>130</v>
       </c>
@@ -6978,7 +6982,7 @@
       <c r="Z71" s="9"/>
     </row>
     <row r="72" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A72" s="51"/>
+      <c r="A72" s="42"/>
       <c r="B72" s="10" t="s">
         <v>131</v>
       </c>
@@ -7016,7 +7020,7 @@
       <c r="Z72" s="14"/>
     </row>
     <row r="73" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A73" s="52"/>
+      <c r="A73" s="43"/>
       <c r="B73" s="5" t="s">
         <v>132</v>
       </c>
@@ -7054,7 +7058,7 @@
       <c r="Z73" s="9"/>
     </row>
     <row r="74" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A74" s="51"/>
+      <c r="A74" s="42"/>
       <c r="B74" s="10" t="s">
         <v>133</v>
       </c>
@@ -7092,7 +7096,7 @@
       <c r="Z74" s="14"/>
     </row>
     <row r="75" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A75" s="52"/>
+      <c r="A75" s="43"/>
       <c r="B75" s="5" t="s">
         <v>134</v>
       </c>
@@ -7132,7 +7136,7 @@
       <c r="Z75" s="9"/>
     </row>
     <row r="76" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A76" s="51"/>
+      <c r="A76" s="42"/>
       <c r="B76" s="10" t="s">
         <v>135</v>
       </c>
@@ -7176,7 +7180,7 @@
       <c r="Z76" s="14"/>
     </row>
     <row r="77" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A77" s="52"/>
+      <c r="A77" s="43"/>
       <c r="B77" s="5" t="s">
         <v>136</v>
       </c>
@@ -7216,7 +7220,7 @@
       <c r="Z77" s="9"/>
     </row>
     <row r="78" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A78" s="51"/>
+      <c r="A78" s="42"/>
       <c r="B78" s="10" t="s">
         <v>137</v>
       </c>
@@ -7256,7 +7260,7 @@
       <c r="Z78" s="14"/>
     </row>
     <row r="79" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A79" s="52"/>
+      <c r="A79" s="43"/>
       <c r="B79" s="5" t="s">
         <v>138</v>
       </c>
@@ -7294,7 +7298,7 @@
       <c r="Z79" s="9"/>
     </row>
     <row r="80" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A80" s="51"/>
+      <c r="A80" s="42"/>
       <c r="B80" s="10" t="s">
         <v>139</v>
       </c>
@@ -7332,7 +7336,7 @@
       <c r="Z80" s="14"/>
     </row>
     <row r="81" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A81" s="53"/>
+      <c r="A81" s="41"/>
       <c r="B81" s="17" t="s">
         <v>140</v>
       </c>
@@ -7370,7 +7374,7 @@
       <c r="Z81" s="9"/>
     </row>
     <row r="82" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A82" s="49" t="s">
+      <c r="A82" s="40" t="s">
         <v>141</v>
       </c>
       <c r="B82" s="10" t="s">
@@ -7406,7 +7410,7 @@
       <c r="Z82" s="14"/>
     </row>
     <row r="83" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A83" s="52"/>
+      <c r="A83" s="43"/>
       <c r="B83" s="5" t="s">
         <v>143</v>
       </c>
@@ -7446,7 +7450,7 @@
       <c r="Z83" s="9"/>
     </row>
     <row r="84" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A84" s="50"/>
+      <c r="A84" s="44"/>
       <c r="B84" s="10" t="s">
         <v>144</v>
       </c>
@@ -7484,7 +7488,7 @@
       <c r="Z84" s="14"/>
     </row>
     <row r="85" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A85" s="49" t="s">
+      <c r="A85" s="40" t="s">
         <v>145</v>
       </c>
       <c r="B85" s="5" t="s">
@@ -7524,7 +7528,7 @@
       <c r="Z85" s="9"/>
     </row>
     <row r="86" spans="1:26" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="50"/>
+      <c r="A86" s="44"/>
       <c r="B86" s="10" t="s">
         <v>147</v>
       </c>
@@ -7564,7 +7568,7 @@
       <c r="Z86" s="14"/>
     </row>
     <row r="87" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A87" s="49" t="s">
+      <c r="A87" s="40" t="s">
         <v>148</v>
       </c>
       <c r="B87" s="5" t="s">
@@ -7622,7 +7626,7 @@
       <c r="Z87" s="9"/>
     </row>
     <row r="88" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A88" s="51"/>
+      <c r="A88" s="42"/>
       <c r="B88" s="10" t="s">
         <v>150</v>
       </c>
@@ -7660,7 +7664,7 @@
       <c r="Z88" s="14"/>
     </row>
     <row r="89" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A89" s="52"/>
+      <c r="A89" s="43"/>
       <c r="B89" s="5" t="s">
         <v>151</v>
       </c>
@@ -7694,7 +7698,7 @@
       <c r="Z89" s="9"/>
     </row>
     <row r="90" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A90" s="51"/>
+      <c r="A90" s="42"/>
       <c r="B90" s="10" t="s">
         <v>152</v>
       </c>
@@ -7750,7 +7754,7 @@
       <c r="Z90" s="14"/>
     </row>
     <row r="91" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A91" s="52"/>
+      <c r="A91" s="43"/>
       <c r="B91" s="5" t="s">
         <v>153</v>
       </c>
@@ -7806,7 +7810,7 @@
       <c r="Z91" s="9"/>
     </row>
     <row r="92" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A92" s="51"/>
+      <c r="A92" s="42"/>
       <c r="B92" s="10" t="s">
         <v>154</v>
       </c>
@@ -7844,7 +7848,7 @@
       <c r="Z92" s="14"/>
     </row>
     <row r="93" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A93" s="52"/>
+      <c r="A93" s="43"/>
       <c r="B93" s="5" t="s">
         <v>155</v>
       </c>
@@ -7882,7 +7886,7 @@
       <c r="Z93" s="9"/>
     </row>
     <row r="94" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A94" s="51"/>
+      <c r="A94" s="42"/>
       <c r="B94" s="10" t="s">
         <v>156</v>
       </c>
@@ -7920,7 +7924,7 @@
       <c r="Z94" s="14"/>
     </row>
     <row r="95" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A95" s="52"/>
+      <c r="A95" s="43"/>
       <c r="B95" s="5" t="s">
         <v>157</v>
       </c>
@@ -7966,7 +7970,7 @@
       <c r="Z95" s="9"/>
     </row>
     <row r="96" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A96" s="51"/>
+      <c r="A96" s="42"/>
       <c r="B96" s="10" t="s">
         <v>158</v>
       </c>
@@ -8024,7 +8028,7 @@
       <c r="Z96" s="14"/>
     </row>
     <row r="97" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A97" s="52"/>
+      <c r="A97" s="43"/>
       <c r="B97" s="5" t="s">
         <v>159</v>
       </c>
@@ -8080,7 +8084,7 @@
       <c r="Z97" s="9"/>
     </row>
     <row r="98" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A98" s="51"/>
+      <c r="A98" s="42"/>
       <c r="B98" s="10" t="s">
         <v>160</v>
       </c>
@@ -8118,7 +8122,7 @@
       <c r="Z98" s="14"/>
     </row>
     <row r="99" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A99" s="52"/>
+      <c r="A99" s="43"/>
       <c r="B99" s="5" t="s">
         <v>161</v>
       </c>
@@ -8158,7 +8162,7 @@
       <c r="Z99" s="9"/>
     </row>
     <row r="100" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A100" s="51"/>
+      <c r="A100" s="42"/>
       <c r="B100" s="10" t="s">
         <v>162</v>
       </c>
@@ -8198,7 +8202,7 @@
       <c r="Z100" s="14"/>
     </row>
     <row r="101" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A101" s="53"/>
+      <c r="A101" s="41"/>
       <c r="B101" s="5" t="s">
         <v>163</v>
       </c>
@@ -8236,7 +8240,7 @@
       <c r="Z101" s="9"/>
     </row>
     <row r="102" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A102" s="49" t="s">
+      <c r="A102" s="40" t="s">
         <v>164</v>
       </c>
       <c r="B102" s="10" t="s">
@@ -8270,7 +8274,7 @@
       <c r="Z102" s="14"/>
     </row>
     <row r="103" spans="1:26" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="53"/>
+      <c r="A103" s="41"/>
       <c r="B103" s="5" t="s">
         <v>166</v>
       </c>
@@ -27602,14 +27606,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="A9:A28"/>
-    <mergeCell ref="A29:A38"/>
-    <mergeCell ref="A40:A46"/>
-    <mergeCell ref="A47:A59"/>
-    <mergeCell ref="A60:A81"/>
-    <mergeCell ref="A82:A84"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="N1:Q1"/>
@@ -27619,6 +27615,14 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="A9:A28"/>
+    <mergeCell ref="A29:A38"/>
+    <mergeCell ref="A40:A46"/>
+    <mergeCell ref="A47:A59"/>
+    <mergeCell ref="A60:A81"/>
+    <mergeCell ref="A82:A84"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -27777,1869 +27781,2870 @@
   <dimension ref="A1:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="K37" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="M2" sqref="M1:M1048576"/>
+      <selection pane="bottomRight" activeCell="A44" sqref="A44:A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" style="41" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" style="39" customWidth="1"/>
     <col min="2" max="2" width="24.83203125" style="38" customWidth="1"/>
     <col min="3" max="16" width="30.83203125" style="35" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="51" t="s">
         <v>216</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="58" t="s">
+      <c r="B1" s="51"/>
+      <c r="C1" s="52" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58" t="s">
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52" t="s">
         <v>215</v>
       </c>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
     </row>
     <row r="2" spans="1:16" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="57"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="42" t="s">
+      <c r="A2" s="51"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="53" t="s">
         <v>202</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="53" t="s">
         <v>203</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="E2" s="53" t="s">
         <v>204</v>
       </c>
-      <c r="F2" s="42" t="s">
+      <c r="F2" s="53" t="s">
         <v>205</v>
       </c>
-      <c r="G2" s="42" t="s">
+      <c r="G2" s="53" t="s">
         <v>206</v>
       </c>
-      <c r="H2" s="42" t="s">
+      <c r="H2" s="53" t="s">
         <v>207</v>
       </c>
-      <c r="I2" s="42" t="s">
+      <c r="I2" s="53" t="s">
         <v>202</v>
       </c>
-      <c r="J2" s="42" t="s">
+      <c r="J2" s="53" t="s">
         <v>209</v>
       </c>
-      <c r="K2" s="42" t="s">
+      <c r="K2" s="53" t="s">
         <v>210</v>
       </c>
-      <c r="L2" s="42" t="s">
+      <c r="L2" s="53" t="s">
         <v>211</v>
       </c>
-      <c r="M2" s="42" t="s">
+      <c r="M2" s="53" t="s">
         <v>212</v>
       </c>
-      <c r="N2" s="42" t="s">
+      <c r="N2" s="53" t="s">
         <v>213</v>
       </c>
-      <c r="O2" s="42" t="s">
+      <c r="O2" s="53" t="s">
         <v>206</v>
       </c>
-      <c r="P2" s="42" t="s">
+      <c r="P2" s="53" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="54" t="s">
         <v>250</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="55" t="s">
         <v>251</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="56" t="s">
         <v>217</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="56" t="s">
         <v>218</v>
       </c>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="56" t="s">
         <v>219</v>
       </c>
-      <c r="F3" s="44" t="s">
+      <c r="F3" s="56" t="s">
         <v>220</v>
       </c>
-      <c r="G3" s="44" t="s">
+      <c r="G3" s="56" t="s">
         <v>221</v>
       </c>
-      <c r="H3" s="44" t="s">
+      <c r="H3" s="56" t="s">
         <v>222</v>
       </c>
-      <c r="I3" s="44" t="s">
+      <c r="I3" s="56" t="s">
         <v>223</v>
       </c>
-      <c r="J3" s="44" t="s">
+      <c r="J3" s="56" t="s">
         <v>224</v>
       </c>
-      <c r="K3" s="44" t="s">
+      <c r="K3" s="56" t="s">
         <v>225</v>
       </c>
-      <c r="L3" s="44" t="s">
+      <c r="L3" s="56" t="s">
         <v>226</v>
       </c>
-      <c r="M3" s="44" t="s">
+      <c r="M3" s="56" t="s">
         <v>227</v>
       </c>
-      <c r="N3" s="44" t="s">
+      <c r="N3" s="56" t="s">
         <v>228</v>
       </c>
-      <c r="O3" s="44" t="s">
+      <c r="O3" s="56" t="s">
         <v>229</v>
       </c>
-      <c r="P3" s="44" t="s">
+      <c r="P3" s="56" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="54" t="s">
         <v>208</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="57" t="s">
         <v>241</v>
       </c>
-      <c r="C4" s="36" t="s">
-        <v>28</v>
-      </c>
+      <c r="C4" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="59"/>
+      <c r="N4" s="59"/>
+      <c r="O4" s="59"/>
+      <c r="P4" s="59"/>
     </row>
     <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="60" t="s">
         <v>233</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="57" t="s">
         <v>237</v>
       </c>
-      <c r="C5" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="36" t="s">
-        <v>28</v>
-      </c>
+      <c r="C5" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="59"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="59"/>
+      <c r="L5" s="59"/>
+      <c r="M5" s="59"/>
+      <c r="N5" s="59"/>
+      <c r="O5" s="59"/>
+      <c r="P5" s="59"/>
     </row>
     <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="56"/>
-      <c r="B6" s="39" t="s">
+      <c r="A6" s="60"/>
+      <c r="B6" s="57" t="s">
         <v>244</v>
       </c>
-      <c r="C6" s="36" t="s">
-        <v>28</v>
-      </c>
+      <c r="C6" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="59"/>
+      <c r="K6" s="59"/>
+      <c r="L6" s="59"/>
+      <c r="M6" s="59"/>
+      <c r="N6" s="59"/>
+      <c r="O6" s="59"/>
+      <c r="P6" s="59"/>
     </row>
     <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="56" t="s">
+      <c r="A7" s="60" t="s">
         <v>239</v>
       </c>
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="57" t="s">
         <v>237</v>
       </c>
-      <c r="C7" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="36" t="s">
-        <v>28</v>
-      </c>
+      <c r="C7" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
+      <c r="K7" s="59"/>
+      <c r="L7" s="59"/>
+      <c r="M7" s="59"/>
+      <c r="N7" s="59"/>
+      <c r="O7" s="59"/>
+      <c r="P7" s="59"/>
     </row>
     <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="56"/>
-      <c r="B8" s="39" t="s">
+      <c r="A8" s="60"/>
+      <c r="B8" s="57" t="s">
         <v>240</v>
       </c>
-      <c r="C8" s="36" t="s">
-        <v>28</v>
-      </c>
+      <c r="C8" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="59"/>
+      <c r="J8" s="59"/>
+      <c r="K8" s="59"/>
+      <c r="L8" s="59"/>
+      <c r="M8" s="59"/>
+      <c r="N8" s="59"/>
+      <c r="O8" s="59"/>
+      <c r="P8" s="59"/>
     </row>
     <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="56"/>
-      <c r="B9" s="39" t="s">
+      <c r="A9" s="60"/>
+      <c r="B9" s="57" t="s">
         <v>238</v>
       </c>
-      <c r="C9" s="36" t="s">
-        <v>28</v>
-      </c>
+      <c r="C9" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="59"/>
+      <c r="L9" s="59"/>
+      <c r="M9" s="59"/>
+      <c r="N9" s="59"/>
+      <c r="O9" s="59"/>
+      <c r="P9" s="59"/>
     </row>
     <row r="10" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="56"/>
-      <c r="B10" s="39" t="s">
+      <c r="A10" s="60"/>
+      <c r="B10" s="57" t="s">
         <v>241</v>
       </c>
-      <c r="C10" s="36" t="s">
-        <v>28</v>
-      </c>
+      <c r="C10" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="59"/>
+      <c r="L10" s="59"/>
+      <c r="M10" s="59"/>
+      <c r="N10" s="59"/>
+      <c r="O10" s="59"/>
+      <c r="P10" s="59"/>
     </row>
     <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="56" t="s">
+      <c r="A11" s="60" t="s">
         <v>262</v>
       </c>
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="57" t="s">
         <v>237</v>
       </c>
-      <c r="C11" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" s="36" t="s">
-        <v>28</v>
-      </c>
+      <c r="C11" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="59"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="59"/>
+      <c r="M11" s="59"/>
+      <c r="N11" s="59"/>
+      <c r="O11" s="59"/>
+      <c r="P11" s="59"/>
     </row>
     <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="56"/>
-      <c r="B12" s="39" t="s">
+      <c r="A12" s="60"/>
+      <c r="B12" s="57" t="s">
         <v>240</v>
       </c>
-      <c r="C12" s="36" t="s">
-        <v>28</v>
-      </c>
+      <c r="C12" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="59"/>
+      <c r="K12" s="59"/>
+      <c r="L12" s="59"/>
+      <c r="M12" s="59"/>
+      <c r="N12" s="59"/>
+      <c r="O12" s="59"/>
+      <c r="P12" s="59"/>
     </row>
     <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="56"/>
-      <c r="B13" s="39" t="s">
+      <c r="A13" s="60"/>
+      <c r="B13" s="57" t="s">
         <v>238</v>
       </c>
-      <c r="C13" s="36" t="s">
-        <v>28</v>
-      </c>
+      <c r="C13" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="59"/>
+      <c r="O13" s="59"/>
+      <c r="P13" s="59"/>
     </row>
     <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="56"/>
-      <c r="B14" s="39" t="s">
+      <c r="A14" s="60"/>
+      <c r="B14" s="57" t="s">
         <v>241</v>
       </c>
-      <c r="C14" s="36" t="s">
-        <v>28</v>
-      </c>
+      <c r="C14" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="59"/>
+      <c r="L14" s="59"/>
+      <c r="M14" s="59"/>
+      <c r="N14" s="59"/>
+      <c r="O14" s="59"/>
+      <c r="P14" s="59"/>
     </row>
     <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="56" t="s">
+      <c r="A15" s="60" t="s">
         <v>263</v>
       </c>
-      <c r="B15" s="39" t="s">
+      <c r="B15" s="57" t="s">
         <v>237</v>
       </c>
-      <c r="C15" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="H15" s="36" t="s">
-        <v>28</v>
-      </c>
+      <c r="C15" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="59"/>
+      <c r="O15" s="59"/>
+      <c r="P15" s="59"/>
     </row>
     <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="56"/>
-      <c r="B16" s="39" t="s">
+      <c r="A16" s="60"/>
+      <c r="B16" s="57" t="s">
         <v>240</v>
       </c>
-      <c r="C16" s="36" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="56"/>
-      <c r="B17" s="39" t="s">
+      <c r="C16" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="59"/>
+      <c r="K16" s="59"/>
+      <c r="L16" s="59"/>
+      <c r="M16" s="59"/>
+      <c r="N16" s="59"/>
+      <c r="O16" s="59"/>
+      <c r="P16" s="59"/>
+    </row>
+    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="60"/>
+      <c r="B17" s="57" t="s">
         <v>265</v>
       </c>
-      <c r="C17" s="36" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="56"/>
-      <c r="B18" s="39" t="s">
+      <c r="C17" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="59"/>
+      <c r="O17" s="59"/>
+      <c r="P17" s="59"/>
+    </row>
+    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="60"/>
+      <c r="B18" s="57" t="s">
         <v>241</v>
       </c>
-      <c r="C18" s="36" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="56" t="s">
+      <c r="C18" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="59"/>
+      <c r="K18" s="59"/>
+      <c r="L18" s="59"/>
+      <c r="M18" s="59"/>
+      <c r="N18" s="59"/>
+      <c r="O18" s="59"/>
+      <c r="P18" s="59"/>
+    </row>
+    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="60" t="s">
         <v>267</v>
       </c>
-      <c r="B19" s="39" t="s">
+      <c r="B19" s="57" t="s">
         <v>268</v>
       </c>
-      <c r="C19" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="G19" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="I19" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="J19" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="L19" s="59" t="s">
-        <v>28</v>
-      </c>
-      <c r="O19" s="36" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="56"/>
-      <c r="B20" s="39" t="s">
+      <c r="C19" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="H19" s="59"/>
+      <c r="I19" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="J19" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="K19" s="59"/>
+      <c r="L19" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="M19" s="59"/>
+      <c r="N19" s="59"/>
+      <c r="O19" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="P19" s="59"/>
+    </row>
+    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="60"/>
+      <c r="B20" s="57" t="s">
         <v>234</v>
       </c>
-      <c r="C20" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="I20" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="J20" s="36" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="56"/>
-      <c r="B21" s="39" t="s">
+      <c r="C20" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="J20" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="K20" s="59"/>
+      <c r="L20" s="59"/>
+      <c r="M20" s="59"/>
+      <c r="N20" s="59"/>
+      <c r="O20" s="59"/>
+      <c r="P20" s="59"/>
+    </row>
+    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="60"/>
+      <c r="B21" s="57" t="s">
         <v>235</v>
       </c>
-      <c r="C21" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="I21" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="J21" s="36" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="56"/>
-      <c r="B22" s="39" t="s">
+      <c r="C21" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="59"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="59"/>
+      <c r="H21" s="59"/>
+      <c r="I21" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="J21" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="K21" s="59"/>
+      <c r="L21" s="59"/>
+      <c r="M21" s="59"/>
+      <c r="N21" s="59"/>
+      <c r="O21" s="59"/>
+      <c r="P21" s="59"/>
+    </row>
+    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="60"/>
+      <c r="B22" s="57" t="s">
         <v>236</v>
       </c>
-      <c r="C22" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="I22" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="J22" s="36" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="56"/>
-      <c r="B23" s="39" t="s">
+      <c r="C22" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="59"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="59"/>
+      <c r="H22" s="59"/>
+      <c r="I22" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="J22" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="K22" s="59"/>
+      <c r="L22" s="59"/>
+      <c r="M22" s="59"/>
+      <c r="N22" s="59"/>
+      <c r="O22" s="59"/>
+      <c r="P22" s="59"/>
+    </row>
+    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="60"/>
+      <c r="B23" s="57" t="s">
         <v>269</v>
       </c>
-      <c r="C23" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="I23" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="J23" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="L23" s="59" t="s">
-        <v>28</v>
-      </c>
-      <c r="O23" s="36" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="56"/>
-      <c r="B24" s="39" t="s">
+      <c r="C23" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="59"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="J23" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="K23" s="59"/>
+      <c r="L23" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="M23" s="59"/>
+      <c r="N23" s="59"/>
+      <c r="O23" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="P23" s="59"/>
+    </row>
+    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="60"/>
+      <c r="B24" s="57" t="s">
         <v>270</v>
       </c>
-      <c r="C24" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="I24" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="J24" s="36" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="56"/>
-      <c r="B25" s="39" t="s">
+      <c r="C24" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="59"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="J24" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="K24" s="59"/>
+      <c r="L24" s="59"/>
+      <c r="M24" s="59"/>
+      <c r="N24" s="59"/>
+      <c r="O24" s="59"/>
+      <c r="P24" s="59"/>
+    </row>
+    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="60"/>
+      <c r="B25" s="57" t="s">
         <v>271</v>
       </c>
-      <c r="C25" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="I25" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="J25" s="36" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="56"/>
-      <c r="B26" s="39" t="s">
+      <c r="C25" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="59"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="59"/>
+      <c r="I25" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="J25" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="K25" s="59"/>
+      <c r="L25" s="59"/>
+      <c r="M25" s="59"/>
+      <c r="N25" s="59"/>
+      <c r="O25" s="59"/>
+      <c r="P25" s="59"/>
+    </row>
+    <row r="26" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="60"/>
+      <c r="B26" s="57" t="s">
         <v>272</v>
       </c>
-      <c r="C26" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="I26" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="J26" s="36" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="56"/>
-      <c r="B27" s="39" t="s">
+      <c r="C26" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="59"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="59"/>
+      <c r="I26" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="J26" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="K26" s="59"/>
+      <c r="L26" s="59"/>
+      <c r="M26" s="59"/>
+      <c r="N26" s="59"/>
+      <c r="O26" s="59"/>
+      <c r="P26" s="59"/>
+    </row>
+    <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="60"/>
+      <c r="B27" s="57" t="s">
         <v>273</v>
       </c>
-      <c r="C27" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="I27" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="J27" s="36" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="56" t="s">
+      <c r="C27" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="59"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="59"/>
+      <c r="I27" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="J27" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="K27" s="59"/>
+      <c r="L27" s="59"/>
+      <c r="M27" s="59"/>
+      <c r="N27" s="59"/>
+      <c r="O27" s="59"/>
+      <c r="P27" s="59"/>
+    </row>
+    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="60" t="s">
         <v>231</v>
       </c>
-      <c r="B28" s="39" t="s">
+      <c r="B28" s="57" t="s">
         <v>237</v>
       </c>
-      <c r="C28" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="G28" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="I28" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="J28" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="L28" s="59" t="s">
-        <v>28</v>
-      </c>
-      <c r="O28" s="36" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="56"/>
-      <c r="B29" s="39" t="s">
+      <c r="C28" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="59"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="H28" s="59"/>
+      <c r="I28" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="J28" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="K28" s="59"/>
+      <c r="L28" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="M28" s="59"/>
+      <c r="N28" s="59"/>
+      <c r="O28" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="P28" s="59"/>
+    </row>
+    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="60"/>
+      <c r="B29" s="57" t="s">
         <v>240</v>
       </c>
-      <c r="C29" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="I29" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="J29" s="36" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="56"/>
-      <c r="B30" s="39" t="s">
+      <c r="C29" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="59"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="59"/>
+      <c r="G29" s="59"/>
+      <c r="H29" s="59"/>
+      <c r="I29" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="J29" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="K29" s="59"/>
+      <c r="L29" s="59"/>
+      <c r="M29" s="59"/>
+      <c r="N29" s="59"/>
+      <c r="O29" s="59"/>
+      <c r="P29" s="59"/>
+    </row>
+    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="60"/>
+      <c r="B30" s="57" t="s">
         <v>248</v>
       </c>
-      <c r="C30" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="I30" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="J30" s="36" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="56"/>
-      <c r="B31" s="39" t="s">
+      <c r="C30" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" s="59"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="59"/>
+      <c r="H30" s="59"/>
+      <c r="I30" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="J30" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="K30" s="59"/>
+      <c r="L30" s="59"/>
+      <c r="M30" s="59"/>
+      <c r="N30" s="59"/>
+      <c r="O30" s="59"/>
+      <c r="P30" s="59"/>
+    </row>
+    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="60"/>
+      <c r="B31" s="57" t="s">
         <v>241</v>
       </c>
-      <c r="C31" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="D31" s="36"/>
-      <c r="I31" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="J31" s="36" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="56" t="s">
+      <c r="C31" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D31" s="58"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="59"/>
+      <c r="H31" s="59"/>
+      <c r="I31" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="J31" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="K31" s="59"/>
+      <c r="L31" s="59"/>
+      <c r="M31" s="59"/>
+      <c r="N31" s="59"/>
+      <c r="O31" s="59"/>
+      <c r="P31" s="59"/>
+    </row>
+    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="60" t="s">
         <v>243</v>
       </c>
-      <c r="B32" s="39" t="s">
+      <c r="B32" s="57" t="s">
         <v>237</v>
       </c>
-      <c r="C32" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="E32" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="F32" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="G32" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="O32" s="36"/>
-    </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="56"/>
-      <c r="B33" s="39" t="s">
+      <c r="C32" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" s="59"/>
+      <c r="E32" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="F32" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="G32" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="H32" s="59"/>
+      <c r="I32" s="59"/>
+      <c r="J32" s="59"/>
+      <c r="K32" s="59"/>
+      <c r="L32" s="59"/>
+      <c r="M32" s="59"/>
+      <c r="N32" s="59"/>
+      <c r="O32" s="58"/>
+      <c r="P32" s="59"/>
+    </row>
+    <row r="33" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="60"/>
+      <c r="B33" s="57" t="s">
         <v>244</v>
       </c>
-      <c r="C33" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="E33" s="36" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="56" t="s">
+      <c r="C33" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" s="59"/>
+      <c r="E33" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="F33" s="59"/>
+      <c r="G33" s="59"/>
+      <c r="H33" s="59"/>
+      <c r="I33" s="59"/>
+      <c r="J33" s="59"/>
+      <c r="K33" s="59"/>
+      <c r="L33" s="59"/>
+      <c r="M33" s="59"/>
+      <c r="N33" s="59"/>
+      <c r="O33" s="59"/>
+      <c r="P33" s="59"/>
+    </row>
+    <row r="34" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="60" t="s">
         <v>232</v>
       </c>
-      <c r="B34" s="39" t="s">
+      <c r="B34" s="57" t="s">
         <v>237</v>
       </c>
-      <c r="C34" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="E34" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="F34" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="G34" s="36" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="56"/>
-      <c r="B35" s="39" t="s">
+      <c r="C34" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D34" s="59"/>
+      <c r="E34" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="F34" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="G34" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="H34" s="59"/>
+      <c r="I34" s="59"/>
+      <c r="J34" s="59"/>
+      <c r="K34" s="59"/>
+      <c r="L34" s="59"/>
+      <c r="M34" s="59"/>
+      <c r="N34" s="59"/>
+      <c r="O34" s="59"/>
+      <c r="P34" s="59"/>
+    </row>
+    <row r="35" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="60"/>
+      <c r="B35" s="57" t="s">
         <v>242</v>
       </c>
-      <c r="C35" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="E35" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="G35" s="36" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="56"/>
-      <c r="B36" s="39" t="s">
+      <c r="C35" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D35" s="59"/>
+      <c r="E35" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="F35" s="59"/>
+      <c r="G35" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="H35" s="59"/>
+      <c r="I35" s="59"/>
+      <c r="J35" s="59"/>
+      <c r="K35" s="59"/>
+      <c r="L35" s="59"/>
+      <c r="M35" s="59"/>
+      <c r="N35" s="59"/>
+      <c r="O35" s="59"/>
+      <c r="P35" s="59"/>
+    </row>
+    <row r="36" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="60"/>
+      <c r="B36" s="57" t="s">
         <v>245</v>
       </c>
-      <c r="C36" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="E36" s="36" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="56"/>
-      <c r="B37" s="39" t="s">
+      <c r="C36" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D36" s="59"/>
+      <c r="E36" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="F36" s="59"/>
+      <c r="G36" s="59"/>
+      <c r="H36" s="59"/>
+      <c r="I36" s="59"/>
+      <c r="J36" s="59"/>
+      <c r="K36" s="59"/>
+      <c r="L36" s="59"/>
+      <c r="M36" s="59"/>
+      <c r="N36" s="59"/>
+      <c r="O36" s="59"/>
+      <c r="P36" s="59"/>
+    </row>
+    <row r="37" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="60"/>
+      <c r="B37" s="57" t="s">
         <v>241</v>
       </c>
-      <c r="C37" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="E37" s="36" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="56"/>
-      <c r="B38" s="39" t="s">
+      <c r="C37" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" s="59"/>
+      <c r="E37" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="F37" s="59"/>
+      <c r="G37" s="59"/>
+      <c r="H37" s="59"/>
+      <c r="I37" s="59"/>
+      <c r="J37" s="59"/>
+      <c r="K37" s="59"/>
+      <c r="L37" s="59"/>
+      <c r="M37" s="59"/>
+      <c r="N37" s="59"/>
+      <c r="O37" s="59"/>
+      <c r="P37" s="59"/>
+    </row>
+    <row r="38" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="60"/>
+      <c r="B38" s="57" t="s">
         <v>246</v>
       </c>
-      <c r="C38" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="E38" s="36" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="56"/>
-      <c r="B39" s="39" t="s">
+      <c r="C38" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D38" s="59"/>
+      <c r="E38" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="F38" s="59"/>
+      <c r="G38" s="59"/>
+      <c r="H38" s="59"/>
+      <c r="I38" s="59"/>
+      <c r="J38" s="59"/>
+      <c r="K38" s="59"/>
+      <c r="L38" s="59"/>
+      <c r="M38" s="59"/>
+      <c r="N38" s="59"/>
+      <c r="O38" s="59"/>
+      <c r="P38" s="59"/>
+    </row>
+    <row r="39" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="60"/>
+      <c r="B39" s="57" t="s">
         <v>247</v>
       </c>
-      <c r="C39" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="E39" s="36" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="56" t="s">
+      <c r="C39" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D39" s="59"/>
+      <c r="E39" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="F39" s="59"/>
+      <c r="G39" s="59"/>
+      <c r="H39" s="59"/>
+      <c r="I39" s="59"/>
+      <c r="J39" s="59"/>
+      <c r="K39" s="59"/>
+      <c r="L39" s="59"/>
+      <c r="M39" s="59"/>
+      <c r="N39" s="59"/>
+      <c r="O39" s="59"/>
+      <c r="P39" s="59"/>
+    </row>
+    <row r="40" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="60" t="s">
         <v>215</v>
       </c>
-      <c r="B40" s="39" t="s">
+      <c r="B40" s="57" t="s">
         <v>249</v>
       </c>
-      <c r="C40" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="G40" s="36" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="56"/>
-      <c r="B41" s="39" t="s">
+      <c r="C40" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D40" s="59"/>
+      <c r="E40" s="59"/>
+      <c r="F40" s="59"/>
+      <c r="G40" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="H40" s="59"/>
+      <c r="I40" s="59"/>
+      <c r="J40" s="59"/>
+      <c r="K40" s="59"/>
+      <c r="L40" s="59"/>
+      <c r="M40" s="59"/>
+      <c r="N40" s="59"/>
+      <c r="O40" s="59"/>
+      <c r="P40" s="59"/>
+    </row>
+    <row r="41" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="60"/>
+      <c r="B41" s="57" t="s">
         <v>237</v>
       </c>
-      <c r="C41" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="G41" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="L41" s="59" t="s">
-        <v>28</v>
-      </c>
-      <c r="O41" s="36" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="56"/>
-      <c r="B42" s="39" t="s">
+      <c r="C41" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D41" s="59"/>
+      <c r="E41" s="59"/>
+      <c r="F41" s="59"/>
+      <c r="G41" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="H41" s="59"/>
+      <c r="I41" s="59"/>
+      <c r="J41" s="59"/>
+      <c r="K41" s="59"/>
+      <c r="L41" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="M41" s="59"/>
+      <c r="N41" s="59"/>
+      <c r="O41" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="P41" s="59"/>
+    </row>
+    <row r="42" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="60"/>
+      <c r="B42" s="57" t="s">
         <v>242</v>
       </c>
-      <c r="C42" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="D42" s="36" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="56"/>
-      <c r="B43" s="39" t="s">
+      <c r="C42" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D42" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="E42" s="59"/>
+      <c r="F42" s="59"/>
+      <c r="G42" s="59"/>
+      <c r="H42" s="59"/>
+      <c r="I42" s="59"/>
+      <c r="J42" s="59"/>
+      <c r="K42" s="59"/>
+      <c r="L42" s="59"/>
+      <c r="M42" s="59"/>
+      <c r="N42" s="59"/>
+      <c r="O42" s="59"/>
+      <c r="P42" s="59"/>
+    </row>
+    <row r="43" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="60"/>
+      <c r="B43" s="57" t="s">
         <v>241</v>
       </c>
-      <c r="C43" s="36" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="56" t="s">
+      <c r="C43" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D43" s="59"/>
+      <c r="E43" s="59"/>
+      <c r="F43" s="59"/>
+      <c r="G43" s="59"/>
+      <c r="H43" s="59"/>
+      <c r="I43" s="59"/>
+      <c r="J43" s="59"/>
+      <c r="K43" s="59"/>
+      <c r="L43" s="59"/>
+      <c r="M43" s="59"/>
+      <c r="N43" s="59"/>
+      <c r="O43" s="59"/>
+      <c r="P43" s="59"/>
+    </row>
+    <row r="44" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="60" t="s">
         <v>254</v>
       </c>
-      <c r="B44" s="39" t="s">
+      <c r="B44" s="57" t="s">
         <v>237</v>
       </c>
-      <c r="C44" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="I44" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="J44" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="L44" s="59" t="s">
-        <v>28</v>
-      </c>
-      <c r="O44" s="36" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="56"/>
-      <c r="B45" s="39" t="s">
+      <c r="C44" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D44" s="59"/>
+      <c r="E44" s="59"/>
+      <c r="F44" s="59"/>
+      <c r="G44" s="59"/>
+      <c r="H44" s="59"/>
+      <c r="I44" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="J44" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="K44" s="59"/>
+      <c r="L44" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="M44" s="59"/>
+      <c r="N44" s="59"/>
+      <c r="O44" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="P44" s="59"/>
+    </row>
+    <row r="45" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="60"/>
+      <c r="B45" s="57" t="s">
         <v>234</v>
       </c>
-      <c r="C45" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="I45" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="J45" s="36" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="56"/>
-      <c r="B46" s="39" t="s">
+      <c r="C45" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D45" s="59"/>
+      <c r="E45" s="59"/>
+      <c r="F45" s="59"/>
+      <c r="G45" s="59"/>
+      <c r="H45" s="59"/>
+      <c r="I45" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="J45" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="K45" s="59"/>
+      <c r="L45" s="59"/>
+      <c r="M45" s="59"/>
+      <c r="N45" s="59"/>
+      <c r="O45" s="59"/>
+      <c r="P45" s="59"/>
+    </row>
+    <row r="46" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="60"/>
+      <c r="B46" s="57" t="s">
         <v>235</v>
       </c>
-      <c r="C46" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="I46" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="J46" s="36" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="56"/>
-      <c r="B47" s="39" t="s">
+      <c r="C46" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D46" s="59"/>
+      <c r="E46" s="59"/>
+      <c r="F46" s="59"/>
+      <c r="G46" s="59"/>
+      <c r="H46" s="59"/>
+      <c r="I46" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="J46" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="K46" s="59"/>
+      <c r="L46" s="59"/>
+      <c r="M46" s="59"/>
+      <c r="N46" s="59"/>
+      <c r="O46" s="59"/>
+      <c r="P46" s="59"/>
+    </row>
+    <row r="47" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="60"/>
+      <c r="B47" s="57" t="s">
         <v>236</v>
       </c>
-      <c r="C47" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="I47" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="J47" s="36" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="56"/>
-      <c r="B48" s="39" t="s">
+      <c r="C47" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D47" s="59"/>
+      <c r="E47" s="59"/>
+      <c r="F47" s="59"/>
+      <c r="G47" s="59"/>
+      <c r="H47" s="59"/>
+      <c r="I47" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="J47" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="K47" s="59"/>
+      <c r="L47" s="59"/>
+      <c r="M47" s="59"/>
+      <c r="N47" s="59"/>
+      <c r="O47" s="59"/>
+      <c r="P47" s="59"/>
+    </row>
+    <row r="48" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="60"/>
+      <c r="B48" s="57" t="s">
         <v>255</v>
       </c>
-      <c r="C48" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="I48" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="J48" s="36" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="56"/>
-      <c r="B49" s="39" t="s">
+      <c r="C48" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D48" s="59"/>
+      <c r="E48" s="59"/>
+      <c r="F48" s="59"/>
+      <c r="G48" s="59"/>
+      <c r="H48" s="59"/>
+      <c r="I48" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="J48" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="K48" s="59"/>
+      <c r="L48" s="59"/>
+      <c r="M48" s="59"/>
+      <c r="N48" s="59"/>
+      <c r="O48" s="59"/>
+      <c r="P48" s="59"/>
+    </row>
+    <row r="49" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="60"/>
+      <c r="B49" s="57" t="s">
         <v>264</v>
       </c>
-      <c r="C49" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="I49" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="J49" s="36" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="56"/>
-      <c r="B50" s="39" t="s">
+      <c r="C49" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D49" s="59"/>
+      <c r="E49" s="59"/>
+      <c r="F49" s="59"/>
+      <c r="G49" s="59"/>
+      <c r="H49" s="59"/>
+      <c r="I49" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="J49" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="K49" s="59"/>
+      <c r="L49" s="59"/>
+      <c r="M49" s="59"/>
+      <c r="N49" s="59"/>
+      <c r="O49" s="59"/>
+      <c r="P49" s="59"/>
+    </row>
+    <row r="50" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="60"/>
+      <c r="B50" s="57" t="s">
         <v>266</v>
       </c>
-      <c r="C50" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="I50" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="J50" s="36" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="56"/>
-      <c r="B51" s="39" t="s">
+      <c r="C50" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D50" s="59"/>
+      <c r="E50" s="59"/>
+      <c r="F50" s="59"/>
+      <c r="G50" s="59"/>
+      <c r="H50" s="59"/>
+      <c r="I50" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="J50" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="K50" s="59"/>
+      <c r="L50" s="59"/>
+      <c r="M50" s="59"/>
+      <c r="N50" s="59"/>
+      <c r="O50" s="59"/>
+      <c r="P50" s="59"/>
+    </row>
+    <row r="51" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="60"/>
+      <c r="B51" s="57" t="s">
         <v>256</v>
       </c>
-      <c r="C51" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="I51" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="J51" s="36" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="56"/>
-      <c r="B52" s="39" t="s">
+      <c r="C51" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D51" s="59"/>
+      <c r="E51" s="59"/>
+      <c r="F51" s="59"/>
+      <c r="G51" s="59"/>
+      <c r="H51" s="59"/>
+      <c r="I51" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="J51" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="K51" s="59"/>
+      <c r="L51" s="59"/>
+      <c r="M51" s="59"/>
+      <c r="N51" s="59"/>
+      <c r="O51" s="59"/>
+      <c r="P51" s="59"/>
+    </row>
+    <row r="52" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="60"/>
+      <c r="B52" s="57" t="s">
         <v>257</v>
       </c>
-      <c r="C52" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="I52" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="J52" s="36" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="56"/>
-      <c r="B53" s="39" t="s">
+      <c r="C52" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D52" s="59"/>
+      <c r="E52" s="59"/>
+      <c r="F52" s="59"/>
+      <c r="G52" s="59"/>
+      <c r="H52" s="59"/>
+      <c r="I52" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="J52" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="K52" s="59"/>
+      <c r="L52" s="59"/>
+      <c r="M52" s="59"/>
+      <c r="N52" s="59"/>
+      <c r="O52" s="59"/>
+      <c r="P52" s="59"/>
+    </row>
+    <row r="53" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="60"/>
+      <c r="B53" s="57" t="s">
         <v>258</v>
       </c>
-      <c r="C53" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="I53" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="J53" s="36" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="56" t="s">
+      <c r="C53" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D53" s="59"/>
+      <c r="E53" s="59"/>
+      <c r="F53" s="59"/>
+      <c r="G53" s="59"/>
+      <c r="H53" s="59"/>
+      <c r="I53" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="J53" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="K53" s="59"/>
+      <c r="L53" s="59"/>
+      <c r="M53" s="59"/>
+      <c r="N53" s="59"/>
+      <c r="O53" s="59"/>
+      <c r="P53" s="59"/>
+    </row>
+    <row r="54" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="60" t="s">
         <v>259</v>
       </c>
-      <c r="B54" s="39" t="s">
+      <c r="B54" s="57" t="s">
         <v>237</v>
       </c>
-      <c r="C54" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="I54" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="J54" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="L54" s="59" t="s">
-        <v>28</v>
-      </c>
-      <c r="O54" s="36" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="56"/>
-      <c r="B55" s="39" t="s">
+      <c r="C54" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D54" s="59"/>
+      <c r="E54" s="59"/>
+      <c r="F54" s="59"/>
+      <c r="G54" s="59"/>
+      <c r="H54" s="59"/>
+      <c r="I54" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="J54" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="K54" s="59"/>
+      <c r="L54" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="M54" s="59"/>
+      <c r="N54" s="59"/>
+      <c r="O54" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="P54" s="59"/>
+    </row>
+    <row r="55" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="60"/>
+      <c r="B55" s="57" t="s">
         <v>260</v>
       </c>
-      <c r="C55" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="I55" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="J55" s="36" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="56" t="s">
+      <c r="C55" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D55" s="59"/>
+      <c r="E55" s="59"/>
+      <c r="F55" s="59"/>
+      <c r="G55" s="59"/>
+      <c r="H55" s="59"/>
+      <c r="I55" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="J55" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="K55" s="59"/>
+      <c r="L55" s="59"/>
+      <c r="M55" s="59"/>
+      <c r="N55" s="59"/>
+      <c r="O55" s="59"/>
+      <c r="P55" s="59"/>
+    </row>
+    <row r="56" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="60" t="s">
         <v>253</v>
       </c>
-      <c r="B56" s="39" t="s">
+      <c r="B56" s="57" t="s">
         <v>237</v>
       </c>
-      <c r="C56" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="I56" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="J56" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="K56" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="L56" s="59" t="s">
-        <v>28</v>
-      </c>
-      <c r="O56" s="36" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="56"/>
-      <c r="B57" s="39" t="s">
+      <c r="C56" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D56" s="59"/>
+      <c r="E56" s="59"/>
+      <c r="F56" s="59"/>
+      <c r="G56" s="59"/>
+      <c r="H56" s="59"/>
+      <c r="I56" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="J56" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="K56" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="L56" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="M56" s="59"/>
+      <c r="N56" s="59"/>
+      <c r="O56" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="P56" s="59"/>
+    </row>
+    <row r="57" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="60"/>
+      <c r="B57" s="57" t="s">
         <v>242</v>
       </c>
-      <c r="C57" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="I57" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="J57" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="K57" s="36"/>
-    </row>
-    <row r="58" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="56"/>
-      <c r="B58" s="39" t="s">
+      <c r="C57" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D57" s="59"/>
+      <c r="E57" s="59"/>
+      <c r="F57" s="59"/>
+      <c r="G57" s="59"/>
+      <c r="H57" s="59"/>
+      <c r="I57" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="J57" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="K57" s="58"/>
+      <c r="L57" s="59"/>
+      <c r="M57" s="59"/>
+      <c r="N57" s="59"/>
+      <c r="O57" s="59"/>
+      <c r="P57" s="59"/>
+    </row>
+    <row r="58" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="60"/>
+      <c r="B58" s="57" t="s">
         <v>245</v>
       </c>
-      <c r="C58" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="I58" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="J58" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="K58" s="36" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="56"/>
-      <c r="B59" s="39" t="s">
+      <c r="C58" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D58" s="59"/>
+      <c r="E58" s="59"/>
+      <c r="F58" s="59"/>
+      <c r="G58" s="59"/>
+      <c r="H58" s="59"/>
+      <c r="I58" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="J58" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="K58" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="L58" s="59"/>
+      <c r="M58" s="59"/>
+      <c r="N58" s="59"/>
+      <c r="O58" s="59"/>
+      <c r="P58" s="59"/>
+    </row>
+    <row r="59" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="60"/>
+      <c r="B59" s="57" t="s">
         <v>294</v>
       </c>
-      <c r="C59" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="I59" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="J59" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="K59" s="36" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="56"/>
-      <c r="B60" s="39" t="s">
+      <c r="C59" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D59" s="59"/>
+      <c r="E59" s="59"/>
+      <c r="F59" s="59"/>
+      <c r="G59" s="59"/>
+      <c r="H59" s="59"/>
+      <c r="I59" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="J59" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="K59" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="L59" s="59"/>
+      <c r="M59" s="59"/>
+      <c r="N59" s="59"/>
+      <c r="O59" s="59"/>
+      <c r="P59" s="59"/>
+    </row>
+    <row r="60" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="60"/>
+      <c r="B60" s="57" t="s">
         <v>252</v>
       </c>
-      <c r="C60" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="I60" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="J60" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="K60" s="36" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="56"/>
-      <c r="B61" s="39" t="s">
+      <c r="C60" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D60" s="59"/>
+      <c r="E60" s="59"/>
+      <c r="F60" s="59"/>
+      <c r="G60" s="59"/>
+      <c r="H60" s="59"/>
+      <c r="I60" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="J60" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="K60" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="L60" s="59"/>
+      <c r="M60" s="59"/>
+      <c r="N60" s="59"/>
+      <c r="O60" s="59"/>
+      <c r="P60" s="59"/>
+    </row>
+    <row r="61" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="60"/>
+      <c r="B61" s="57" t="s">
         <v>295</v>
       </c>
-      <c r="C61" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="I61" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="J61" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="K61" s="36" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="56" t="s">
+      <c r="C61" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D61" s="59"/>
+      <c r="E61" s="59"/>
+      <c r="F61" s="59"/>
+      <c r="G61" s="59"/>
+      <c r="H61" s="59"/>
+      <c r="I61" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="J61" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="K61" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="L61" s="59"/>
+      <c r="M61" s="59"/>
+      <c r="N61" s="59"/>
+      <c r="O61" s="59"/>
+      <c r="P61" s="59"/>
+    </row>
+    <row r="62" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="60" t="s">
         <v>261</v>
       </c>
-      <c r="B62" s="39" t="s">
+      <c r="B62" s="57" t="s">
         <v>237</v>
       </c>
-      <c r="C62" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="I62" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="J62" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="K62" s="36"/>
-      <c r="L62" s="59" t="s">
-        <v>28</v>
-      </c>
-      <c r="O62" s="36" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="56"/>
-      <c r="B63" s="39" t="s">
+      <c r="C62" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D62" s="59"/>
+      <c r="E62" s="59"/>
+      <c r="F62" s="59"/>
+      <c r="G62" s="59"/>
+      <c r="H62" s="59"/>
+      <c r="I62" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="J62" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="K62" s="58"/>
+      <c r="L62" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="M62" s="59"/>
+      <c r="N62" s="59"/>
+      <c r="O62" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="P62" s="59"/>
+    </row>
+    <row r="63" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="60"/>
+      <c r="B63" s="57" t="s">
         <v>260</v>
       </c>
-      <c r="C63" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="I63" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="J63" s="36" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="56" t="s">
+      <c r="C63" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D63" s="59"/>
+      <c r="E63" s="59"/>
+      <c r="F63" s="59"/>
+      <c r="G63" s="59"/>
+      <c r="H63" s="59"/>
+      <c r="I63" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="J63" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="K63" s="59"/>
+      <c r="L63" s="59"/>
+      <c r="M63" s="59"/>
+      <c r="N63" s="59"/>
+      <c r="O63" s="59"/>
+      <c r="P63" s="59"/>
+    </row>
+    <row r="64" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="60" t="s">
         <v>274</v>
       </c>
-      <c r="B64" s="39" t="s">
+      <c r="B64" s="57" t="s">
         <v>237</v>
       </c>
-      <c r="C64" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="I64" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="J64" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="L64" s="59" t="s">
-        <v>28</v>
-      </c>
-      <c r="O64" s="36" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="56"/>
-      <c r="B65" s="39" t="s">
+      <c r="C64" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D64" s="59"/>
+      <c r="E64" s="59"/>
+      <c r="F64" s="59"/>
+      <c r="G64" s="59"/>
+      <c r="H64" s="59"/>
+      <c r="I64" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="J64" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="K64" s="59"/>
+      <c r="L64" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="M64" s="59"/>
+      <c r="N64" s="59"/>
+      <c r="O64" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="P64" s="59"/>
+    </row>
+    <row r="65" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="60"/>
+      <c r="B65" s="57" t="s">
         <v>278</v>
       </c>
-      <c r="C65" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="I65" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="J65" s="36" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="56"/>
-      <c r="B66" s="39" t="s">
+      <c r="C65" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D65" s="59"/>
+      <c r="E65" s="59"/>
+      <c r="F65" s="59"/>
+      <c r="G65" s="59"/>
+      <c r="H65" s="59"/>
+      <c r="I65" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="J65" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="K65" s="59"/>
+      <c r="L65" s="59"/>
+      <c r="M65" s="59"/>
+      <c r="N65" s="59"/>
+      <c r="O65" s="59"/>
+      <c r="P65" s="59"/>
+    </row>
+    <row r="66" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="60"/>
+      <c r="B66" s="57" t="s">
         <v>279</v>
       </c>
-      <c r="C66" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="I66" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="J66" s="36" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="56" t="s">
+      <c r="C66" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D66" s="59"/>
+      <c r="E66" s="59"/>
+      <c r="F66" s="59"/>
+      <c r="G66" s="59"/>
+      <c r="H66" s="59"/>
+      <c r="I66" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="J66" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="K66" s="59"/>
+      <c r="L66" s="59"/>
+      <c r="M66" s="59"/>
+      <c r="N66" s="59"/>
+      <c r="O66" s="59"/>
+      <c r="P66" s="59"/>
+    </row>
+    <row r="67" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="60" t="s">
         <v>277</v>
       </c>
-      <c r="B67" s="39" t="s">
+      <c r="B67" s="57" t="s">
         <v>275</v>
       </c>
-      <c r="C67" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="I67" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="J67" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="K67" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="L67" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="M67" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="N67" s="36" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="56"/>
-      <c r="B68" s="39" t="s">
+      <c r="C67" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D67" s="59"/>
+      <c r="E67" s="59"/>
+      <c r="F67" s="59"/>
+      <c r="G67" s="59"/>
+      <c r="H67" s="59"/>
+      <c r="I67" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="J67" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="K67" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="L67" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="M67" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="N67" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="O67" s="59"/>
+      <c r="P67" s="59"/>
+    </row>
+    <row r="68" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="60"/>
+      <c r="B68" s="57" t="s">
         <v>276</v>
       </c>
-      <c r="C68" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="I68" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="J68" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="K68" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="L68" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="M68" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="N68" s="36" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="56" t="s">
+      <c r="C68" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D68" s="59"/>
+      <c r="E68" s="59"/>
+      <c r="F68" s="59"/>
+      <c r="G68" s="59"/>
+      <c r="H68" s="59"/>
+      <c r="I68" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="J68" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="K68" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="L68" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="M68" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="N68" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="O68" s="59"/>
+      <c r="P68" s="59"/>
+    </row>
+    <row r="69" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="60" t="s">
         <v>281</v>
       </c>
-      <c r="B69" s="39" t="s">
+      <c r="B69" s="57" t="s">
         <v>280</v>
       </c>
-      <c r="C69" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="I69" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="J69" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="M69" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="N69" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="O69" s="36" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="56"/>
-      <c r="B70" s="39" t="s">
+      <c r="C69" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D69" s="59"/>
+      <c r="E69" s="59"/>
+      <c r="F69" s="59"/>
+      <c r="G69" s="59"/>
+      <c r="H69" s="59"/>
+      <c r="I69" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="J69" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="K69" s="59"/>
+      <c r="L69" s="59"/>
+      <c r="M69" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="N69" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="O69" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="P69" s="59"/>
+    </row>
+    <row r="70" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="60"/>
+      <c r="B70" s="57" t="s">
         <v>282</v>
       </c>
-      <c r="C70" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="I70" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="J70" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="M70" s="36"/>
-    </row>
-    <row r="71" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="56"/>
-      <c r="B71" s="39" t="s">
+      <c r="C70" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D70" s="59"/>
+      <c r="E70" s="59"/>
+      <c r="F70" s="59"/>
+      <c r="G70" s="59"/>
+      <c r="H70" s="59"/>
+      <c r="I70" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="J70" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="K70" s="59"/>
+      <c r="L70" s="59"/>
+      <c r="M70" s="58"/>
+      <c r="N70" s="59"/>
+      <c r="O70" s="59"/>
+      <c r="P70" s="59"/>
+    </row>
+    <row r="71" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="60"/>
+      <c r="B71" s="57" t="s">
         <v>283</v>
       </c>
-      <c r="C71" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="I71" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="J71" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="M71" s="36"/>
-    </row>
-    <row r="72" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="41" t="s">
+      <c r="C71" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D71" s="59"/>
+      <c r="E71" s="59"/>
+      <c r="F71" s="59"/>
+      <c r="G71" s="59"/>
+      <c r="H71" s="59"/>
+      <c r="I71" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="J71" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="K71" s="59"/>
+      <c r="L71" s="59"/>
+      <c r="M71" s="58"/>
+      <c r="N71" s="59"/>
+      <c r="O71" s="59"/>
+      <c r="P71" s="59"/>
+    </row>
+    <row r="72" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="54" t="s">
         <v>284</v>
       </c>
-      <c r="B72" s="39" t="s">
+      <c r="B72" s="57" t="s">
         <v>285</v>
       </c>
-      <c r="C72" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="I72" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="J72" s="36" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="56" t="s">
+      <c r="C72" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D72" s="59"/>
+      <c r="E72" s="59"/>
+      <c r="F72" s="59"/>
+      <c r="G72" s="59"/>
+      <c r="H72" s="59"/>
+      <c r="I72" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="J72" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="K72" s="59"/>
+      <c r="L72" s="59"/>
+      <c r="M72" s="59"/>
+      <c r="N72" s="59"/>
+      <c r="O72" s="59"/>
+      <c r="P72" s="59"/>
+    </row>
+    <row r="73" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="60" t="s">
         <v>286</v>
       </c>
-      <c r="B73" s="39" t="s">
+      <c r="B73" s="57" t="s">
         <v>287</v>
       </c>
-      <c r="C73" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="I73" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="J73" s="36" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="56"/>
-      <c r="B74" s="39" t="s">
+      <c r="C73" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D73" s="59"/>
+      <c r="E73" s="59"/>
+      <c r="F73" s="59"/>
+      <c r="G73" s="59"/>
+      <c r="H73" s="59"/>
+      <c r="I73" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="J73" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="K73" s="59"/>
+      <c r="L73" s="59"/>
+      <c r="M73" s="59"/>
+      <c r="N73" s="59"/>
+      <c r="O73" s="59"/>
+      <c r="P73" s="59"/>
+    </row>
+    <row r="74" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="60"/>
+      <c r="B74" s="57" t="s">
         <v>288</v>
       </c>
-      <c r="C74" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="I74" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="J74" s="36" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="56"/>
-      <c r="B75" s="39" t="s">
+      <c r="C74" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D74" s="59"/>
+      <c r="E74" s="59"/>
+      <c r="F74" s="59"/>
+      <c r="G74" s="59"/>
+      <c r="H74" s="59"/>
+      <c r="I74" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="J74" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="K74" s="59"/>
+      <c r="L74" s="59"/>
+      <c r="M74" s="59"/>
+      <c r="N74" s="59"/>
+      <c r="O74" s="59"/>
+      <c r="P74" s="59"/>
+    </row>
+    <row r="75" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="60"/>
+      <c r="B75" s="57" t="s">
         <v>289</v>
       </c>
-      <c r="C75" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="I75" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="J75" s="36" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="56"/>
-      <c r="B76" s="39" t="s">
+      <c r="C75" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D75" s="59"/>
+      <c r="E75" s="59"/>
+      <c r="F75" s="59"/>
+      <c r="G75" s="59"/>
+      <c r="H75" s="59"/>
+      <c r="I75" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="J75" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="K75" s="59"/>
+      <c r="L75" s="59"/>
+      <c r="M75" s="59"/>
+      <c r="N75" s="59"/>
+      <c r="O75" s="59"/>
+      <c r="P75" s="59"/>
+    </row>
+    <row r="76" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="60"/>
+      <c r="B76" s="57" t="s">
         <v>290</v>
       </c>
-      <c r="C76" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="I76" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="J76" s="36" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="56"/>
-      <c r="B77" s="39" t="s">
+      <c r="C76" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D76" s="59"/>
+      <c r="E76" s="59"/>
+      <c r="F76" s="59"/>
+      <c r="G76" s="59"/>
+      <c r="H76" s="59"/>
+      <c r="I76" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="J76" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="K76" s="59"/>
+      <c r="L76" s="59"/>
+      <c r="M76" s="59"/>
+      <c r="N76" s="59"/>
+      <c r="O76" s="59"/>
+      <c r="P76" s="59"/>
+    </row>
+    <row r="77" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="60"/>
+      <c r="B77" s="57" t="s">
         <v>291</v>
       </c>
-      <c r="C77" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="I77" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="J77" s="36" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="56"/>
-      <c r="B78" s="39" t="s">
+      <c r="C77" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D77" s="59"/>
+      <c r="E77" s="59"/>
+      <c r="F77" s="59"/>
+      <c r="G77" s="59"/>
+      <c r="H77" s="59"/>
+      <c r="I77" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="J77" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="K77" s="59"/>
+      <c r="L77" s="59"/>
+      <c r="M77" s="59"/>
+      <c r="N77" s="59"/>
+      <c r="O77" s="59"/>
+      <c r="P77" s="59"/>
+    </row>
+    <row r="78" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="60"/>
+      <c r="B78" s="57" t="s">
         <v>292</v>
       </c>
-      <c r="C78" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="I78" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="J78" s="36" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="56"/>
-      <c r="B79" s="39" t="s">
+      <c r="C78" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D78" s="59"/>
+      <c r="E78" s="59"/>
+      <c r="F78" s="59"/>
+      <c r="G78" s="59"/>
+      <c r="H78" s="59"/>
+      <c r="I78" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="J78" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="K78" s="59"/>
+      <c r="L78" s="59"/>
+      <c r="M78" s="59"/>
+      <c r="N78" s="59"/>
+      <c r="O78" s="59"/>
+      <c r="P78" s="59"/>
+    </row>
+    <row r="79" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="60"/>
+      <c r="B79" s="57" t="s">
         <v>293</v>
       </c>
-      <c r="C79" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="I79" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="J79" s="36" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="56" t="s">
+      <c r="C79" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D79" s="59"/>
+      <c r="E79" s="59"/>
+      <c r="F79" s="59"/>
+      <c r="G79" s="59"/>
+      <c r="H79" s="59"/>
+      <c r="I79" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="J79" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="K79" s="59"/>
+      <c r="L79" s="59"/>
+      <c r="M79" s="59"/>
+      <c r="N79" s="59"/>
+      <c r="O79" s="59"/>
+      <c r="P79" s="59"/>
+    </row>
+    <row r="80" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="60" t="s">
         <v>296</v>
       </c>
-      <c r="B80" s="39" t="s">
+      <c r="B80" s="57" t="s">
         <v>297</v>
       </c>
-      <c r="C80" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="I80" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="J80" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="K80" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="L80" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="M80" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="N80" s="36" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="56"/>
-      <c r="B81" s="39" t="s">
+      <c r="C80" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D80" s="59"/>
+      <c r="E80" s="59"/>
+      <c r="F80" s="59"/>
+      <c r="G80" s="59"/>
+      <c r="H80" s="59"/>
+      <c r="I80" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="J80" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="K80" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="L80" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="M80" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="N80" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="O80" s="59"/>
+      <c r="P80" s="59"/>
+    </row>
+    <row r="81" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="60"/>
+      <c r="B81" s="57" t="s">
         <v>298</v>
       </c>
-      <c r="C81" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="I81" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="J81" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="K81" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="L81" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="M81" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="N81" s="36" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="56"/>
-      <c r="B82" s="39" t="s">
+      <c r="C81" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D81" s="59"/>
+      <c r="E81" s="59"/>
+      <c r="F81" s="59"/>
+      <c r="G81" s="59"/>
+      <c r="H81" s="59"/>
+      <c r="I81" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="J81" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="K81" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="L81" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="M81" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="N81" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="O81" s="59"/>
+      <c r="P81" s="59"/>
+    </row>
+    <row r="82" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="60"/>
+      <c r="B82" s="57" t="s">
         <v>299</v>
       </c>
-      <c r="C82" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="I82" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="J82" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="L82" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="M82" s="36" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="56"/>
-      <c r="B83" s="39" t="s">
+      <c r="C82" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D82" s="59"/>
+      <c r="E82" s="59"/>
+      <c r="F82" s="59"/>
+      <c r="G82" s="59"/>
+      <c r="H82" s="59"/>
+      <c r="I82" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="J82" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="K82" s="59"/>
+      <c r="L82" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="M82" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="N82" s="59"/>
+      <c r="O82" s="59"/>
+      <c r="P82" s="59"/>
+    </row>
+    <row r="83" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="60"/>
+      <c r="B83" s="57" t="s">
         <v>300</v>
       </c>
-      <c r="C83" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="I83" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="J83" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="L83" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="M83" s="36"/>
-    </row>
-    <row r="84" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="56"/>
-      <c r="B84" s="39" t="s">
+      <c r="C83" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D83" s="59"/>
+      <c r="E83" s="59"/>
+      <c r="F83" s="59"/>
+      <c r="G83" s="59"/>
+      <c r="H83" s="59"/>
+      <c r="I83" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="J83" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="K83" s="59"/>
+      <c r="L83" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="M83" s="58"/>
+      <c r="N83" s="59"/>
+      <c r="O83" s="59"/>
+      <c r="P83" s="59"/>
+    </row>
+    <row r="84" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="60"/>
+      <c r="B84" s="57" t="s">
         <v>301</v>
       </c>
-      <c r="C84" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="I84" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="J84" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="K84" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="L84" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="M84" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="N84" s="36" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="56"/>
-      <c r="B85" s="39" t="s">
+      <c r="C84" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D84" s="59"/>
+      <c r="E84" s="59"/>
+      <c r="F84" s="59"/>
+      <c r="G84" s="59"/>
+      <c r="H84" s="59"/>
+      <c r="I84" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="J84" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="K84" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="L84" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="M84" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="N84" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="O84" s="59"/>
+      <c r="P84" s="59"/>
+    </row>
+    <row r="85" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="60"/>
+      <c r="B85" s="57" t="s">
         <v>302</v>
       </c>
-      <c r="C85" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="I85" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="J85" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="L85" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="M85" s="36" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="56"/>
-      <c r="B86" s="39" t="s">
+      <c r="C85" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D85" s="59"/>
+      <c r="E85" s="59"/>
+      <c r="F85" s="59"/>
+      <c r="G85" s="59"/>
+      <c r="H85" s="59"/>
+      <c r="I85" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="J85" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="K85" s="59"/>
+      <c r="L85" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="M85" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="N85" s="59"/>
+      <c r="O85" s="59"/>
+      <c r="P85" s="59"/>
+    </row>
+    <row r="86" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="60"/>
+      <c r="B86" s="57" t="s">
         <v>303</v>
       </c>
-      <c r="C86" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="I86" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="J86" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="L86" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="M86" s="36"/>
-    </row>
-    <row r="87" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="56"/>
-      <c r="B87" s="39" t="s">
+      <c r="C86" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D86" s="59"/>
+      <c r="E86" s="59"/>
+      <c r="F86" s="59"/>
+      <c r="G86" s="59"/>
+      <c r="H86" s="59"/>
+      <c r="I86" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="J86" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="K86" s="59"/>
+      <c r="L86" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="M86" s="58"/>
+      <c r="N86" s="59"/>
+      <c r="O86" s="59"/>
+      <c r="P86" s="59"/>
+    </row>
+    <row r="87" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="60"/>
+      <c r="B87" s="57" t="s">
         <v>304</v>
       </c>
-      <c r="C87" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="I87" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="J87" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="K87" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="L87" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="M87" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="N87" s="36" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="88" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="56"/>
-      <c r="B88" s="39" t="s">
+      <c r="C87" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D87" s="59"/>
+      <c r="E87" s="59"/>
+      <c r="F87" s="59"/>
+      <c r="G87" s="59"/>
+      <c r="H87" s="59"/>
+      <c r="I87" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="J87" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="K87" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="L87" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="M87" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="N87" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="O87" s="59"/>
+      <c r="P87" s="59"/>
+    </row>
+    <row r="88" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="60"/>
+      <c r="B88" s="57" t="s">
         <v>305</v>
       </c>
-      <c r="C88" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="I88" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="J88" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="L88" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="M88" s="36"/>
-    </row>
-    <row r="89" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="56"/>
-      <c r="B89" s="39" t="s">
+      <c r="C88" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D88" s="59"/>
+      <c r="E88" s="59"/>
+      <c r="F88" s="59"/>
+      <c r="G88" s="59"/>
+      <c r="H88" s="59"/>
+      <c r="I88" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="J88" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="K88" s="59"/>
+      <c r="L88" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="M88" s="58"/>
+      <c r="N88" s="59"/>
+      <c r="O88" s="59"/>
+      <c r="P88" s="59"/>
+    </row>
+    <row r="89" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="60"/>
+      <c r="B89" s="57" t="s">
         <v>306</v>
       </c>
-      <c r="C89" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="I89" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="J89" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="L89" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="M89" s="36"/>
-    </row>
-    <row r="90" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="56"/>
-      <c r="B90" s="39" t="s">
+      <c r="C89" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D89" s="59"/>
+      <c r="E89" s="59"/>
+      <c r="F89" s="59"/>
+      <c r="G89" s="59"/>
+      <c r="H89" s="59"/>
+      <c r="I89" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="J89" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="K89" s="59"/>
+      <c r="L89" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="M89" s="58"/>
+      <c r="N89" s="59"/>
+      <c r="O89" s="59"/>
+      <c r="P89" s="59"/>
+    </row>
+    <row r="90" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="60"/>
+      <c r="B90" s="57" t="s">
         <v>307</v>
       </c>
-      <c r="C90" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="I90" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="J90" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="K90" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="L90" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="M90" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="N90" s="36" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="56"/>
-      <c r="B91" s="39" t="s">
+      <c r="C90" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D90" s="59"/>
+      <c r="E90" s="59"/>
+      <c r="F90" s="59"/>
+      <c r="G90" s="59"/>
+      <c r="H90" s="59"/>
+      <c r="I90" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="J90" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="K90" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="L90" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="M90" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="N90" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="O90" s="59"/>
+      <c r="P90" s="59"/>
+    </row>
+    <row r="91" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="60"/>
+      <c r="B91" s="57" t="s">
         <v>308</v>
       </c>
-      <c r="C91" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="I91" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="J91" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="L91" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="M91" s="36" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="56"/>
-      <c r="B92" s="39" t="s">
+      <c r="C91" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D91" s="59"/>
+      <c r="E91" s="59"/>
+      <c r="F91" s="59"/>
+      <c r="G91" s="59"/>
+      <c r="H91" s="59"/>
+      <c r="I91" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="J91" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="K91" s="59"/>
+      <c r="L91" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="M91" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="N91" s="59"/>
+      <c r="O91" s="59"/>
+      <c r="P91" s="59"/>
+    </row>
+    <row r="92" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="60"/>
+      <c r="B92" s="57" t="s">
         <v>309</v>
       </c>
-      <c r="C92" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="I92" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="J92" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="L92" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="M92" s="36" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="41" t="s">
+      <c r="C92" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D92" s="59"/>
+      <c r="E92" s="59"/>
+      <c r="F92" s="59"/>
+      <c r="G92" s="59"/>
+      <c r="H92" s="59"/>
+      <c r="I92" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="J92" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="K92" s="59"/>
+      <c r="L92" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="M92" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="N92" s="59"/>
+      <c r="O92" s="59"/>
+      <c r="P92" s="59"/>
+    </row>
+    <row r="93" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="54" t="s">
         <v>311</v>
       </c>
-      <c r="B93" s="39" t="s">
+      <c r="B93" s="57" t="s">
         <v>310</v>
       </c>
-      <c r="C93" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="I93" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="J93" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="L93" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="M93" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="N93" s="36" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="40" t="s">
+      <c r="C93" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D93" s="59"/>
+      <c r="E93" s="59"/>
+      <c r="F93" s="59"/>
+      <c r="G93" s="59"/>
+      <c r="H93" s="59"/>
+      <c r="I93" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="J93" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="K93" s="59"/>
+      <c r="L93" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="M93" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="N93" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="O93" s="59"/>
+      <c r="P93" s="59"/>
+    </row>
+    <row r="94" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="62" t="s">
         <v>312</v>
       </c>
-      <c r="B94" s="39" t="s">
+      <c r="B94" s="57" t="s">
         <v>313</v>
       </c>
-      <c r="C94" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="I94" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="J94" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="L94" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="M94" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="N94" s="36" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="41" t="s">
+      <c r="C94" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D94" s="59"/>
+      <c r="E94" s="59"/>
+      <c r="F94" s="59"/>
+      <c r="G94" s="59"/>
+      <c r="H94" s="59"/>
+      <c r="I94" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="J94" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="K94" s="59"/>
+      <c r="L94" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="M94" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="N94" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="O94" s="59"/>
+      <c r="P94" s="59"/>
+    </row>
+    <row r="95" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="54" t="s">
         <v>314</v>
       </c>
-      <c r="B95" s="39" t="s">
+      <c r="B95" s="57" t="s">
         <v>315</v>
       </c>
-      <c r="C95" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="I95" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="J95" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="L95" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="M95" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="N95" s="36" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="96" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="41" t="s">
+      <c r="C95" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D95" s="59"/>
+      <c r="E95" s="59"/>
+      <c r="F95" s="59"/>
+      <c r="G95" s="59"/>
+      <c r="H95" s="59"/>
+      <c r="I95" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="J95" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="K95" s="59"/>
+      <c r="L95" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="M95" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="N95" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="O95" s="59"/>
+      <c r="P95" s="59"/>
+    </row>
+    <row r="96" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="54" t="s">
         <v>316</v>
       </c>
-      <c r="B96" s="39" t="s">
+      <c r="B96" s="57" t="s">
         <v>317</v>
       </c>
-      <c r="C96" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="I96" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="J96" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="L96" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="M96" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="N96" s="36" t="s">
-        <v>28</v>
-      </c>
+      <c r="C96" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D96" s="59"/>
+      <c r="E96" s="59"/>
+      <c r="F96" s="59"/>
+      <c r="G96" s="59"/>
+      <c r="H96" s="59"/>
+      <c r="I96" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="J96" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="K96" s="59"/>
+      <c r="L96" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="M96" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="N96" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="O96" s="59"/>
+      <c r="P96" s="59"/>
     </row>
     <row r="97" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="41" t="s">
+      <c r="A97" s="54" t="s">
         <v>318</v>
       </c>
-      <c r="B97" s="39" t="s">
+      <c r="B97" s="57" t="s">
         <v>237</v>
       </c>
-      <c r="C97" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="I97" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="J97" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="O97" s="36" t="s">
-        <v>28</v>
-      </c>
+      <c r="C97" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D97" s="59"/>
+      <c r="E97" s="59"/>
+      <c r="F97" s="59"/>
+      <c r="G97" s="59"/>
+      <c r="H97" s="59"/>
+      <c r="I97" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="J97" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="K97" s="59"/>
+      <c r="L97" s="59"/>
+      <c r="M97" s="59"/>
+      <c r="N97" s="59"/>
+      <c r="O97" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="P97" s="59"/>
     </row>
     <row r="98" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="56" t="s">
+      <c r="A98" s="60" t="s">
         <v>319</v>
       </c>
-      <c r="B98" s="39" t="s">
+      <c r="B98" s="57" t="s">
         <v>237</v>
       </c>
-      <c r="C98" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="I98" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="J98" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="P98" s="36" t="s">
+      <c r="C98" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D98" s="59"/>
+      <c r="E98" s="59"/>
+      <c r="F98" s="59"/>
+      <c r="G98" s="59"/>
+      <c r="H98" s="59"/>
+      <c r="I98" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="J98" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="K98" s="59"/>
+      <c r="L98" s="59"/>
+      <c r="M98" s="59"/>
+      <c r="N98" s="59"/>
+      <c r="O98" s="59"/>
+      <c r="P98" s="58" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="99" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="56"/>
-      <c r="B99" s="39" t="s">
+      <c r="A99" s="60"/>
+      <c r="B99" s="57" t="s">
         <v>242</v>
       </c>
-      <c r="C99" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="I99" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="J99" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="P99" s="36" t="s">
+      <c r="C99" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D99" s="59"/>
+      <c r="E99" s="59"/>
+      <c r="F99" s="59"/>
+      <c r="G99" s="59"/>
+      <c r="H99" s="59"/>
+      <c r="I99" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="J99" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="K99" s="59"/>
+      <c r="L99" s="59"/>
+      <c r="M99" s="59"/>
+      <c r="N99" s="59"/>
+      <c r="O99" s="59"/>
+      <c r="P99" s="58" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="100" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="56"/>
-      <c r="B100" s="39" t="s">
+      <c r="A100" s="60"/>
+      <c r="B100" s="57" t="s">
         <v>245</v>
       </c>
-      <c r="C100" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="I100" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="J100" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="P100" s="36" t="s">
+      <c r="C100" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D100" s="59"/>
+      <c r="E100" s="59"/>
+      <c r="F100" s="59"/>
+      <c r="G100" s="59"/>
+      <c r="H100" s="59"/>
+      <c r="I100" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="J100" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="K100" s="59"/>
+      <c r="L100" s="59"/>
+      <c r="M100" s="59"/>
+      <c r="N100" s="59"/>
+      <c r="O100" s="59"/>
+      <c r="P100" s="58" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="101" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="56"/>
-      <c r="B101" s="39" t="s">
+      <c r="A101" s="60"/>
+      <c r="B101" s="57" t="s">
         <v>241</v>
       </c>
-      <c r="C101" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="I101" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="J101" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="P101" s="36" t="s">
+      <c r="C101" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D101" s="59"/>
+      <c r="E101" s="59"/>
+      <c r="F101" s="59"/>
+      <c r="G101" s="59"/>
+      <c r="H101" s="59"/>
+      <c r="I101" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="J101" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="K101" s="59"/>
+      <c r="L101" s="59"/>
+      <c r="M101" s="59"/>
+      <c r="N101" s="59"/>
+      <c r="O101" s="59"/>
+      <c r="P101" s="58" t="s">
         <v>28</v>
       </c>
     </row>
@@ -29648,28 +30653,28 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="I1:P1"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A80:A92"/>
+    <mergeCell ref="A98:A101"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="A64:A66"/>
+    <mergeCell ref="A69:A71"/>
+    <mergeCell ref="A73:A79"/>
+    <mergeCell ref="A56:A61"/>
+    <mergeCell ref="A44:A53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A40:A43"/>
     <mergeCell ref="A19:A27"/>
     <mergeCell ref="A32:A33"/>
     <mergeCell ref="A34:A39"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A11:A14"/>
     <mergeCell ref="A15:A18"/>
-    <mergeCell ref="A56:A61"/>
-    <mergeCell ref="A44:A53"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="A80:A92"/>
-    <mergeCell ref="A98:A101"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="A64:A66"/>
-    <mergeCell ref="A69:A71"/>
-    <mergeCell ref="A73:A79"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="I1:P1"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A7:A10"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:XFD11 B12:XFD18 A19:XFD44 B45:XFD48 B49:I55 J49:XFD72 A56:I56 B57:I61 A62:I62 B63:I63 A64:I64 B65:I66 A67:I67 B68:I71 A69 A72:I72 A73:B73 C73:XFD79 B74:B79 A80:XFD80 B81:XFD92 A93:XFD98 B99:XFD101 A102:XFD1048576">
     <cfRule type="expression" dxfId="0" priority="1">
